--- a/アフィリエイト_商品.xlsx
+++ b/アフィリエイト_商品.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\aff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuzo\Desktop\aff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6426F600-4A89-4627-B2DE-75DEF920F646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14715" yWindow="315" windowWidth="14430" windowHeight="15630" firstSheet="2" activeTab="2" xr2:uid="{BD540033-A21C-43CE-B5B5-E2C795AD0A5C}"/>
+    <workbookView xWindow="14715" yWindow="315" windowWidth="14430" windowHeight="15630" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="６０ローケア・イオンドライヤー" sheetId="4" r:id="rId3"/>
     <sheet name="シートテンプレ" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <r>
       <t>もっと詳しく知りたい方は</t>
@@ -1011,14 +1010,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>60_lowcare_dryer.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Re:beau ６０ローケア・イオンドライヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【知らなきゃ損】Re:beau 60ローケア・イオンドライヤーの最安値は？</t>
     <rPh sb="1" eb="2">
       <t>シ</t>
@@ -1039,60 +1030,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>今ジワジワと話題になってきている「Re:beau ６０ローケア・イオンドライヤー」。</t>
-    <rPh sb="0" eb="1">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ワダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最安値をご紹介</t>
-    <rPh sb="0" eb="3">
-      <t>サイヤスネ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特徴と効果、口コミも合わせてご紹介致します</t>
-    <rPh sb="0" eb="2">
-      <t>トクチョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウカ</t>
-    </rPh>
+    <t>ハリシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュ, 口コミ, 効果</t>
     <rPh sb="6" eb="7">
       <t>クチ</t>
     </rPh>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>イタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://xn--yck5cqaa4411bbko82s.xyz/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.interest-watching.com/13292</t>
+    <rPh sb="11" eb="13">
+      <t>コウカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1239,7 +1194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1277,9 +1232,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1596,14 +1548,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7F5D86-D203-44F4-BA8B-23FAA7E613B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1611,7 +1563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDDF20C-8A4F-413D-B731-EBC84CE2B5B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1620,15 +1572,15 @@
       <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6" t="s">
         <v>44</v>
       </c>
@@ -1636,22 +1588,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
@@ -1683,20 +1635,20 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:30" ht="24" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:30" ht="22.9" x14ac:dyDescent="0.7">
       <c r="D20" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:30" ht="36" x14ac:dyDescent="0.7">
       <c r="C23" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C25" s="2" t="s">
         <v>36</v>
       </c>
@@ -1728,57 +1680,57 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="2:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="2:30" ht="24" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="28" spans="2:30" ht="22.9" x14ac:dyDescent="0.7">
       <c r="D28" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="E29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="2:30" ht="24" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="31" spans="2:30" ht="22.9" x14ac:dyDescent="0.7">
       <c r="D31" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="E32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="34" spans="3:30" ht="24" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="34" spans="3:30" ht="22.9" x14ac:dyDescent="0.7">
       <c r="D34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="E35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="37" spans="3:30" ht="24" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="37" spans="3:30" ht="22.9" x14ac:dyDescent="0.7">
       <c r="D37" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="E38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="40" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C40" s="2" t="s">
         <v>26</v>
       </c>
@@ -1810,23 +1762,23 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="45" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C45" s="2" t="s">
         <v>22</v>
       </c>
@@ -1858,33 +1810,33 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="52" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
@@ -1916,14 +1868,14 @@
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
     </row>
-    <row r="53" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D53" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="55" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="56" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
@@ -1955,72 +1907,72 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
     </row>
-    <row r="57" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D58" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D59" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E60" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E61" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D66" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D67" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D68" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D69" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D71" t="s">
         <v>0</v>
       </c>
@@ -2028,7 +1980,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{2736CED9-4147-4B16-8E76-A59E74B09B38}"/>
+    <hyperlink ref="D4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2036,52 +1988,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AC7B07-5089-4518-BE47-615A554671BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="AB49" sqref="AB49"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B23" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C24" s="10" t="s">
         <v>39</v>
       </c>
@@ -2113,10 +2062,10 @@
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
     </row>
-    <row r="25" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C26" s="9" t="s">
         <v>38</v>
       </c>
@@ -2148,47 +2097,22 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C28" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:30" ht="36" x14ac:dyDescent="0.7">
       <c r="C30" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D35" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C41" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -2220,16 +2144,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="D35" r:id="rId1" xr:uid="{4E89A5A2-80DF-46CB-9A95-3676221292FA}"/>
-    <hyperlink ref="D36" r:id="rId2" xr:uid="{7AB057EE-04C8-4E34-8E73-8EA10F13226A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8464EC64-79FC-4F37-83D3-B372ADD6D8FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2238,35 +2158,35 @@
       <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B23" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C24" s="10" t="s">
         <v>39</v>
       </c>
@@ -2298,10 +2218,10 @@
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
     </row>
-    <row r="25" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C26" s="9" t="s">
         <v>38</v>
       </c>
@@ -2333,15 +2253,15 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C28" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:30" ht="36" x14ac:dyDescent="0.7">
       <c r="C30" s="4" t="s">
         <v>48</v>
       </c>

--- a/アフィリエイト_商品.xlsx
+++ b/アフィリエイト_商品.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuzo\Desktop\aff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\aff\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5C1C78-941D-4C59-9292-1BEA2F292BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14715" yWindow="315" windowWidth="14430" windowHeight="15630" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="43170" yWindow="75" windowWidth="14430" windowHeight="15600" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="グリーンクレンズジュース" sheetId="2" r:id="rId2"/>
-    <sheet name="６０ローケア・イオンドライヤー" sheetId="4" r:id="rId3"/>
+    <sheet name="ハリシュ" sheetId="4" r:id="rId3"/>
     <sheet name="シートテンプレ" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="251">
   <si>
     <r>
       <t>もっと詳しく知りたい方は</t>
@@ -986,10 +987,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>greencleansejuice.site</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>URL：</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1010,45 +1007,3397 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【知らなきゃ損】Re:beau 60ローケア・イオンドライヤーの最安値は？</t>
+    <t>ハリシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://harishu.web.fc2.com/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.vedovn.net/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュの口コミと評判をチェック！</t>
+    <rPh sb="5" eb="6">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>良い口コミ</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪い口コミ</t>
+    <rPh sb="0" eb="1">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【購入前に確認を！】ハリシュの口コミや評判、効果をチェック！</t>
+    <rPh sb="1" eb="3">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウバン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口コミのまとめ</t>
+    <rPh sb="0" eb="1">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理的被膜効果により肌が即効で引き締まります</t>
+    <rPh sb="0" eb="3">
+      <t>ブツリテキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒマク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*乾燥させたときの収縮力による効果</t>
+    <rPh sb="15" eb="17">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理的被膜効果*により肌が即効で引き締まります</t>
+    <rPh sb="0" eb="3">
+      <t>ブツリテキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒマク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1度の使用での効果</t>
     <rPh sb="1" eb="2">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ソン</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>サイヤスネ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Re:beau ６０ローケア・イオンドライヤーはどこで買える？</t>
-    <rPh sb="27" eb="28">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハリシュ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハリシュ, 口コミ, 効果</t>
-    <rPh sb="6" eb="7">
-      <t>クチ</t>
+      <t>ド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継続することで得られる効果</t>
+    <rPh sb="0" eb="2">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エ</t>
     </rPh>
     <rPh sb="11" eb="13">
       <t>コウカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、高密度ポリマーが肌表面に密着し、引き締め感とハリを与えてくれます</t>
+    <rPh sb="3" eb="6">
+      <t>コウミツド</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミッチャク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用を続けていくほどに顔のたるみが引き上がります</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュの正しい使い方</t>
+    <rPh sb="5" eb="6">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュはどこで買える？</t>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公式サイトにしかない『お試しコース』とは？</t>
+    <rPh sb="0" eb="2">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全額返金保証とは</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンガク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンキン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解約方法</t>
+    <rPh sb="0" eb="2">
+      <t>カイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュ使用による効果のまとめ</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周囲の同年代の人と比べて肌が若く、綺麗になると自分の顔に自信が持てるようになりますね</t>
+    <rPh sb="0" eb="2">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ドウネンダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キレイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性用化粧品なのに女性にもウケが良いんじゃないか、と言うくらいのパフォーマンス</t>
+    <rPh sb="0" eb="3">
+      <t>ダンセイヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ケショウヒン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1度目から肌表面への効果があり、継続することで根本的は効果を得ることが出来ます</t>
+    <rPh sb="1" eb="3">
+      <t>ドメ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コンポン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肌にハリを与える8つのアプローチ成分</t>
+    <rPh sb="0" eb="1">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高密度ポリマー</t>
+    <rPh sb="0" eb="3">
+      <t>コウミツド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴的な成分</t>
+    <rPh sb="0" eb="3">
+      <t>トクチョウテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>添加物の使用などはあるの？</t>
+    <rPh sb="0" eb="3">
+      <t>テンカブツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★無香料～</t>
+    <rPh sb="1" eb="4">
+      <t>ムコウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュの成分まとめ</t>
+    <rPh sb="5" eb="7">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージをケアし、肌を生き返らせる成分がたくさん入っているようですね</t>
+    <rPh sb="9" eb="10">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他の成分一覧の中でも、</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セイヨウハッカ葉エキス</t>
+  </si>
+  <si>
+    <t>加水分解バオバブエキス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全成分は以下です。アレルギーや苦手な成分がある方はご確認下さい。</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニガテ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュの成分には副作用などの危険があるような添加物は含まれておらず、</t>
+    <rPh sb="5" eb="7">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>フクサヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キケン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>テンカブツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>と肌を若返らせる期待が出来そうです</t>
+    <rPh sb="1" eb="2">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ワカガエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュの効果をより実感するためには正しい手順で使用する必要があります</t>
+    <rPh sb="5" eb="7">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッカン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュは洗顔の後に化粧水の代わりとして使用するものです</t>
+    <rPh sb="5" eb="7">
+      <t>センガン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ケショウスイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成分一覧</t>
+    <rPh sb="0" eb="2">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実店舗にはありません</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>テンポ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリマアプリやヤフオクでは衛生面からあまりおすすめ出来ません。</t>
+    <rPh sb="13" eb="16">
+      <t>エイセイメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肌に直に使用する物ですので、信頼出来るところから購入した方が安心です</t>
+    <rPh sb="0" eb="1">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>アンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実店舗X</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>テンポ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネット通販〇</t>
+    <rPh sb="3" eb="5">
+      <t>ツウハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽天やamazoneなど</t>
+    <rPh sb="0" eb="2">
+      <t>ラクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリマアプリやオークション△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公式サイト◎</t>
+    <rPh sb="0" eb="2">
+      <t>コウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お試しコースが安くて返金保証もある</t>
+    <rPh sb="1" eb="2">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンキン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://greencleansejuice.site/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュはどのくらい効果があるのか</t>
+    <rPh sb="10" eb="12">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュの成分は効果的なのか</t>
+    <rPh sb="8" eb="11">
+      <t>コウカテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュの口コミと評判をチェック！</t>
+    <rPh sb="5" eb="6">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュはどのくらい効果があるのか</t>
+    <rPh sb="10" eb="12">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュの成分は効果的なのか</t>
+    <rPh sb="8" eb="11">
+      <t>コウカテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュの正しい使い方</t>
+    <rPh sb="5" eb="6">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュはどこで買える？</t>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公式サイトにしかない『お試しコース』とは？</t>
+    <rPh sb="0" eb="2">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【購入前に確認を！】ハリシュの口コミや評判、効果をチェック！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肌にハリを与える8つのアプローチ成分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高密度ポリマー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今話題のエイジングケアミスト『ハリシュ』の口コミや評判、その効果や成分をご紹介します！</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ワダイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウバン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュのあからさまに悪い口コミは現在確認出来ませんでしたが、強いて上げるとすれば以下の口コミがありました</t>
+    <rPh sb="11" eb="12">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とても細かいミスト(霧)が勢いよく顔に降りかかるので、初めて使用する際は少しびっくりするかもしれませんが、</t>
+    <rPh sb="3" eb="4">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イキオ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>スコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慣れてくるとそれが癖になって使うのが楽しくなってきます！</t>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュに関する良い口コミと悪い口コミ、メリットとデメリットについて調査しました、購入前に是非チェックして下さい</t>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ゼヒ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現状口コミ自体の数が少ないのでこれくらいしか悪い口コミはありませんでしたが、</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あまり悪い口コミではありませんでしたね</t>
+    <rPh sb="3" eb="4">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他に悪そうな評判もありませんでしたので、少し無理やりですが載せました</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウバン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ムリ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口コミでは無いのですが、調べて行くうちに私が気になった部分をご紹介します</t>
+    <rPh sb="0" eb="1">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし、調べてみるとこの容量は「1日2回、1回につき4プッシュで約30日分」の量だと言うことが分かりました</t>
+    <rPh sb="4" eb="5">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪い口コミとデメリット</t>
+    <rPh sb="0" eb="1">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人的に気になる部分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>良い口コミとメリット</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1度の使用での効果</t>
+    <rPh sb="1" eb="2">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継続することで得られる効果</t>
+    <rPh sb="0" eb="2">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュ使用による効果のまとめ</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴的な成分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成分一覧</t>
+    <rPh sb="0" eb="2">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュの成分まとめ</t>
+    <rPh sb="5" eb="7">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュの効果をより実感するためには正しい手順で使用する必要があります</t>
+    <rPh sb="5" eb="7">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッカン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュは洗顔の後に化粧水の代わりとして使用するものです</t>
+    <rPh sb="5" eb="7">
+      <t>センガン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ケショウスイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実店舗・・・×</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>テンポ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネット通販・・・〇</t>
+    <rPh sb="3" eb="5">
+      <t>ツウハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリマアプリやオークション・・・△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公式サイト・・・◎</t>
+    <rPh sb="0" eb="2">
+      <t>コウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見た目は小さいですが、1本で約一か月分ですので量的には丁度良いと言うことが分かりました</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ポン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イッ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゲツブン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リョウテキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>チョウド</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用期限はどのくらいか</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>量が少ない気がするが適切か</t>
+    <rPh sb="0" eb="1">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テキセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1本につき一か月分ですが、毎日2回ずつを1日も欠かさず出来るかと言うと、忘れてしまう日もあるかと思います</t>
+    <rPh sb="1" eb="2">
+      <t>ポン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イッ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>マイニチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、何となく開封せずにいたけど、気が向いて使い始めたら使用期限が切れていた、なんてこともあるかもしれません</t>
+    <rPh sb="3" eb="4">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイフウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ですので使用期限にはどのくらい余裕があるのかが気になりました</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調べてみると</t>
+    <rPh sb="0" eb="1">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"未開封であれば、使用期限は2年ほどです。（直射日光、高温多湿を避けた常温で保存した場合）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開封後は2ヵ月以内を目安にお使いください。"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>との事でした</t>
+    <rPh sb="2" eb="3">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特に長くもなく短くもないので、あまり気にする必要は無かったなと思いました</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>化粧水との併用はオススメ出来ない</t>
+    <rPh sb="0" eb="3">
+      <t>ケショウスイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュの前後に化粧水を使用すると速効の引き締め感を感じにくくなる可能性があります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュは化粧水としての働きも兼ねている為、保湿力を高めたいときやさらにハリを感じたいときには、</t>
+    <rPh sb="5" eb="8">
+      <t>ケショウスイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大8プッシュを目安にハリシュの量を増やして使用することがオススメです</t>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://hari-shu.work/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また口コミが増え次第随時更新して行きます！</t>
+    <rPh sb="2" eb="3">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目次を入れる</t>
+    <rPh sb="0" eb="2">
+      <t>モクジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュ,口コミ,効果,評判</t>
+    <rPh sb="5" eb="6">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性にも勧めたい商品です</t>
+  </si>
+  <si>
+    <t>保湿力がとても優れているので、直ぐに肌に馴染みます</t>
+    <rPh sb="0" eb="2">
+      <t>ホシツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スグ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ナジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確信出来るくらいハリが出ました！</t>
+    <rPh sb="0" eb="2">
+      <t>カクシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性用化粧品なのに女性にもウケが良いんじゃないか、と言うくらいのパフォーマンスです</t>
+    <rPh sb="0" eb="3">
+      <t>ダンセイヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ケショウヒン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3か月の継続がオススメらしいのですが、</t>
+    <rPh sb="2" eb="3">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モニター調査での感想</t>
+    <rPh sb="4" eb="6">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下は発売前にモニター調査で実際に使用された人の喜びの声です</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハツバイマエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨロコ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>コエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非常に使いやすく、ぜひ進めたいと思います。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>良い商品ですね。</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェイスラインもスッキリするので驚きました！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>感想は個人差がありますが、ハリシュは内容量が1本につき30mlですので若干少ないのでは、と言う気がしました</t>
+    <rPh sb="0" eb="2">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コジンサ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ナイヨウリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ポン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジャッカン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュの口コミのまとめ</t>
+    <rPh sb="5" eb="6">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>使用を始めてからまだ5日ですが</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最初の1回目で効果を実感しました</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>もともと肌のハリに自信が無く、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>半信半疑で使用したものの翌朝にはハリシュのおかげだと</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ハンシンハンギ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨクアサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>肌への浸透率がすごい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ので洗顔後やお風呂上りの感想を防ぐのにもってこいって感じですね！</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シントウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センガン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>フロ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アガ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>3ヶ月毎日使用すると</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自分の顔の輪郭に自信が持てるようになる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>らしいので、続ていくのが楽しみです！</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マイニチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>リンカク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>吹きかけるだけですので</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>誰でも簡単にスキンケアが出来ます</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用の度に肌の調子が良くなっている気がする</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のでモチベーションも上がります</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タビ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウシ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ハリシュを使用して5日目ですが、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使って即効で引き締まるのを感じました。</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソッコウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>メンズコスメの特有な香りではなかった</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ので個人的に良かったです！</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>これを使う前は自分の顔が疲れて見えていたが、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>感動した。一生使っていきたい。</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンドウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イッショウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近職場でほめられます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、嬉しいものです。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>サイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクバ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>コットンなど使わない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ところもエコで良いです。</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公式サイトでも「1回の使用でも、肌が即効で引き締まります。」とあります。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソッコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちらはハリシュの「物理的被膜効果」と言うものらしいのですが、</t>
+    <rPh sb="10" eb="13">
+      <t>ブツリテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒマク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「物理的被膜効果」とはどんな効果なのか、次にハリシュの効果について見ていきたいと思います。</t>
+    <rPh sb="1" eb="8">
+      <t>ブツリテキヒマクコウカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュは発売されてからまだ日が浅く、口コミの数が少なかったので</t>
+    <rPh sb="5" eb="7">
+      <t>ハツバイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高密度ポリマーと呼ばれる成分が肌表面で3Dネットを作り、肌にハリと引き締め感を与えてくれます。</t>
+    <rPh sb="25" eb="26">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>と、言われても専門用語ばかりで分かりづらいですよね……</t>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センモン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分かりやすく説明すると、</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このバーシカンは年齢を重ねると機能が衰え始めます。</t>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オトロ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能不全になったバーシカンの割合が多くなると肌は弾力を維持しにくくなります。</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フゼン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ワリアイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ダンリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュはミスト（霧）が網の目のように広がり肌に密着します</t>
+    <rPh sb="9" eb="10">
+      <t>キリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アミ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ミッチャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そして弾力を失った肌の山状の部分と山状の部分同士を覆うように張り付き、</t>
+    <rPh sb="3" eb="5">
+      <t>ダンリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウシナ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>物理的被膜効果とは乾燥させたとき</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>収縮力による効果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で、</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>肌には本来</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>肌の弾力を保つ「バーシカン」と言う成分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が存在します。</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホンライ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ダンリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タモ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ですので</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1度目の使用から物理的に肌にハリを感じることが出来ます</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>ドメ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ブツリテキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>肌は弾力を失うと、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>たるんできて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>緩やかに山状の部分と谷状の部分が出来てきます。</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンリョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウシナ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ユル</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タニ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乾燥するとともに山状同士の間にある谷状の部分を引き上げてくれます</t>
+    <rPh sb="8" eb="9">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タニ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>これが</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乾燥による収縮力「物理的被膜効果」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>です</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シュウシュクリョク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ブツリテキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒマク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乾燥による収縮力は即効性があり、直ぐに効果を実感出来ます</t>
+    <rPh sb="0" eb="2">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シュウシュクリョク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ソッコウセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ではハリシュには即効性の効果しかないのか？と言うとそんなことはありません</t>
+    <rPh sb="8" eb="11">
+      <t>ソッコウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし、それは使用した際に感じる効果で、1度の使用で数日効果が持続する、と言うような長期的な効力ではありません</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>スウジツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジゾク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>チョウキテキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ハリシュには勿論、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>続けることで得られる根本ケアの効果もあります</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>モチロン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コンポン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>具体的にはハリシュに配合してある8つのアプローチ成分が、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>肌に蓄積したダメージを根本からケアします。</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイゴウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>チクセキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コンポン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年齢に応じたケアが可能です</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ので、年齢を重ねた方や男性の肌特徴にもしっかり効果があります。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>使用を続けていくほどに顔のたるみが引き上がり、肌のキメが整って</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自分の顔に自信が持てるようになります。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トトノ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>即効性の効果で肌にハリを持たせ、同時に、継続することで加齢により蓄積したダメージのケアをすることが出来るので</t>
+    <rPh sb="0" eb="3">
+      <t>ソッコウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カレイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>チクセキ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用すればするほど肌を若返らせることが出来ますね！</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ワカガエ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周囲の人と比べて肌が若く、綺麗になると自分の顔に自信が持てるようになりますので</t>
+    <rPh sb="0" eb="2">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キレイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>良い気分で日常が過ごせそうですね</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キブン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニチジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次は根本ケアに効果のある8つ成分とは何か見ていきたいと思います。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コンポン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>添加物の使用について</t>
+    <rPh sb="0" eb="3">
+      <t>テンカブツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敏感肌でも可</t>
+    <rPh sb="0" eb="2">
+      <t>ビンカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水、グリセリン、変性アルコール、ビスPEG-18メチルエーテルジメチルシラン、ポリウレタン-14、BG、ケイ酸（Na/Mg）、アクリレーツコポリマーAMP、エタノール、フェノキシエタノール、レシチン、カルノシン、HEDTA-3Na、加水分解バオバブエキス、セイヨウハッカ葉エキス、アテロコラーゲン、ヒアルロン酸、シラントリオール、トコフェロール、アセチルテトラペプチド-2、グリセリルアスコルビン酸、オオアザミ果実エキス、加水分解キャッサバ塊茎エキス、加水分解エラスチン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肌に良い成分が沢山配合されているのは分かりましたが、添加物の使用はあるのでしょうか</t>
+    <rPh sb="0" eb="1">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タクサン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイゴウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>テンカブツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アセチルテトラペプチド-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・セイヨウハッカ葉エキス</t>
+    <rPh sb="8" eb="9">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アテロコラーゲン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・加水分解エラスチン</t>
+    <rPh sb="1" eb="3">
+      <t>カスイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ビタミンC誘導体</t>
+    <rPh sb="6" eb="9">
+      <t>ユウドウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ザハリープ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・シラントリール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・加水分解バオバブエキス</t>
+    <rPh sb="1" eb="3">
+      <t>カスイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュには実に沢山の成分が配合されているのですが、その中でも特徴的な成分をご紹介します</t>
+    <rPh sb="6" eb="7">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タクサン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイゴウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>トクチョウテキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下は肌の根本ケアに効果のある8つの成分です</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コンポン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちらは肌に引き締め感やハリを感じさせる、即効性のある成分です</t>
+    <rPh sb="4" eb="5">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ソッコウセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アレルギーや苦手な成分がある方はご確認下さい。</t>
+    <rPh sb="6" eb="8">
+      <t>ニガテ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既にご紹介した成分以外にもハリシュには多くの成分がありますので名称だけご紹介しますので</t>
+    <rPh sb="0" eb="1">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュに配合されている全成分は以下です。</t>
+    <rPh sb="5" eb="7">
+      <t>ハイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・無香料</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・無着色</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・パラベンフリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・石油系界面活性剤不使用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・紫外線吸収剤不使用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・鉱物油不使用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調べたところ、</t>
+    <rPh sb="0" eb="1">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とあるので、添加物の類はあまり使用されていないようです</t>
+    <rPh sb="6" eb="9">
+      <t>テンカブツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タグイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただ、品質を保持した状態で使用出来るように防腐剤は含まれているようです。</t>
+    <rPh sb="3" eb="5">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュは開封したら2ヶ月ほど鮮度がもつので、その為に商品に合わせて適切に使用されているそうです。</t>
+    <rPh sb="5" eb="7">
+      <t>カイフウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センド</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュは吹きかけるだけで誰でも簡単にスキンケア出来る、と口コミにありましたが、</t>
+    <rPh sb="5" eb="6">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>その効果をより感じる為には</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正しい使用法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で継続することが大切です</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>シヨウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下に</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体的に良い口コミが多かったのですが、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>その中でも特に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「ハリシュは使い始めから直ぐに効果を感じられる」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と言う感想が多い印象です。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>keywordのスペースを取る</t>
+    <rPh sb="13" eb="14">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.haba.co.jp/info/CHSfIngredientDetail.jsp?INGREDIENT_NO=923&amp;igidx=1#:~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://cosmetic-ingredients.org/astringent/%E3%82%BB%E3%82%A4%E3%83%A8%E3%82%A6%E3%83%8F%E3%83%83%E3%82%AB%E8%91%89%E3%82%A8%E3%82%AD%E3%82%B9%E3%81%AE%E6%88%90%E5%88%86%E5%8A%B9%E6%9E%9C%E3%81%A8%E6%AF%92%E6%80%A7/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.hari-shu.com/pc/index_afi.html?utm_source=affiliate&amp;utm_medium=affiliate&amp;utm_campaign=a8_hr&amp;ad_id=a8_hr&amp;item_id=HR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.kaitekikobo.jp/hajimete/faq_harishu.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.vedovn.net/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://harishu.web.fc2.com/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1144,6 +4493,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1194,7 +4551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1232,6 +4589,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1548,14 +4917,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1563,47 +4932,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:4" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
@@ -1635,20 +5004,20 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:30" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:30" ht="24" x14ac:dyDescent="0.4">
       <c r="D20" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:30" ht="36" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
       <c r="C23" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C25" s="2" t="s">
         <v>36</v>
       </c>
@@ -1680,57 +5049,57 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="28" spans="2:30" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="2:30" ht="24" x14ac:dyDescent="0.4">
       <c r="D28" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="31" spans="2:30" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="2:30" ht="24" x14ac:dyDescent="0.4">
       <c r="D31" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="34" spans="3:30" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="33" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="3:30" ht="24" x14ac:dyDescent="0.4">
       <c r="D34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="35" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="37" spans="3:30" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="36" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="3:30" ht="24" x14ac:dyDescent="0.4">
       <c r="D37" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="38" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="40" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="39" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C40" s="2" t="s">
         <v>26</v>
       </c>
@@ -1762,23 +5131,23 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="41" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="42" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="43" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="45" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="44" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C45" s="2" t="s">
         <v>22</v>
       </c>
@@ -1810,33 +5179,33 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="46" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="47" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="48" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="49" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="50" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="52" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="51" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
@@ -1868,14 +5237,14 @@
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
     </row>
-    <row r="53" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="53" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D53" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="55" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="56" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="54" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
@@ -1907,72 +5276,72 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
     </row>
-    <row r="57" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="57" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="58" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D58" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D59" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E60" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E61" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D66" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D67" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D68" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D69" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D71" t="s">
         <v>0</v>
       </c>
@@ -1980,7 +5349,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1988,282 +5357,2082 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AD325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B4" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="6" t="s">
+      <c r="F6" s="6" t="str">
+        <f>LEN($C$7)&amp;" 文字"</f>
+        <v>30 文字</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B23" s="6" t="s">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q66" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E67" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q67" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D68" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q68" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q69" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C71" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q71" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q72" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J74" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J75" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
-      <c r="C24" s="10" t="s">
+    <row r="78" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C78" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-    </row>
-    <row r="25" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="2:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C26" s="9" t="s">
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="11"/>
+      <c r="AA78" s="11"/>
+      <c r="AB78" s="11"/>
+      <c r="AC78" s="11"/>
+      <c r="AD78" s="11"/>
+    </row>
+    <row r="79" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C79" s="5"/>
+    </row>
+    <row r="80" spans="2:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C80" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-    </row>
-    <row r="27" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C28" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="2:30" ht="36" x14ac:dyDescent="0.7">
-      <c r="C30" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
-      <c r="C41" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="11"/>
-      <c r="AA41" s="11"/>
-      <c r="AB41" s="11"/>
-      <c r="AC41" s="11"/>
-      <c r="AD41" s="11"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+    </row>
+    <row r="81" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C81" s="5"/>
+    </row>
+    <row r="82" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C82" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="C84" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C87" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="11"/>
+      <c r="Y87" s="11"/>
+      <c r="Z87" s="11"/>
+      <c r="AA87" s="11"/>
+      <c r="AB87" s="11"/>
+      <c r="AC87" s="11"/>
+      <c r="AD87" s="11"/>
+    </row>
+    <row r="88" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C91" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+    </row>
+    <row r="92" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C93" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C95" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C98" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C99" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C102" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="1"/>
+    </row>
+    <row r="103" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C104" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C106" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C108" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C109" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C112" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C115" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C117" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C118" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C119" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C120" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C121" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C123" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C125" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C126" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C127" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C130" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="T130" s="1"/>
+      <c r="U130" s="1"/>
+      <c r="V130" s="1"/>
+      <c r="W130" s="1"/>
+      <c r="X130" s="1"/>
+      <c r="Y130" s="1"/>
+      <c r="Z130" s="1"/>
+      <c r="AA130" s="1"/>
+      <c r="AB130" s="1"/>
+      <c r="AC130" s="1"/>
+      <c r="AD130" s="1"/>
+    </row>
+    <row r="131" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C132" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C133" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="135" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C135" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="136" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C136" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="137" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C137" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="139" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C139" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="140" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C140" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C142" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="143" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C145" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C146" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C148" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C149" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C150" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C152" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C154" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C156" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C158" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C159" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="161" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C161" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="162" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C162" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="164" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C164" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="T164" s="1"/>
+      <c r="U164" s="1"/>
+      <c r="V164" s="1"/>
+      <c r="W164" s="1"/>
+      <c r="X164" s="1"/>
+      <c r="Y164" s="1"/>
+      <c r="Z164" s="1"/>
+      <c r="AA164" s="1"/>
+      <c r="AB164" s="1"/>
+      <c r="AC164" s="1"/>
+      <c r="AD164" s="1"/>
+    </row>
+    <row r="165" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C166" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="167" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C167" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="168" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C168" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="169" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C169" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="170" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C170" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="171" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C171" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="172" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C172" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="175" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C175" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="11"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="11"/>
+      <c r="L175" s="11"/>
+      <c r="M175" s="11"/>
+      <c r="N175" s="11"/>
+      <c r="O175" s="11"/>
+      <c r="P175" s="11"/>
+      <c r="Q175" s="11"/>
+      <c r="R175" s="11"/>
+      <c r="S175" s="11"/>
+      <c r="T175" s="11"/>
+      <c r="U175" s="11"/>
+      <c r="V175" s="11"/>
+      <c r="W175" s="11"/>
+      <c r="X175" s="11"/>
+      <c r="Y175" s="11"/>
+      <c r="Z175" s="11"/>
+      <c r="AA175" s="11"/>
+      <c r="AB175" s="11"/>
+      <c r="AC175" s="11"/>
+      <c r="AD175" s="11"/>
+    </row>
+    <row r="176" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C176" s="5"/>
+    </row>
+    <row r="177" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C177" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1"/>
+      <c r="U177" s="1"/>
+      <c r="V177" s="1"/>
+      <c r="W177" s="1"/>
+      <c r="X177" s="1"/>
+      <c r="Y177" s="1"/>
+      <c r="Z177" s="1"/>
+      <c r="AA177" s="1"/>
+      <c r="AB177" s="1"/>
+      <c r="AC177" s="1"/>
+      <c r="AD177" s="1"/>
+    </row>
+    <row r="178" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C178" s="5"/>
+    </row>
+    <row r="179" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C179" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="180" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C180" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="181" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C181" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C182" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="183" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C183" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="184" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C184" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="185" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C185" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="186" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C186" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="187" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C187" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="188" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C188" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C189" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C190" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="191" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C191" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="192" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C192" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C194" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
+      <c r="U194" s="1"/>
+      <c r="V194" s="1"/>
+      <c r="W194" s="1"/>
+      <c r="X194" s="1"/>
+      <c r="Y194" s="1"/>
+      <c r="Z194" s="1"/>
+      <c r="AA194" s="1"/>
+      <c r="AB194" s="1"/>
+      <c r="AC194" s="1"/>
+      <c r="AD194" s="1"/>
+    </row>
+    <row r="195" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C197" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C198" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C201" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C204" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+      <c r="U204" s="1"/>
+      <c r="V204" s="1"/>
+      <c r="W204" s="1"/>
+      <c r="X204" s="1"/>
+      <c r="Y204" s="1"/>
+      <c r="Z204" s="1"/>
+      <c r="AA204" s="1"/>
+      <c r="AB204" s="1"/>
+      <c r="AC204" s="1"/>
+      <c r="AD204" s="1"/>
+    </row>
+    <row r="205" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C206" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="207" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C212" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="215" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C215" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D215" s="11"/>
+      <c r="E215" s="11"/>
+      <c r="F215" s="11"/>
+      <c r="G215" s="11"/>
+      <c r="H215" s="11"/>
+      <c r="I215" s="11"/>
+      <c r="J215" s="11"/>
+      <c r="K215" s="11"/>
+      <c r="L215" s="11"/>
+      <c r="M215" s="11"/>
+      <c r="N215" s="11"/>
+      <c r="O215" s="11"/>
+      <c r="P215" s="11"/>
+      <c r="Q215" s="11"/>
+      <c r="R215" s="11"/>
+      <c r="S215" s="11"/>
+      <c r="T215" s="11"/>
+      <c r="U215" s="11"/>
+      <c r="V215" s="11"/>
+      <c r="W215" s="11"/>
+      <c r="X215" s="11"/>
+      <c r="Y215" s="11"/>
+      <c r="Z215" s="11"/>
+      <c r="AA215" s="11"/>
+      <c r="AB215" s="11"/>
+      <c r="AC215" s="11"/>
+      <c r="AD215" s="11"/>
+    </row>
+    <row r="216" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C216" s="5"/>
+    </row>
+    <row r="217" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C217" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+      <c r="U217" s="1"/>
+      <c r="V217" s="1"/>
+      <c r="W217" s="1"/>
+      <c r="X217" s="1"/>
+      <c r="Y217" s="1"/>
+      <c r="Z217" s="1"/>
+      <c r="AA217" s="1"/>
+      <c r="AB217" s="1"/>
+      <c r="AC217" s="1"/>
+      <c r="AD217" s="1"/>
+    </row>
+    <row r="218" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C218" s="5"/>
+    </row>
+    <row r="219" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C219" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C221" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="222" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C222" s="5"/>
+    </row>
+    <row r="223" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C223" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="224" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C224" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C226" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C228" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C230" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C232" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C234" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C236" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C238" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="242" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C242" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="243" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C243" s="5"/>
+    </row>
+    <row r="244" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C244" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="251" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C251" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
+      <c r="J251" s="1"/>
+      <c r="K251" s="1"/>
+      <c r="L251" s="1"/>
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+      <c r="O251" s="1"/>
+      <c r="P251" s="1"/>
+      <c r="Q251" s="1"/>
+      <c r="R251" s="1"/>
+      <c r="S251" s="1"/>
+      <c r="T251" s="1"/>
+      <c r="U251" s="1"/>
+      <c r="V251" s="1"/>
+      <c r="W251" s="1"/>
+      <c r="X251" s="1"/>
+      <c r="Y251" s="1"/>
+      <c r="Z251" s="1"/>
+      <c r="AA251" s="1"/>
+      <c r="AB251" s="1"/>
+      <c r="AC251" s="1"/>
+      <c r="AD251" s="1"/>
+    </row>
+    <row r="252" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C253" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="254" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C254" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="255" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C255" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="256" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C256" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="258" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C258" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
+      <c r="J258" s="1"/>
+      <c r="K258" s="1"/>
+      <c r="L258" s="1"/>
+      <c r="M258" s="1"/>
+      <c r="N258" s="1"/>
+      <c r="O258" s="1"/>
+      <c r="P258" s="1"/>
+      <c r="Q258" s="1"/>
+      <c r="R258" s="1"/>
+      <c r="S258" s="1"/>
+      <c r="T258" s="1"/>
+      <c r="U258" s="1"/>
+      <c r="V258" s="1"/>
+      <c r="W258" s="1"/>
+      <c r="X258" s="1"/>
+      <c r="Y258" s="1"/>
+      <c r="Z258" s="1"/>
+      <c r="AA258" s="1"/>
+      <c r="AB258" s="1"/>
+      <c r="AC258" s="1"/>
+      <c r="AD258" s="1"/>
+    </row>
+    <row r="259" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C260" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="261" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C261" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="262" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C262" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="263" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C263" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="264" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C264" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="265" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C265" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="266" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C266" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="267" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C267" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="268" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C268" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="269" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C269" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="270" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C270" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="272" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C272" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
+      <c r="J272" s="1"/>
+      <c r="K272" s="1"/>
+      <c r="L272" s="1"/>
+      <c r="M272" s="1"/>
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+      <c r="P272" s="1"/>
+      <c r="Q272" s="1"/>
+      <c r="R272" s="1"/>
+      <c r="S272" s="1"/>
+      <c r="T272" s="1"/>
+      <c r="U272" s="1"/>
+      <c r="V272" s="1"/>
+      <c r="W272" s="1"/>
+      <c r="X272" s="1"/>
+      <c r="Y272" s="1"/>
+      <c r="Z272" s="1"/>
+      <c r="AA272" s="1"/>
+      <c r="AB272" s="1"/>
+      <c r="AC272" s="1"/>
+      <c r="AD272" s="1"/>
+    </row>
+    <row r="273" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C273" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="274" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C274" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="275" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C275" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="276" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C276" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="277" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C277" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="278" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C278" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="283" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C283" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="285" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C285" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11"/>
+      <c r="F285" s="11"/>
+      <c r="G285" s="11"/>
+      <c r="H285" s="11"/>
+      <c r="I285" s="11"/>
+      <c r="J285" s="11"/>
+      <c r="K285" s="11"/>
+      <c r="L285" s="11"/>
+      <c r="M285" s="11"/>
+      <c r="N285" s="11"/>
+      <c r="O285" s="11"/>
+      <c r="P285" s="11"/>
+      <c r="Q285" s="11"/>
+      <c r="R285" s="11"/>
+      <c r="S285" s="11"/>
+      <c r="T285" s="11"/>
+      <c r="U285" s="11"/>
+      <c r="V285" s="11"/>
+      <c r="W285" s="11"/>
+      <c r="X285" s="11"/>
+      <c r="Y285" s="11"/>
+      <c r="Z285" s="11"/>
+      <c r="AA285" s="11"/>
+      <c r="AB285" s="11"/>
+      <c r="AC285" s="11"/>
+      <c r="AD285" s="11"/>
+    </row>
+    <row r="286" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C286" s="5"/>
+    </row>
+    <row r="287" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C287" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="288" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C288" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="289" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C289" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="294" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C294" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1"/>
+      <c r="I294" s="1"/>
+      <c r="J294" s="1"/>
+      <c r="K294" s="1"/>
+      <c r="L294" s="1"/>
+      <c r="M294" s="1"/>
+      <c r="N294" s="1"/>
+      <c r="O294" s="1"/>
+      <c r="P294" s="1"/>
+      <c r="Q294" s="1"/>
+      <c r="R294" s="1"/>
+      <c r="S294" s="1"/>
+      <c r="T294" s="1"/>
+      <c r="U294" s="1"/>
+      <c r="V294" s="1"/>
+      <c r="W294" s="1"/>
+      <c r="X294" s="1"/>
+      <c r="Y294" s="1"/>
+      <c r="Z294" s="1"/>
+      <c r="AA294" s="1"/>
+      <c r="AB294" s="1"/>
+      <c r="AC294" s="1"/>
+      <c r="AD294" s="1"/>
+    </row>
+    <row r="295" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C297" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="1"/>
+      <c r="I297" s="1"/>
+      <c r="J297" s="1"/>
+      <c r="K297" s="1"/>
+      <c r="L297" s="1"/>
+      <c r="M297" s="1"/>
+      <c r="N297" s="1"/>
+      <c r="O297" s="1"/>
+      <c r="P297" s="1"/>
+      <c r="Q297" s="1"/>
+      <c r="R297" s="1"/>
+      <c r="S297" s="1"/>
+      <c r="T297" s="1"/>
+      <c r="U297" s="1"/>
+      <c r="V297" s="1"/>
+      <c r="W297" s="1"/>
+      <c r="X297" s="1"/>
+      <c r="Y297" s="1"/>
+      <c r="Z297" s="1"/>
+      <c r="AA297" s="1"/>
+      <c r="AB297" s="1"/>
+      <c r="AC297" s="1"/>
+      <c r="AD297" s="1"/>
+    </row>
+    <row r="298" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C301" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D301" s="11"/>
+      <c r="E301" s="11"/>
+      <c r="F301" s="11"/>
+      <c r="G301" s="11"/>
+      <c r="H301" s="11"/>
+      <c r="I301" s="11"/>
+      <c r="J301" s="11"/>
+      <c r="K301" s="11"/>
+      <c r="L301" s="11"/>
+      <c r="M301" s="11"/>
+      <c r="N301" s="11"/>
+      <c r="O301" s="11"/>
+      <c r="P301" s="11"/>
+      <c r="Q301" s="11"/>
+      <c r="R301" s="11"/>
+      <c r="S301" s="11"/>
+      <c r="T301" s="11"/>
+      <c r="U301" s="11"/>
+      <c r="V301" s="11"/>
+      <c r="W301" s="11"/>
+      <c r="X301" s="11"/>
+      <c r="Y301" s="11"/>
+      <c r="Z301" s="11"/>
+      <c r="AA301" s="11"/>
+      <c r="AB301" s="11"/>
+      <c r="AC301" s="11"/>
+      <c r="AD301" s="11"/>
+    </row>
+    <row r="302" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C302" s="5"/>
+    </row>
+    <row r="303" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C303" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+      <c r="G303" s="1"/>
+      <c r="H303" s="1"/>
+      <c r="I303" s="1"/>
+      <c r="J303" s="1"/>
+      <c r="K303" s="1"/>
+      <c r="L303" s="1"/>
+      <c r="M303" s="1"/>
+      <c r="N303" s="1"/>
+      <c r="O303" s="1"/>
+      <c r="P303" s="1"/>
+      <c r="Q303" s="1"/>
+      <c r="R303" s="1"/>
+      <c r="S303" s="1"/>
+      <c r="T303" s="1"/>
+      <c r="U303" s="1"/>
+      <c r="V303" s="1"/>
+      <c r="W303" s="1"/>
+      <c r="X303" s="1"/>
+      <c r="Y303" s="1"/>
+      <c r="Z303" s="1"/>
+      <c r="AA303" s="1"/>
+      <c r="AB303" s="1"/>
+      <c r="AC303" s="1"/>
+      <c r="AD303" s="1"/>
+    </row>
+    <row r="304" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C304" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="305" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C306" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+      <c r="G306" s="1"/>
+      <c r="H306" s="1"/>
+      <c r="I306" s="1"/>
+      <c r="J306" s="1"/>
+      <c r="K306" s="1"/>
+      <c r="L306" s="1"/>
+      <c r="M306" s="1"/>
+      <c r="N306" s="1"/>
+      <c r="O306" s="1"/>
+      <c r="P306" s="1"/>
+      <c r="Q306" s="1"/>
+      <c r="R306" s="1"/>
+      <c r="S306" s="1"/>
+      <c r="T306" s="1"/>
+      <c r="U306" s="1"/>
+      <c r="V306" s="1"/>
+      <c r="W306" s="1"/>
+      <c r="X306" s="1"/>
+      <c r="Y306" s="1"/>
+      <c r="Z306" s="1"/>
+      <c r="AA306" s="1"/>
+      <c r="AB306" s="1"/>
+      <c r="AC306" s="1"/>
+      <c r="AD306" s="1"/>
+    </row>
+    <row r="307" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C307" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="308" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C309" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+      <c r="H309" s="1"/>
+      <c r="I309" s="1"/>
+      <c r="J309" s="1"/>
+      <c r="K309" s="1"/>
+      <c r="L309" s="1"/>
+      <c r="M309" s="1"/>
+      <c r="N309" s="1"/>
+      <c r="O309" s="1"/>
+      <c r="P309" s="1"/>
+      <c r="Q309" s="1"/>
+      <c r="R309" s="1"/>
+      <c r="S309" s="1"/>
+      <c r="T309" s="1"/>
+      <c r="U309" s="1"/>
+      <c r="V309" s="1"/>
+      <c r="W309" s="1"/>
+      <c r="X309" s="1"/>
+      <c r="Y309" s="1"/>
+      <c r="Z309" s="1"/>
+      <c r="AA309" s="1"/>
+      <c r="AB309" s="1"/>
+      <c r="AC309" s="1"/>
+      <c r="AD309" s="1"/>
+    </row>
+    <row r="310" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C310" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="311" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C311" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="312" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C313" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
+      <c r="G313" s="1"/>
+      <c r="H313" s="1"/>
+      <c r="I313" s="1"/>
+      <c r="J313" s="1"/>
+      <c r="K313" s="1"/>
+      <c r="L313" s="1"/>
+      <c r="M313" s="1"/>
+      <c r="N313" s="1"/>
+      <c r="O313" s="1"/>
+      <c r="P313" s="1"/>
+      <c r="Q313" s="1"/>
+      <c r="R313" s="1"/>
+      <c r="S313" s="1"/>
+      <c r="T313" s="1"/>
+      <c r="U313" s="1"/>
+      <c r="V313" s="1"/>
+      <c r="W313" s="1"/>
+      <c r="X313" s="1"/>
+      <c r="Y313" s="1"/>
+      <c r="Z313" s="1"/>
+      <c r="AA313" s="1"/>
+      <c r="AB313" s="1"/>
+      <c r="AC313" s="1"/>
+      <c r="AD313" s="1"/>
+    </row>
+    <row r="314" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C314" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="316" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C316" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D316" s="11"/>
+      <c r="E316" s="11"/>
+      <c r="F316" s="11"/>
+      <c r="G316" s="11"/>
+      <c r="H316" s="11"/>
+      <c r="I316" s="11"/>
+      <c r="J316" s="11"/>
+      <c r="K316" s="11"/>
+      <c r="L316" s="11"/>
+      <c r="M316" s="11"/>
+      <c r="N316" s="11"/>
+      <c r="O316" s="11"/>
+      <c r="P316" s="11"/>
+      <c r="Q316" s="11"/>
+      <c r="R316" s="11"/>
+      <c r="S316" s="11"/>
+      <c r="T316" s="11"/>
+      <c r="U316" s="11"/>
+      <c r="V316" s="11"/>
+      <c r="W316" s="11"/>
+      <c r="X316" s="11"/>
+      <c r="Y316" s="11"/>
+      <c r="Z316" s="11"/>
+      <c r="AA316" s="11"/>
+      <c r="AB316" s="11"/>
+      <c r="AC316" s="11"/>
+      <c r="AD316" s="11"/>
+    </row>
+    <row r="317" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C317" s="5"/>
+    </row>
+    <row r="318" spans="3:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C318" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
+      <c r="G318" s="1"/>
+      <c r="H318" s="1"/>
+      <c r="I318" s="1"/>
+      <c r="J318" s="1"/>
+      <c r="K318" s="1"/>
+      <c r="L318" s="1"/>
+      <c r="M318" s="1"/>
+      <c r="N318" s="1"/>
+      <c r="O318" s="1"/>
+      <c r="P318" s="1"/>
+      <c r="Q318" s="1"/>
+      <c r="R318" s="1"/>
+      <c r="S318" s="1"/>
+      <c r="T318" s="1"/>
+      <c r="U318" s="1"/>
+      <c r="V318" s="1"/>
+      <c r="W318" s="1"/>
+      <c r="X318" s="1"/>
+      <c r="Y318" s="1"/>
+      <c r="Z318" s="1"/>
+      <c r="AA318" s="1"/>
+      <c r="AB318" s="1"/>
+      <c r="AC318" s="1"/>
+    </row>
+    <row r="319" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C319" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="320" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C320" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="321" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D321" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="322" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C322" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="325" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C325" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D325" s="11"/>
+      <c r="E325" s="11"/>
+      <c r="F325" s="11"/>
+      <c r="G325" s="11"/>
+      <c r="H325" s="11"/>
+      <c r="I325" s="11"/>
+      <c r="J325" s="11"/>
+      <c r="K325" s="11"/>
+      <c r="L325" s="11"/>
+      <c r="M325" s="11"/>
+      <c r="N325" s="11"/>
+      <c r="O325" s="11"/>
+      <c r="P325" s="11"/>
+      <c r="Q325" s="11"/>
+      <c r="R325" s="11"/>
+      <c r="S325" s="11"/>
+      <c r="T325" s="11"/>
+      <c r="U325" s="11"/>
+      <c r="V325" s="11"/>
+      <c r="W325" s="11"/>
+      <c r="X325" s="11"/>
+      <c r="Y325" s="11"/>
+      <c r="Z325" s="11"/>
+      <c r="AA325" s="11"/>
+      <c r="AB325" s="11"/>
+      <c r="AC325" s="11"/>
+      <c r="AD325" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{A9E59C44-035A-4C7C-B148-EF778B8ECE4A}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{074DBE9F-8E36-439B-8B89-40EB074769ED}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{EDDCCBFA-F14E-4B93-83A0-8A36EB6C7515}"/>
+    <hyperlink ref="Q66" r:id="rId4" location=":~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82" display="https://www.haba.co.jp/info/CHSfIngredientDetail.jsp?INGREDIENT_NO=923&amp;igidx=1#:~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82" xr:uid="{AC33AEE8-680F-445D-8923-86E546487C7F}"/>
+    <hyperlink ref="Q67" r:id="rId5" xr:uid="{F5D8BB27-2854-40EA-8D4B-A6BE419F95E9}"/>
+    <hyperlink ref="Q68" r:id="rId6" xr:uid="{F7980033-BD8D-4F4B-9F21-598EAB55CE98}"/>
+    <hyperlink ref="Q69" r:id="rId7" xr:uid="{7D744DA7-89BB-41BE-841D-50250D877BE4}"/>
+    <hyperlink ref="Q72" r:id="rId8" xr:uid="{FE37A244-A3B8-4D73-B4AD-1F7665CCC517}"/>
+    <hyperlink ref="Q71" r:id="rId9" xr:uid="{6353F47B-6807-4239-BD21-14239CEC90E0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f>LEN($C$7)&amp;" 文字"</f>
+        <v>4 文字</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+    </row>
+    <row r="35" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="2:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C38" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B4" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B9" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
-      <c r="C24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-    </row>
-    <row r="25" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="2:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C26" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-    </row>
-    <row r="27" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C28" s="12" t="s">
+    <row r="40" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="C40" s="4" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="2:30" ht="36" x14ac:dyDescent="0.7">
-      <c r="C30" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/アフィリエイト_商品.xlsx
+++ b/アフィリエイト_商品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\aff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5C1C78-941D-4C59-9292-1BEA2F292BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B14DC2A-9B08-467A-8E41-8F58FC5E03A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43170" yWindow="75" windowWidth="14430" windowHeight="15600" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="415">
   <si>
     <r>
       <t>もっと詳しく知りたい方は</t>
@@ -1082,19 +1082,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>物理的被膜効果により肌が即効で引き締まります</t>
-    <rPh sb="0" eb="3">
-      <t>ブツリテキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒマク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>*乾燥させたときの収縮力による効果</t>
     <rPh sb="15" eb="17">
       <t>コウカ</t>
@@ -1791,37 +1778,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ハリシュのあからさまに悪い口コミは現在確認出来ませんでしたが、強いて上げるとすれば以下の口コミがありました</t>
-    <rPh sb="11" eb="12">
-      <t>ワル</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>クチ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>クチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>とても細かいミスト(霧)が勢いよく顔に降りかかるので、初めて使用する際は少しびっくりするかもしれませんが、</t>
     <rPh sb="3" eb="4">
       <t>コマ</t>
@@ -1863,40 +1819,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ハリシュに関する良い口コミと悪い口コミ、メリットとデメリットについて調査しました、購入前に是非チェックして下さい</t>
-    <rPh sb="5" eb="6">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>クチ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ワル</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>クチ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ゼヒ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>クダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>現状口コミ自体の数が少ないのでこれくらいしか悪い口コミはありませんでしたが、</t>
     <rPh sb="0" eb="2">
       <t>ゲンジョウ</t>
@@ -1922,88 +1844,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あまり悪い口コミではありませんでしたね</t>
-    <rPh sb="3" eb="4">
-      <t>ワル</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>クチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>他に悪そうな評判もありませんでしたので、少し無理やりですが載せました</t>
-    <rPh sb="0" eb="1">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ワル</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウバン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ムリ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>口コミでは無いのですが、調べて行くうちに私が気になった部分をご紹介します</t>
-    <rPh sb="0" eb="1">
-      <t>クチ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>シラ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>しかし、調べてみるとこの容量は「1日2回、1回につき4プッシュで約30日分」の量だと言うことが分かりました</t>
-    <rPh sb="4" eb="5">
-      <t>シラ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヨウリョウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>悪い口コミとデメリット</t>
     <rPh sb="0" eb="1">
       <t>ワル</t>
@@ -2028,53 +1868,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1度の使用での効果</t>
-    <rPh sb="1" eb="2">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>継続することで得られる効果</t>
-    <rPh sb="0" eb="2">
-      <t>ケイゾク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハリシュ使用による効果のまとめ</t>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>特徴的な成分</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成分一覧</t>
-    <rPh sb="0" eb="2">
-      <t>セイブン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2085,47 +1879,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ハリシュの効果をより実感するためには正しい手順で使用する必要があります</t>
-    <rPh sb="5" eb="7">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジッカン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハリシュは洗顔の後に化粧水の代わりとして使用するものです</t>
-    <rPh sb="5" eb="7">
-      <t>センガン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ケショウスイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実店舗・・・×</t>
     <rPh sb="0" eb="1">
       <t>ジツ</t>
@@ -2154,46 +1907,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>見た目は小さいですが、1本で約一か月分ですので量的には丁度良いと言うことが分かりました</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ポン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヤク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>イッ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ゲツブン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>リョウテキ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>チョウド</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>使用期限はどのくらいか</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
@@ -2220,96 +1933,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1本につき一か月分ですが、毎日2回ずつを1日も欠かさず出来るかと言うと、忘れてしまう日もあるかと思います</t>
-    <rPh sb="1" eb="2">
-      <t>ポン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>イッ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>マイニチ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ワス</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>また、何となく開封せずにいたけど、気が向いて使い始めたら使用期限が切れていた、なんてこともあるかもしれません</t>
-    <rPh sb="3" eb="4">
-      <t>ナン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイフウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ですので使用期限にはどのくらい余裕があるのかが気になりました</t>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヨユウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>調べてみると</t>
     <rPh sb="0" eb="1">
       <t>シラ</t>
@@ -2325,38 +1948,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>との事でした</t>
-    <rPh sb="2" eb="3">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特に長くもなく短くもないので、あまり気にする必要は無かったなと思いました</t>
-    <rPh sb="0" eb="1">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ミジカ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>化粧水との併用はオススメ出来ない</t>
     <rPh sb="0" eb="3">
       <t>ケショウスイ</t>
@@ -2370,10 +1961,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ハリシュの前後に化粧水を使用すると速効の引き締め感を感じにくくなる可能性があります</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ハリシュは化粧水としての働きも兼ねている為、保湿力を高めたいときやさらにハリを感じたいときには、</t>
     <rPh sb="5" eb="8">
       <t>ケショウスイ</t>
@@ -2390,13 +1977,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最大8プッシュを目安にハリシュの量を増やして使用することがオススメです</t>
-    <rPh sb="22" eb="24">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://hari-shu.work/</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2523,34 +2103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以下は発売前にモニター調査で実際に使用された人の喜びの声です</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ハツバイマエ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨロコ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>コエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>非常に使いやすく、ぜひ進めたいと思います。</t>
     <rPh sb="0" eb="2">
       <t>ヒジョウ</t>
@@ -2578,34 +2130,6 @@
   </si>
   <si>
     <t>フェイスラインもスッキリするので驚きました！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>感想は個人差がありますが、ハリシュは内容量が1本につき30mlですので若干少ないのでは、と言う気がしました</t>
-    <rPh sb="0" eb="2">
-      <t>カンソウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>コジンサ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ナイヨウリョウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ポン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ジャッカン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>キ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3230,28 +2754,6 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>イジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハリシュはミスト（霧）が網の目のように広がり肌に密着します</t>
-    <rPh sb="9" eb="10">
-      <t>キリ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アミ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ヒロ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ハダ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ミッチャク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3392,42 +2894,6 @@
   </si>
   <si>
     <r>
-      <t>ですので</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1度目の使用から物理的に肌にハリを感じることが出来ます</t>
-    </r>
-    <rPh sb="5" eb="7">
-      <t>ドメ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ブツリテキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ハダ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>肌は弾力を失うと、</t>
     </r>
     <r>
@@ -3521,161 +2987,6 @@
   </si>
   <si>
     <r>
-      <t>これが</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>乾燥による収縮力「物理的被膜効果」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>です</t>
-    </r>
-    <rPh sb="3" eb="5">
-      <t>カンソウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>シュウシュクリョク</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ブツリテキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒマク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>乾燥による収縮力は即効性があり、直ぐに効果を実感出来ます</t>
-    <rPh sb="0" eb="2">
-      <t>カンソウ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>シュウシュクリョク</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ソッコウセイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジッカン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ではハリシュには即効性の効果しかないのか？と言うとそんなことはありません</t>
-    <rPh sb="8" eb="11">
-      <t>ソッコウセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>しかし、それは使用した際に感じる効果で、1度の使用で数日効果が持続する、と言うような長期的な効力ではありません</t>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>スウジツ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ジゾク</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="42" eb="45">
-      <t>チョウキテキ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>コウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>ハリシュには勿論、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>続けることで得られる根本ケアの効果もあります</t>
-    </r>
-    <rPh sb="6" eb="8">
-      <t>モチロン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コンポン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>具体的にはハリシュに配合してある8つのアプローチ成分が、</t>
     </r>
     <r>
@@ -3818,37 +3129,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>即効性の効果で肌にハリを持たせ、同時に、継続することで加齢により蓄積したダメージのケアをすることが出来るので</t>
-    <rPh sb="0" eb="3">
-      <t>ソッコウセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ハダ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケイゾク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カレイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>チクセキ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>使用すればするほど肌を若返らせることが出来ますね！</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
@@ -3865,104 +3145,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>周囲の人と比べて肌が若く、綺麗になると自分の顔に自信が持てるようになりますので</t>
-    <rPh sb="0" eb="2">
-      <t>シュウイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>クラ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ハダ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ワカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キレイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>良い気分で日常が過ごせそうですね</t>
-    <rPh sb="0" eb="1">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キブン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニチジョウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次は根本ケアに効果のある8つ成分とは何か見ていきたいと思います。</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コンポン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セイブン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>添加物の使用について</t>
-    <rPh sb="0" eb="3">
-      <t>テンカブツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敏感肌でも可</t>
-    <rPh sb="0" eb="2">
-      <t>ビンカン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ハダ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>水、グリセリン、変性アルコール、ビスPEG-18メチルエーテルジメチルシラン、ポリウレタン-14、BG、ケイ酸（Na/Mg）、アクリレーツコポリマーAMP、エタノール、フェノキシエタノール、レシチン、カルノシン、HEDTA-3Na、加水分解バオバブエキス、セイヨウハッカ葉エキス、アテロコラーゲン、ヒアルロン酸、シラントリオール、トコフェロール、アセチルテトラペプチド-2、グリセリルアスコルビン酸、オオアザミ果実エキス、加水分解キャッサバ塊茎エキス、加水分解エラスチン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4045,125 +3227,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ハリシュには実に沢山の成分が配合されているのですが、その中でも特徴的な成分をご紹介します</t>
-    <rPh sb="6" eb="7">
-      <t>ジツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タクサン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セイブン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハイゴウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>トクチョウテキ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>セイブン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ショウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下は肌の根本ケアに効果のある8つの成分です</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ハダ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コンポン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セイブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>こちらは肌に引き締め感やハリを感じさせる、即効性のある成分です</t>
-    <rPh sb="4" eb="5">
-      <t>ハダ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ソッコウセイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セイブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アレルギーや苦手な成分がある方はご確認下さい。</t>
-    <rPh sb="6" eb="8">
-      <t>ニガテ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイブン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>クダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>既にご紹介した成分以外にもハリシュには多くの成分がありますので名称だけご紹介しますので</t>
-    <rPh sb="0" eb="1">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイブン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セイブン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ショウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ハリシュに配合されている全成分は以下です。</t>
     <rPh sb="5" eb="7">
       <t>ハイゴウ</t>
@@ -4202,19 +3265,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>とあるので、添加物の類はあまり使用されていないようです</t>
-    <rPh sb="6" eb="9">
-      <t>テンカブツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タグイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ただ、品質を保持した状態で使用出来るように防腐剤は含まれているようです。</t>
     <rPh sb="3" eb="5">
       <t>ヒンシツ</t>
@@ -4237,22 +3287,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ハリシュは開封したら2ヶ月ほど鮮度がもつので、その為に商品に合わせて適切に使用されているそうです。</t>
-    <rPh sb="5" eb="7">
-      <t>カイフウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センド</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>タメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ハリシュは吹きかけるだけで誰でも簡単にスキンケア出来る、と口コミにありましたが、</t>
     <rPh sb="5" eb="6">
       <t>フ</t>
@@ -4268,63 +3302,6 @@
     </rPh>
     <rPh sb="29" eb="30">
       <t>クチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>その効果をより感じる為には</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>正しい使用法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>で継続することが大切です</t>
-    </r>
-    <rPh sb="2" eb="4">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>シヨウホウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケイゾク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>タイセツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下に</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4362,34 +3339,3761 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>keywordのスペースを取る</t>
+    <t>https://www.haba.co.jp/info/CHSfIngredientDetail.jsp?INGREDIENT_NO=923&amp;igidx=1#:~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://cosmetic-ingredients.org/astringent/%E3%82%BB%E3%82%A4%E3%83%A8%E3%82%A6%E3%83%8F%E3%83%83%E3%82%AB%E8%91%89%E3%82%A8%E3%82%AD%E3%82%B9%E3%81%AE%E6%88%90%E5%88%86%E5%8A%B9%E6%9E%9C%E3%81%A8%E6%AF%92%E6%80%A7/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.hari-shu.com/pc/index_afi.html?utm_source=affiliate&amp;utm_medium=affiliate&amp;utm_campaign=a8_hr&amp;ad_id=a8_hr&amp;item_id=HR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.kaitekikobo.jp/hajimete/faq_harishu.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.vedovn.net/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://harishu.web.fc2.com/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュの使用による効果のまとめ</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1度の使用での効果 ～物理的被膜効果とは～</t>
+    <rPh sb="1" eb="2">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ブツリテキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒマク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継続することで得られる効果 ～8つのアプローチ成分～</t>
+    <rPh sb="0" eb="2">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次は根本ケアに効果のある8つのアプローチ成分とは何か見ていきたいと思います。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コンポン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュのあからさまに悪い口コミは現在確認出来ませんでしたが、強いて上げるとすれば以下の口コミがありました。</t>
+    <rPh sb="11" eb="12">
+      <t>ワル</t>
+    </rPh>
     <rPh sb="13" eb="14">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あまり悪い口コミではありませんでしたね。</t>
+    <rPh sb="3" eb="4">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他に悪そうな評判もありませんでしたので、少し無理矢理ですが載せました。</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウバン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ムリヤリ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口コミでは無いのですが、調べて行くうちに私が気になった部分をご紹介します。</t>
+    <rPh sb="0" eb="1">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>感想は個人差がありますが、ハリシュは内容量が1本につき30mlですので若干少ないのでは、と言う気がしました。</t>
+    <rPh sb="0" eb="2">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コジンサ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ナイヨウリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ポン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジャッカン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし、調べてみるとこの容量は「1日2回、1回につき4プッシュで約30日分」の量だと言うことが分かりました。</t>
+    <rPh sb="4" eb="5">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見た目は小さいですが、1本で約一か月分ですので量的には丁度良いですね。</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ポン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イッ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゲツブン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リョウテキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>チョウド</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1本につき一か月分ですが、毎日2回ずつを1日も欠かさず出来るかと言うと、忘れてしまう日もあるかと思います。</t>
+    <rPh sb="1" eb="2">
+      <t>ポン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イッ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>マイニチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、何となく開封せずにいたけど、気が向いて使い始めたら使用期限が切れていた、なんてこともあるかもしれません。</t>
+    <rPh sb="3" eb="4">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイフウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ですので使用期限にはどのくらい余裕があるのかが気になりました。</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>との事でした。</t>
+    <rPh sb="2" eb="3">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特に長くもなく短くもないので、あまり気にする必要は無かったかなと思いました。</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュの前後に化粧水を使用すると速効の引き締め感を感じにくくなる可能性があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大8プッシュを目安にハリシュの量を増やして使用することがオススメです。</t>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下は発売前にモニター調査で実際に使用された人の喜びの声です。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハツバイマエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨロコ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>コエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュには実に沢山の成分が配合されているのですが、その中でも特徴的な成分をご紹介します。</t>
+    <rPh sb="6" eb="7">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タクサン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイゴウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>トクチョウテキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アフリカのバオバブの葉のエキスを酸、酵素又はその他の方法により加水分解して得られたものです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水分保持能力に富み、保湿、皮膚柔軟性、ハリ・つや、引き締め効果を期待して、スキンケアやボディケアに配合されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セイヨウハッカの葉から抽出して得られるエキス。清涼感や鮮やかな緑色から、化粧品以外にもハーブティやお菓子にも用いられます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保湿や収れん作用などを期待して、様々な化粧品に配合されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保水性が高いため、皮膚のバリア機能を高める働きがあります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾性線維を豊富に含む日本国内産のブリ動脈球（魚特有の組織）から得られるエラスチン。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コラーゲン、ヒアルロン酸等の成分との相溶性や保湿感に優れ、スキンケアに配合される成分です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビタミンCの安定性や皮膚浸透性を向上させる化合物です。</t>
+    <rPh sb="21" eb="24">
+      <t>カゴウブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肌の免疫機能を調節する効果や、皮膚のターンオーバーを正常化する効果が期待できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらに、炎症を引き起こす物質の産生を抑制したり、メラニンの生成を抑えて色素沈着を防止する効果も期待されています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>こちらの2つは調べても正確な情報が出てこなかったのですが、公式サイトには</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「肌にハリを与える成分」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>とありました。</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先ほどの1度の使用で効果を実感する、の説明で出てきたようにこの高密度ポリマーが肌表面で3Dネットを作り、肌にハリと引き締め感を与えてくれます。</t>
+    <rPh sb="0" eb="1">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッカン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>コウミツド</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既にご紹介した成分以外にもハリシュには多くの成分が配合されています。</t>
+    <rPh sb="0" eb="1">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称だけご紹介しますのでアレルギーや苦手な成分がある方はご確認下さい。</t>
+    <rPh sb="18" eb="20">
+      <t>ニガテ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何か匂いを感じた場合は、添加物ではなく原料の匂いですね。</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ニオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>テンカブツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゲンリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ニオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>添加物の使用について ～敏感肌でも大丈夫？～</t>
+    <rPh sb="0" eb="3">
+      <t>テンカブツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ビンカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敏感肌でも使用出来ます</t>
+    <rPh sb="0" eb="2">
+      <t>ビンカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュは敏感肌の方でも安心して使えるように成分を配合しており、第三者機関においてのパッチテストも実施しています。</t>
+    <rPh sb="5" eb="7">
+      <t>ビンカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アンシン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハイゴウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ダイサンシャ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュは開封したら2ヶ月ほど鮮度がもつので、その為に商品に合わせて適切に使用されています。</t>
+    <rPh sb="5" eb="7">
+      <t>カイフウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センド</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、無香料、無着色ですが、わずかに原料の香りを感じる場合があるようですので、</t>
+    <rPh sb="3" eb="6">
+      <t>ムコウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ムチャクショク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゲンリョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これまでスキンケア用品でトラブルが起きた方や、心配な方は下記に全成分の一覧を載せましたのでご覧下さい。</t>
+    <rPh sb="9" eb="11">
+      <t>ヨウヒン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シンパイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全成分一覧</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージをケアし、肌を生き返らせる成分がたくさん入っているようですね。</t>
+    <rPh sb="9" eb="10">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・セイヨウハッカ葉エキス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・加水分解バオバブエキス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>が肌の保湿やハリ・つや、引き締めへの効果を期待出来ます。</t>
+    <rPh sb="1" eb="2">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>またパッチテストなどの安全面への配慮も行っているので、敏感肌の方も安心して使用出来ますね。</t>
+    <rPh sb="11" eb="14">
+      <t>アンゼンメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイリョ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ビンカンハダ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>アンシン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その中でも特に</t>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>その効果をより感じる為には</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正しい使用法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で継続することが大切です。</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>シヨウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用手順</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 洗顔で肌を清潔にする</t>
+    <rPh sb="3" eb="5">
+      <t>センガン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.ハリシュを顔に馴染ませ、浸透させる</t>
+    <rPh sb="7" eb="8">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.乳液・クリームなどで肌を整える</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウエキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トトノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳しい使用方法</t>
+    <rPh sb="0" eb="1">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュを肌に馴染ませる為にまず洗顔をします。</t>
+    <rPh sb="5" eb="6">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センガン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洗顔後はよく水分を拭き取ります。</t>
+    <rPh sb="0" eb="2">
+      <t>センガン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スイブン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
       <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://www.haba.co.jp/info/CHSfIngredientDetail.jsp?INGREDIENT_NO=923&amp;igidx=1#:~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://cosmetic-ingredients.org/astringent/%E3%82%BB%E3%82%A4%E3%83%A8%E3%82%A6%E3%83%8F%E3%83%83%E3%82%AB%E8%91%89%E3%82%A8%E3%82%AD%E3%82%B9%E3%81%AE%E6%88%90%E5%88%86%E5%8A%B9%E6%9E%9C%E3%81%A8%E6%AF%92%E6%80%A7/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.hari-shu.com/pc/index_afi.html?utm_source=affiliate&amp;utm_medium=affiliate&amp;utm_campaign=a8_hr&amp;ad_id=a8_hr&amp;item_id=HR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.kaitekikobo.jp/hajimete/faq_harishu.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://www.vedovn.net/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://harishu.web.fc2.com/</t>
+    <t>ハリシュは中身が濃密なゼリー状になっているので、使用前に容器をよく振ります。</t>
+    <rPh sb="5" eb="7">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ノウミツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヨウキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用の際は毎回5回程度を目安に容器を振ってからご使用下さい。</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>マイカイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>メヤス</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨウキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多めに使いたい場合は最大8プッシュを目安に調整してご使用下さい。</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>メヤス</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>シヨウクダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずは洗顔</t>
+    <rPh sb="3" eb="5">
+      <t>センガン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乳液やクリームで肌を整える</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウエキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トトノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュを顔に吹きかける</t>
+    <rPh sb="5" eb="6">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顔全体にハリシュの成分を浸透させる</t>
+    <rPh sb="0" eb="3">
+      <t>カオゼンタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顔の中心から外側に向かい、掌全体を使って軽く引き上げるように肌を押さえます。</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソトガワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テノヒラ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カル</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押さえる順番は</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.目元～口元</t>
+    <rPh sb="2" eb="4">
+      <t>メモト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クチモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.頬～フェイスライン</t>
+    <rPh sb="2" eb="3">
+      <t>ホオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.額・あご</t>
+    <rPh sb="2" eb="3">
+      <t>ヒタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の順です。</t>
+    <rPh sb="1" eb="2">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3秒ずつ位置をずらしながら押さえ、顔全体に成分を浸透させます。</t>
+    <rPh sb="1" eb="2">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>カオゼンタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顔から20cmほど離し、顔全体(額、左右の頬、あご)へ計4プッシュ程吹きかけます。</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カオゼンタイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ホオ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ホド</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しばらく待つ</t>
+    <rPh sb="4" eb="5">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肌表面が乾いたようになるまで、頬～フェイスラインを手で引き揚げながら待ちます。</t>
+    <rPh sb="0" eb="1">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カワ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ホオ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しばらく待ったあと、肌表面にハリシュの水分が残っていないことを確認し、</t>
+    <rPh sb="4" eb="5">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スイブン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乳液・クリームで肌を整えます。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウエキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トトノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これでハリシュの成分を閉じ込めることができ、より良い変化を感じられます。</t>
+    <rPh sb="8" eb="10">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注）ハリシュは化粧水の代わりに使用するものです。</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ケショウスイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ですので、ハリシュの前後やハリシュと同時に化粧水を使用すると速効の引き締め感を感じにくくなる可能性があります。</t>
+    <rPh sb="18" eb="20">
+      <t>ドウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.hari-shu.com/howto/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュの使い方を動画で確認(音が出ますのでご注意下さい)</t>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちらは即効性のある成分です。</t>
+    <rPh sb="4" eb="7">
+      <t>ソッコウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツルハドラッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスモス薬品</t>
+    <rPh sb="4" eb="6">
+      <t>ヤクヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウエルシア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マツモトキヨシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スギ薬局</t>
+    <rPh sb="2" eb="4">
+      <t>ヤッキョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>などの薬局やドラッグストアでは店頭販売は行っておりませんでした。</t>
+    <rPh sb="3" eb="5">
+      <t>ヤッキョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>続いて、</t>
+    <rPh sb="0" eb="1">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東急ハンズ</t>
+    <rPh sb="0" eb="2">
+      <t>トウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドン・キホーテ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Loft</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>などの売り場も確認しましたが、こちらも残念ながら取り扱いはありませんでした。</t>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ザンネン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうやら実店舗での販売は行ってないようですね。</t>
+    <rPh sb="4" eb="7">
+      <t>ジツテンポ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュを購入するにはどこで買えば良いか色々と調べてみましたので、一つずつご紹介します。</t>
+    <rPh sb="5" eb="7">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュを「今日すぐに購入したい」と言う方もいるかもしれないので、実店舗に置いているか調べましたが、</t>
+    <rPh sb="6" eb="8">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ジツテンポ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュをAmazonや楽天、ヤフーショッピングなどの通販で売っているか調べてみると、一部で販売店がありました。</t>
+    <rPh sb="12" eb="14">
+      <t>ラクテン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツウハン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なので購入しようと思えば出来るのですが、正直なところあまりオススメ出来ません。</t>
+    <rPh sb="3" eb="5">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショウジキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>その理由は、ズバリ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「お得ではなく、保証も無い」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>からです</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホショウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後述の公式サイトの項目を見ればその理由に納得出来ると思います。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ナットク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下がその理由です。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュをメルカリやヤフオクなどのフリマアプリやオークションで購入することは一番オススメ出来ません。</t>
+    <rPh sb="31" eb="33">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>と言いますのも、一度他人の手に渡ったものですので衛生面などの問題が気になるかと思います。</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タニン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>エイセイメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリマアプリ自体は良い物です。例えばバッグや家電などはブランド品やメーカー品が定価より安く手に入るので良いでしょう。</t>
+    <rPh sb="15" eb="16">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カデン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>テイカ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ですが、やはり化粧品や下着など、直接肌に触れる物は信頼出来るところから購入した方が安心ですね。</t>
+    <rPh sb="7" eb="10">
+      <t>ケショウヒン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シタギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値段が安くても、購入してから後悔しないように安易に手を出さないように気をつけた方が良いと思います。</t>
+    <rPh sb="0" eb="2">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>アンイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結論としては、ハリシュは公式サイトから購入することが一番オススメです。</t>
+    <rPh sb="0" eb="2">
+      <t>ケツロン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イチバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コースが選べる</t>
+    <rPh sb="4" eb="5">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入の度に毎回割引（10%～20%）</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タビ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>マイカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ワリビキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コースによっては送料が節約出来る</t>
+    <rPh sb="8" eb="10">
+      <t>ソウリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セツヤク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>満足出来なかった方の為に全額返金保証がある</t>
+    <rPh sb="0" eb="2">
+      <t>マンゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゼンガク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンキン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つまり公式サイトから直接購入すると、「お得」で「安心」と言うことです。</t>
+    <rPh sb="3" eb="5">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>アンシン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ですので色々な購入方法の中でも公式サイトからの購入が一番オススメです。</t>
+    <rPh sb="4" eb="6">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イチバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お試しコース</t>
+    <rPh sb="1" eb="2">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本コース</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年間コース</t>
+    <rPh sb="0" eb="2">
+      <t>ネンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単品で購入</t>
+    <rPh sb="0" eb="2">
+      <t>タンピン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちらはハリシュを単品で1つだけ購入する方法です。</t>
+    <rPh sb="9" eb="11">
+      <t>タンピン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割引が無く、購入の度にお申込みする必要があります。</t>
+    <rPh sb="0" eb="2">
+      <t>ワリビキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タビ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モウシコ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値段は通常価格の4,422円(税別)です。</t>
+    <rPh sb="0" eb="2">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゼイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュをちょっと試してみたい、と言う方の為のコースです。</t>
+    <rPh sb="9" eb="10">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュには単品で購入する方法の他に3つの定期コースがありますので、一つずつご紹介します。</t>
+    <rPh sb="6" eb="8">
+      <t>タンピン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、スマホ、PC、電話で簡単にキャンセルが出来ます。</t>
+    <rPh sb="10" eb="12">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値段は3,980円(税別)、と通常価格より10%お得に購入出来ます。</t>
+    <rPh sb="0" eb="2">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゼイベツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単品より安く、またいつでもストップ出来るリスクのないコースですので、まさに「お試し」コースですね。</t>
+    <rPh sb="0" eb="2">
+      <t>タンピン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちらはハリシュが3ヶ月ごとに3つずつ届く人気NO.1の定期コースです。</t>
+    <rPh sb="11" eb="12">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表面的な即効性の効果でしたら1つの使用でも実感出来ますが、</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウメンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ソッコウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッカン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やはり根本的なケアをするならどんな化粧品でも3ヶ月は使用を続けなければなりませんね。</t>
+    <rPh sb="24" eb="25">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送料を節約する事が出来、受け取るのも一度で済むので手間が省けます。</t>
+    <rPh sb="12" eb="13">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テマ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちらのコースでは一度に3つ（3ヶ月分）が届くので、根本的なケアの為の継続を前提とした方にオススメです。</t>
+    <rPh sb="9" eb="11">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>コンポンテキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値段は3つの合計で11,277円(税別)です。</t>
+    <rPh sb="0" eb="2">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少し高く感じますが、1つあたりで計算すると3,759円(税別)と</t>
+    <rPh sb="0" eb="1">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ゼイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実はお試しコースよりもお得な15%割引になります。</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意事項としては、長期のご利用を前提としての割引の為、</t>
+    <rPh sb="0" eb="4">
+      <t>チュウイジコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チョウキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ワリビキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「最低でも3回以上の受け取りが必要」と言うことです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年間換算だと最低でも7,956円(税別)もお得になります。</t>
+    <rPh sb="0" eb="2">
+      <t>ネンカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンサン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゼイベツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>トク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全コースの中でもっともお得な購入方法です。</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値段は12個で42,456円(税別)です。</t>
+    <rPh sb="0" eb="2">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゼイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つ分で換算すると、3,538円(税別)と20%OFFになります。</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンサン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゼイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年間換算なら10,608円(税別)もお得です！</t>
+    <rPh sb="0" eb="2">
+      <t>ネンカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンサン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゼイベツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただしこちらも条件があります。</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その条件とは3ヶ月×4回分の受け取りが必要で、途中解約が出来ないことです。</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイブン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイヤク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一年間解約が出来ないのは少し怖いですが、</t>
+    <rPh sb="0" eb="1">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ネンカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイヤク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12ヶ月分が10ヶ月分以下の値段で手に入りますので、一考の価値はあるかと思います。</t>
+    <rPh sb="3" eb="4">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イッコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カチ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また全額返金保証とはどういった制度なのか、こちらも調べましたのでご紹介します。</t>
+    <rPh sb="2" eb="4">
+      <t>ゼンガク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンキン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入方法は色々ありますが、解約したい場合はどうすればよいのか。</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイヤク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解約方法と全額返金保証について</t>
+    <rPh sb="0" eb="2">
+      <t>カイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュの定期コースを解約する場合は購入後にログイン出来る定期専用マイページ(https://teiki.in/)から、</t>
+    <rPh sb="5" eb="7">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイヤク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品発送予定日の3営業日までに</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手続きをすれば解約出来ます。</t>
+    <rPh sb="0" eb="2">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイヤク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期限を過ぎると解約が1回分先になるので注意が必要です。</t>
+    <rPh sb="0" eb="2">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイヤク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイブン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の使用ペースに合わせてお届け日や個数・コースの変更なども出来ます。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全額返金保証とは</t>
+  </si>
+  <si>
+    <t>ハリシュの定期コースには初めての方でも安心して使用出来るように全額返金保証が付いています。</t>
+    <rPh sb="5" eb="7">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>アンシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="31" eb="37">
+      <t>ゼンガクヘンキンホショウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全額返金保証の条件は以下です。</t>
+    <rPh sb="0" eb="6">
+      <t>ゼンガクヘンキンホショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初めて購入する商品</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品を最低15日以上は使用している</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品お届け日から25日以内に申請が必要</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返金の申請期間は、商品到着日から15～25日の間ですので覚えておきましょう。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウチャク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もし肌に合わなかったり、満足出来なかった場合は返金保証が使えますので安心して気軽に始められますね。</t>
+    <rPh sb="2" eb="3">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>マンゾク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンキン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホショウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>アンシン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キガル</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全額返金保証についてさらに詳しく知りたい方はこちら</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンガク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンキン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホショウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上、男性(メンズ)のハリ、たるみ対策ミスト「ハリシュ」の口コミや評判、効果についてのご紹介でした。</t>
+  </si>
+  <si>
+    <t>化粧品は一度使い始めるとすぐに色々な物を試してみたくなってしまいますが、</t>
+    <rPh sb="0" eb="3">
+      <t>ケショウヒン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公式サイト限定でお得に始められるお試し定期コースなどから3ヶ月～を目安に始めてみてはいかがでしょうか。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>メヤス</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このサイトをご覧下さった貴方のお役に立てたなら幸いです。</t>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アナタ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売者情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事業者名：北の快適工房(株式会社 北の達人コーポレーション)</t>
+  </si>
+  <si>
+    <t>代表者：木下勝寿</t>
+  </si>
+  <si>
+    <t>所在地：北海道札幌市中央区北一条西一丁目６番地 さっぽろ創世スクエア25階</t>
+  </si>
+  <si>
+    <t>電話番号：0570-55-0717</t>
+  </si>
+  <si>
+    <t>1ヶ月に1つ届く定期コースで、個数の変更やお届け日の変更なども自由に出来ます。</t>
+    <rPh sb="2" eb="3">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短い期間で色々と手を出すよりは、一つの物を数か月ほど試す方が効果が実感出来ると思います。</t>
+    <rPh sb="16" eb="17">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジッカン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>font-sizeは16pxに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8つの成分が7つになっている</t>
+    <rPh sb="3" eb="5">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コースをテーブルに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュの口コミとメリット、デメリット</t>
+    <rPh sb="5" eb="6">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性(メンズ)のハリ、たるみ対策ミストで発売後話題になっている北の快適工房(北の達人コーポレーション)のハリシュ。</t>
+    <rPh sb="20" eb="22">
+      <t>ハツバイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ワダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その口コミや評判、効果など気になっている方も多いと思います。</t>
+    <rPh sb="2" eb="3">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウバン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このサイトではハリシュの口コミから評判、使い方、最安値で購入出来る場所などの情報をまとめていますので、</t>
+    <rPh sb="12" eb="13">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウバン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>サイヤスネ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>コウニュウデキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>是非購入前にご確認下さい！</t>
+    <rPh sb="0" eb="2">
+      <t>ゼヒ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウニュウマエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずはハリシュに関する良い口コミと悪い口コミ、メリットとデメリットについて調査しました、購入前に是非チェックして下さい。</t>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ゼヒ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>✓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>続いては良い口コミとメリットについてご紹介します。</t>
+    <rPh sb="0" eb="1">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュには大きく分けて2種類の効果のタイミングがあります。</t>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それは即効性の効果と継続による根本ケアの効果です。</t>
+    <rPh sb="3" eb="6">
+      <t>ソッコウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コンポン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理的被膜効果により肌が即効で引き締まります。</t>
+    <rPh sb="0" eb="3">
+      <t>ブツリテキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒマク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュはミスト（霧）が網の目のように広がり肌に密着します。</t>
+    <rPh sb="9" eb="10">
+      <t>キリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アミ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ミッチャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>これが</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乾燥による収縮力「物理的被膜効果」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>です。</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シュウシュクリョク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ブツリテキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒマク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ですので</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1度目の使用から物理的に肌にハリを感じることが出来ます。</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>ドメ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ブツリテキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乾燥による収縮力は即効性があり、直ぐに効果を実感出来ます。</t>
+    <rPh sb="0" eb="2">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シュウシュクリョク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ソッコウセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし、それは使用した際に感じる効果で、1度の使用で数日効果が持続する、と言うような長期的な効力ではありません。</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>スウジツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジゾク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>チョウキテキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ではハリシュには即効性の効果しかないのか？と言うとそんなことはありません。</t>
+    <rPh sb="8" eb="11">
+      <t>ソッコウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ハリシュには勿論、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>続けることで得られる根本ケアの効果もあります。</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>モチロン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コンポン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1度目から肌表面への効果があり、継続することで根本的な効果を得ることが出来ます。</t>
+    <rPh sb="1" eb="3">
+      <t>ドメ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コンポン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>即効性の効果で肌にハリを持たせ、同時に、継続することで加齢により蓄積したダメージのケアをすることが出来るので、</t>
+    <rPh sb="0" eb="3">
+      <t>ソッコウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カレイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>チクセキ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周囲の人と比べて肌が若く、綺麗になると自分の顔に自信が持てるようになりますので、</t>
+    <rPh sb="0" eb="2">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キレイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>良い気分で日常が過ごせそうですね。</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キブン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニチジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュに含まれている特徴的な成分や添加物の使用などについて調べましたので、ご紹介します。</t>
+    <rPh sb="5" eb="6">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>トクチョウテキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>テンカブツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下は肌の根本ケアに効果のある8つの成分です。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コンポン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とあるので、添加物の類はあまり使用されていないようです。</t>
+    <rPh sb="6" eb="9">
+      <t>テンカブツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タグイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洗顔などを行う際にはハリシュを使用する適切なタイミングがありますのでざっくりした手順をご紹介します。</t>
+    <rPh sb="0" eb="2">
+      <t>センガン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次により具体的な使用方法についてご紹介します。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここでハリシュの登場です。</t>
+    <rPh sb="8" eb="10">
+      <t>トウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュの使い方を動画で確認したい方は下記をご覧下さい。</t>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーステーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1本あたりの金額</t>
+    <rPh sb="1" eb="2">
+      <t>ポン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://harishureviews.web.fc2.com/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4954,7 +7658,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5358,10 +8062,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AD325"/>
+  <dimension ref="A1:AD485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="O69" sqref="O69"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5380,7 +8084,7 @@
         <v>43</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5404,7 +8108,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5424,7 +8128,7 @@
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5439,7 +8143,7 @@
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5454,259 +8158,279 @@
     </row>
     <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q66" s="13" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q67" s="13" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q68" s="13" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q69" s="13" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q71" s="13" t="s">
-        <v>250</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G72" t="s">
+        <v>387</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="Q72" s="13" t="s">
-        <v>249</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G73" t="s">
+        <v>387</v>
+      </c>
+      <c r="H73" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q73" s="13" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J74" t="s">
-        <v>244</v>
+      <c r="H74" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J75" s="6" t="s">
-        <v>157</v>
+      <c r="G75" t="s">
+        <v>387</v>
+      </c>
+      <c r="H75" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -5781,27 +8505,30 @@
       <c r="AC80" s="1"/>
       <c r="AD80" s="1"/>
     </row>
-    <row r="81" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C82" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="3:30" ht="35.25" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
       <c r="C84" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="B87" t="s">
+        <v>380</v>
+      </c>
       <c r="C87" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
@@ -5831,1454 +8558,2428 @@
       <c r="AC87" s="11"/>
       <c r="AD87" s="11"/>
     </row>
-    <row r="88" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C89" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C91" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-      <c r="X91" s="1"/>
-      <c r="Y91" s="1"/>
-      <c r="Z91" s="1"/>
-      <c r="AA91" s="1"/>
-      <c r="AB91" s="1"/>
-      <c r="AC91" s="1"/>
-      <c r="AD91" s="1"/>
-    </row>
-    <row r="92" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C93" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C95" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="90" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C90" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="91" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C91" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="92" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C92" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="94" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C94" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="11"/>
+      <c r="U94" s="11"/>
+      <c r="V94" s="11"/>
+      <c r="W94" s="11"/>
+      <c r="X94" s="11"/>
+      <c r="Y94" s="11"/>
+      <c r="Z94" s="11"/>
+      <c r="AA94" s="11"/>
+      <c r="AB94" s="11"/>
+      <c r="AC94" s="11"/>
+      <c r="AD94" s="11"/>
+    </row>
+    <row r="95" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C95" s="5"/>
+    </row>
+    <row r="96" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C96" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C98" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C99" t="s">
-        <v>121</v>
-      </c>
-    </row>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+    </row>
+    <row r="99" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="100" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C100" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C102" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
-      <c r="T102" s="1"/>
-      <c r="U102" s="1"/>
-      <c r="V102" s="1"/>
-      <c r="W102" s="1"/>
-      <c r="X102" s="1"/>
-      <c r="Y102" s="1"/>
-      <c r="Z102" s="1"/>
-      <c r="AA102" s="1"/>
-      <c r="AB102" s="1"/>
-      <c r="AC102" s="1"/>
-      <c r="AD102" s="1"/>
-    </row>
-    <row r="103" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C104" t="s">
-        <v>123</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C102" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C103" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C105" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C106" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C108" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="109" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C109" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C110" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="112" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C112" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C114" t="s">
-        <v>143</v>
-      </c>
-    </row>
+      <c r="C106" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C107" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C109" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
+      <c r="AC109" s="1"/>
+      <c r="AD109" s="1"/>
+    </row>
+    <row r="110" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C111" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C113" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="115" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C115" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C116" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C117" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C118" s="14" t="s">
-        <v>147</v>
+      <c r="C117" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C119" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C120" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
+      <c r="C119" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="121" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C121" s="14" t="s">
-        <v>150</v>
+      <c r="C121" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C122" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C123" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="C123" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C124" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="125" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C125" s="15" t="s">
-        <v>152</v>
+      <c r="C125" s="14" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C126" s="14" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C127" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="130" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C130" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
-      <c r="P130" s="1"/>
-      <c r="Q130" s="1"/>
-      <c r="R130" s="1"/>
-      <c r="S130" s="1"/>
-      <c r="T130" s="1"/>
-      <c r="U130" s="1"/>
-      <c r="V130" s="1"/>
-      <c r="W130" s="1"/>
-      <c r="X130" s="1"/>
-      <c r="Y130" s="1"/>
-      <c r="Z130" s="1"/>
-      <c r="AA130" s="1"/>
-      <c r="AB130" s="1"/>
-      <c r="AC130" s="1"/>
-      <c r="AD130" s="1"/>
+      <c r="C127" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C128" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="130" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C130" s="12" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="131" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="132" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C132" s="6" t="s">
-        <v>162</v>
+      <c r="C132" s="15" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="133" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C133" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="135" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C135" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="136" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C136" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="137" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C137" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
+      <c r="C133" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C134" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="137" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C137" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="V137" s="1"/>
+      <c r="W137" s="1"/>
+      <c r="X137" s="1"/>
+      <c r="Y137" s="1"/>
+      <c r="Z137" s="1"/>
+      <c r="AA137" s="1"/>
+      <c r="AB137" s="1"/>
+      <c r="AC137" s="1"/>
+      <c r="AD137" s="1"/>
+    </row>
+    <row r="138" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="139" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C139" t="s">
-        <v>160</v>
+        <v>388</v>
       </c>
     </row>
     <row r="140" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C140" s="16" t="s">
-        <v>173</v>
+      <c r="C140" s="6"/>
+    </row>
+    <row r="141" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C141" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="143" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C143" t="s">
-        <v>174</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C144" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="145" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C145" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C146" s="16" t="s">
-        <v>176</v>
+      <c r="C146" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C148" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
     </row>
     <row r="149" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C149" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="150" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C150" s="16" t="s">
-        <v>178</v>
+      <c r="C149" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C151" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C152" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="153" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="C152" t="s">
+        <v>151</v>
+      </c>
+    </row>
     <row r="154" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C154" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="156" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C156" t="s">
-        <v>179</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C155" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C157" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C158" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="159" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C159" s="16" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C161" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="162" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C162" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="164" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C164" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-      <c r="K164" s="1"/>
-      <c r="L164" s="1"/>
-      <c r="M164" s="1"/>
-      <c r="N164" s="1"/>
-      <c r="O164" s="1"/>
-      <c r="P164" s="1"/>
-      <c r="Q164" s="1"/>
-      <c r="R164" s="1"/>
-      <c r="S164" s="1"/>
-      <c r="T164" s="1"/>
-      <c r="U164" s="1"/>
-      <c r="V164" s="1"/>
-      <c r="W164" s="1"/>
-      <c r="X164" s="1"/>
-      <c r="Y164" s="1"/>
-      <c r="Z164" s="1"/>
-      <c r="AA164" s="1"/>
-      <c r="AB164" s="1"/>
-      <c r="AC164" s="1"/>
-      <c r="AD164" s="1"/>
-    </row>
-    <row r="165" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C166" t="s">
-        <v>185</v>
+      <c r="C161" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="162" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C163" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="165" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C165" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="167" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C167" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C168" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="169" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C169" t="s">
-        <v>243</v>
+      <c r="C168" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="170" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C170" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C171" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="172" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C172" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="175" spans="3:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="C175" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D175" s="11"/>
-      <c r="E175" s="11"/>
-      <c r="F175" s="11"/>
-      <c r="G175" s="11"/>
-      <c r="H175" s="11"/>
-      <c r="I175" s="11"/>
-      <c r="J175" s="11"/>
-      <c r="K175" s="11"/>
-      <c r="L175" s="11"/>
-      <c r="M175" s="11"/>
-      <c r="N175" s="11"/>
-      <c r="O175" s="11"/>
-      <c r="P175" s="11"/>
-      <c r="Q175" s="11"/>
-      <c r="R175" s="11"/>
-      <c r="S175" s="11"/>
-      <c r="T175" s="11"/>
-      <c r="U175" s="11"/>
-      <c r="V175" s="11"/>
-      <c r="W175" s="11"/>
-      <c r="X175" s="11"/>
-      <c r="Y175" s="11"/>
-      <c r="Z175" s="11"/>
-      <c r="AA175" s="11"/>
-      <c r="AB175" s="11"/>
-      <c r="AC175" s="11"/>
-      <c r="AD175" s="11"/>
-    </row>
-    <row r="176" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C176" s="5"/>
-    </row>
-    <row r="177" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C177" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
-      <c r="P177" s="1"/>
-      <c r="Q177" s="1"/>
-      <c r="R177" s="1"/>
-      <c r="S177" s="1"/>
-      <c r="T177" s="1"/>
-      <c r="U177" s="1"/>
-      <c r="V177" s="1"/>
-      <c r="W177" s="1"/>
-      <c r="X177" s="1"/>
-      <c r="Y177" s="1"/>
-      <c r="Z177" s="1"/>
-      <c r="AA177" s="1"/>
-      <c r="AB177" s="1"/>
-      <c r="AC177" s="1"/>
-      <c r="AD177" s="1"/>
-    </row>
-    <row r="178" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C178" s="5"/>
+      <c r="C171" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="173" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C173" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+      <c r="T173" s="1"/>
+      <c r="U173" s="1"/>
+      <c r="V173" s="1"/>
+      <c r="W173" s="1"/>
+      <c r="X173" s="1"/>
+      <c r="Y173" s="1"/>
+      <c r="Z173" s="1"/>
+      <c r="AA173" s="1"/>
+      <c r="AB173" s="1"/>
+      <c r="AC173" s="1"/>
+      <c r="AD173" s="1"/>
+    </row>
+    <row r="174" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C175" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="176" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C176" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="177" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C177" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="178" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C178" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="179" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C179" s="6" t="s">
-        <v>57</v>
+      <c r="C179" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="180" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C180" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
     </row>
     <row r="181" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C181" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="182" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C182" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="183" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C183" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="184" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C184" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="185" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C185" t="s">
-        <v>189</v>
-      </c>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="184" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C184" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="11"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="11"/>
+      <c r="L184" s="11"/>
+      <c r="M184" s="11"/>
+      <c r="N184" s="11"/>
+      <c r="O184" s="11"/>
+      <c r="P184" s="11"/>
+      <c r="Q184" s="11"/>
+      <c r="R184" s="11"/>
+      <c r="S184" s="11"/>
+      <c r="T184" s="11"/>
+      <c r="U184" s="11"/>
+      <c r="V184" s="11"/>
+      <c r="W184" s="11"/>
+      <c r="X184" s="11"/>
+      <c r="Y184" s="11"/>
+      <c r="Z184" s="11"/>
+      <c r="AA184" s="11"/>
+      <c r="AB184" s="11"/>
+      <c r="AC184" s="11"/>
+      <c r="AD184" s="11"/>
+    </row>
+    <row r="185" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C185" s="5"/>
     </row>
     <row r="186" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C186" s="6" t="s">
-        <v>190</v>
+      <c r="C186" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="187" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C187" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="188" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C188" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="189" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C189" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="190" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C190" s="6" t="s">
-        <v>197</v>
-      </c>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="189" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C189" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+      <c r="P189" s="1"/>
+      <c r="Q189" s="1"/>
+      <c r="R189" s="1"/>
+      <c r="S189" s="1"/>
+      <c r="T189" s="1"/>
+      <c r="U189" s="1"/>
+      <c r="V189" s="1"/>
+      <c r="W189" s="1"/>
+      <c r="X189" s="1"/>
+      <c r="Y189" s="1"/>
+      <c r="Z189" s="1"/>
+      <c r="AA189" s="1"/>
+      <c r="AB189" s="1"/>
+      <c r="AC189" s="1"/>
+      <c r="AD189" s="1"/>
+    </row>
+    <row r="190" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C190" s="5"/>
     </row>
     <row r="191" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C191" t="s">
-        <v>198</v>
+      <c r="C191" s="6" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="192" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C192" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="194" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C194" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
-      <c r="J194" s="1"/>
-      <c r="K194" s="1"/>
-      <c r="L194" s="1"/>
-      <c r="M194" s="1"/>
-      <c r="N194" s="1"/>
-      <c r="O194" s="1"/>
-      <c r="P194" s="1"/>
-      <c r="Q194" s="1"/>
-      <c r="R194" s="1"/>
-      <c r="S194" s="1"/>
-      <c r="T194" s="1"/>
-      <c r="U194" s="1"/>
-      <c r="V194" s="1"/>
-      <c r="W194" s="1"/>
-      <c r="X194" s="1"/>
-      <c r="Y194" s="1"/>
-      <c r="Z194" s="1"/>
-      <c r="AA194" s="1"/>
-      <c r="AB194" s="1"/>
-      <c r="AC194" s="1"/>
-      <c r="AD194" s="1"/>
-    </row>
-    <row r="195" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="193" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C193" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="194" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C194" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="195" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C195" t="s">
+        <v>165</v>
+      </c>
+    </row>
     <row r="196" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C196" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
     </row>
     <row r="197" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C197" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
     </row>
     <row r="198" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C198" t="s">
-        <v>200</v>
+      <c r="C198" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="199" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C199" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
     </row>
     <row r="200" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C200" t="s">
-        <v>203</v>
+        <v>392</v>
       </c>
     </row>
     <row r="201" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C201" s="16" t="s">
-        <v>204</v>
+      <c r="C201" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="202" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C202" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="204" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C204" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
-      <c r="I204" s="1"/>
-      <c r="J204" s="1"/>
-      <c r="K204" s="1"/>
-      <c r="L204" s="1"/>
-      <c r="M204" s="1"/>
-      <c r="N204" s="1"/>
-      <c r="O204" s="1"/>
-      <c r="P204" s="1"/>
-      <c r="Q204" s="1"/>
-      <c r="R204" s="1"/>
-      <c r="S204" s="1"/>
-      <c r="T204" s="1"/>
-      <c r="U204" s="1"/>
-      <c r="V204" s="1"/>
-      <c r="W204" s="1"/>
-      <c r="X204" s="1"/>
-      <c r="Y204" s="1"/>
-      <c r="Z204" s="1"/>
-      <c r="AA204" s="1"/>
-      <c r="AB204" s="1"/>
-      <c r="AC204" s="1"/>
-      <c r="AD204" s="1"/>
-    </row>
-    <row r="205" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C206" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="207" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C207" t="s">
-        <v>206</v>
-      </c>
-    </row>
+      <c r="C202" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="203" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C203" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="204" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C204" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="206" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C206" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="T206" s="1"/>
+      <c r="U206" s="1"/>
+      <c r="V206" s="1"/>
+      <c r="W206" s="1"/>
+      <c r="X206" s="1"/>
+      <c r="Y206" s="1"/>
+      <c r="Z206" s="1"/>
+      <c r="AA206" s="1"/>
+      <c r="AB206" s="1"/>
+      <c r="AC206" s="1"/>
+      <c r="AD206" s="1"/>
+    </row>
+    <row r="207" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="208" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C208" t="s">
-        <v>207</v>
+        <v>395</v>
       </c>
     </row>
     <row r="209" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C209" t="s">
-        <v>208</v>
+        <v>396</v>
       </c>
     </row>
     <row r="210" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C210" t="s">
-        <v>209</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="211" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C211" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="212" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C212" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="215" spans="3:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="C215" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D215" s="11"/>
-      <c r="E215" s="11"/>
-      <c r="F215" s="11"/>
-      <c r="G215" s="11"/>
-      <c r="H215" s="11"/>
-      <c r="I215" s="11"/>
-      <c r="J215" s="11"/>
-      <c r="K215" s="11"/>
-      <c r="L215" s="11"/>
-      <c r="M215" s="11"/>
-      <c r="N215" s="11"/>
-      <c r="O215" s="11"/>
-      <c r="P215" s="11"/>
-      <c r="Q215" s="11"/>
-      <c r="R215" s="11"/>
-      <c r="S215" s="11"/>
-      <c r="T215" s="11"/>
-      <c r="U215" s="11"/>
-      <c r="V215" s="11"/>
-      <c r="W215" s="11"/>
-      <c r="X215" s="11"/>
-      <c r="Y215" s="11"/>
-      <c r="Z215" s="11"/>
-      <c r="AA215" s="11"/>
-      <c r="AB215" s="11"/>
-      <c r="AC215" s="11"/>
-      <c r="AD215" s="11"/>
-    </row>
-    <row r="216" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C216" s="5"/>
-    </row>
-    <row r="217" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C217" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
-      <c r="I217" s="1"/>
-      <c r="J217" s="1"/>
-      <c r="K217" s="1"/>
-      <c r="L217" s="1"/>
-      <c r="M217" s="1"/>
-      <c r="N217" s="1"/>
-      <c r="O217" s="1"/>
-      <c r="P217" s="1"/>
-      <c r="Q217" s="1"/>
-      <c r="R217" s="1"/>
-      <c r="S217" s="1"/>
-      <c r="T217" s="1"/>
-      <c r="U217" s="1"/>
-      <c r="V217" s="1"/>
-      <c r="W217" s="1"/>
-      <c r="X217" s="1"/>
-      <c r="Y217" s="1"/>
-      <c r="Z217" s="1"/>
-      <c r="AA217" s="1"/>
-      <c r="AB217" s="1"/>
-      <c r="AC217" s="1"/>
-      <c r="AD217" s="1"/>
-    </row>
-    <row r="218" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C218" s="5"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="213" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C213" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="214" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C214" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="216" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C216" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+      <c r="U216" s="1"/>
+      <c r="V216" s="1"/>
+      <c r="W216" s="1"/>
+      <c r="X216" s="1"/>
+      <c r="Y216" s="1"/>
+      <c r="Z216" s="1"/>
+      <c r="AA216" s="1"/>
+      <c r="AB216" s="1"/>
+      <c r="AC216" s="1"/>
+      <c r="AD216" s="1"/>
+    </row>
+    <row r="217" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C218" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="219" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C219" t="s">
-        <v>223</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="220" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C220" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="221" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C221" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="222" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C222" s="5"/>
-    </row>
-    <row r="223" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C223" t="s">
-        <v>224</v>
+      <c r="C221" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="222" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C222" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="224" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C224" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="226" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C226" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="228" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C228" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="230" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C230" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="232" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C232" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="234" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C234" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="236" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C236" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="238" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C238" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="242" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C242" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="243" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C243" s="5"/>
-    </row>
-    <row r="244" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="227" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C227" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D227" s="11"/>
+      <c r="E227" s="11"/>
+      <c r="F227" s="11"/>
+      <c r="G227" s="11"/>
+      <c r="H227" s="11"/>
+      <c r="I227" s="11"/>
+      <c r="J227" s="11"/>
+      <c r="K227" s="11"/>
+      <c r="L227" s="11"/>
+      <c r="M227" s="11"/>
+      <c r="N227" s="11"/>
+      <c r="O227" s="11"/>
+      <c r="P227" s="11"/>
+      <c r="Q227" s="11"/>
+      <c r="R227" s="11"/>
+      <c r="S227" s="11"/>
+      <c r="T227" s="11"/>
+      <c r="U227" s="11"/>
+      <c r="V227" s="11"/>
+      <c r="W227" s="11"/>
+      <c r="X227" s="11"/>
+      <c r="Y227" s="11"/>
+      <c r="Z227" s="11"/>
+      <c r="AA227" s="11"/>
+      <c r="AB227" s="11"/>
+      <c r="AC227" s="11"/>
+      <c r="AD227" s="11"/>
+    </row>
+    <row r="228" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C228" s="5"/>
+    </row>
+    <row r="229" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C229" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="231" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C231" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
+      <c r="U231" s="1"/>
+      <c r="V231" s="1"/>
+      <c r="W231" s="1"/>
+      <c r="X231" s="1"/>
+      <c r="Y231" s="1"/>
+      <c r="Z231" s="1"/>
+      <c r="AA231" s="1"/>
+      <c r="AB231" s="1"/>
+      <c r="AC231" s="1"/>
+      <c r="AD231" s="1"/>
+    </row>
+    <row r="232" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C232" s="5"/>
+    </row>
+    <row r="233" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C233" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="235" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C235" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="236" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C236" s="5"/>
+    </row>
+    <row r="237" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C237" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="239" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C239" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="240" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C240" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C241" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C242" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C243" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C244" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C245" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C246" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C247" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C248" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C249" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C250" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C251" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C252" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C253" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="251" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C251" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
-      <c r="I251" s="1"/>
-      <c r="J251" s="1"/>
-      <c r="K251" s="1"/>
-      <c r="L251" s="1"/>
-      <c r="M251" s="1"/>
-      <c r="N251" s="1"/>
-      <c r="O251" s="1"/>
-      <c r="P251" s="1"/>
-      <c r="Q251" s="1"/>
-      <c r="R251" s="1"/>
-      <c r="S251" s="1"/>
-      <c r="T251" s="1"/>
-      <c r="U251" s="1"/>
-      <c r="V251" s="1"/>
-      <c r="W251" s="1"/>
-      <c r="X251" s="1"/>
-      <c r="Y251" s="1"/>
-      <c r="Z251" s="1"/>
-      <c r="AA251" s="1"/>
-      <c r="AB251" s="1"/>
-      <c r="AC251" s="1"/>
-      <c r="AD251" s="1"/>
-    </row>
-    <row r="252" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C253" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="254" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C254" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="255" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C255" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="256" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C256" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="258" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C258" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D258" s="1"/>
-      <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
-      <c r="G258" s="1"/>
-      <c r="H258" s="1"/>
-      <c r="I258" s="1"/>
-      <c r="J258" s="1"/>
-      <c r="K258" s="1"/>
-      <c r="L258" s="1"/>
-      <c r="M258" s="1"/>
-      <c r="N258" s="1"/>
-      <c r="O258" s="1"/>
-      <c r="P258" s="1"/>
-      <c r="Q258" s="1"/>
-      <c r="R258" s="1"/>
-      <c r="S258" s="1"/>
-      <c r="T258" s="1"/>
-      <c r="U258" s="1"/>
-      <c r="V258" s="1"/>
-      <c r="W258" s="1"/>
-      <c r="X258" s="1"/>
-      <c r="Y258" s="1"/>
-      <c r="Z258" s="1"/>
-      <c r="AA258" s="1"/>
-      <c r="AB258" s="1"/>
-      <c r="AC258" s="1"/>
-      <c r="AD258" s="1"/>
-    </row>
-    <row r="259" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C260" t="s">
-        <v>214</v>
-      </c>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="257" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C257" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="259" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C259" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="260" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C260" s="5"/>
     </row>
     <row r="261" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C261" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
     </row>
     <row r="262" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C262" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="263" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C263" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="264" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C264" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="265" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C265" t="s">
-        <v>232</v>
-      </c>
-    </row>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="264" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C264" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
+      <c r="J264" s="1"/>
+      <c r="K264" s="1"/>
+      <c r="L264" s="1"/>
+      <c r="M264" s="1"/>
+      <c r="N264" s="1"/>
+      <c r="O264" s="1"/>
+      <c r="P264" s="1"/>
+      <c r="Q264" s="1"/>
+      <c r="R264" s="1"/>
+      <c r="S264" s="1"/>
+      <c r="T264" s="1"/>
+      <c r="U264" s="1"/>
+      <c r="V264" s="1"/>
+      <c r="W264" s="1"/>
+      <c r="X264" s="1"/>
+      <c r="Y264" s="1"/>
+      <c r="Z264" s="1"/>
+      <c r="AA264" s="1"/>
+      <c r="AB264" s="1"/>
+      <c r="AC264" s="1"/>
+      <c r="AD264" s="1"/>
+    </row>
+    <row r="265" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="266" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C266" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
     </row>
     <row r="267" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C267" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
     </row>
     <row r="268" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C268" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
     </row>
     <row r="269" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C269" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
     </row>
     <row r="270" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C270" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="272" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C272" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D272" s="1"/>
-      <c r="E272" s="1"/>
-      <c r="F272" s="1"/>
-      <c r="G272" s="1"/>
-      <c r="H272" s="1"/>
-      <c r="I272" s="1"/>
-      <c r="J272" s="1"/>
-      <c r="K272" s="1"/>
-      <c r="L272" s="1"/>
-      <c r="M272" s="1"/>
-      <c r="N272" s="1"/>
-      <c r="O272" s="1"/>
-      <c r="P272" s="1"/>
-      <c r="Q272" s="1"/>
-      <c r="R272" s="1"/>
-      <c r="S272" s="1"/>
-      <c r="T272" s="1"/>
-      <c r="U272" s="1"/>
-      <c r="V272" s="1"/>
-      <c r="W272" s="1"/>
-      <c r="X272" s="1"/>
-      <c r="Y272" s="1"/>
-      <c r="Z272" s="1"/>
-      <c r="AA272" s="1"/>
-      <c r="AB272" s="1"/>
-      <c r="AC272" s="1"/>
-      <c r="AD272" s="1"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="271" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C271" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="272" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C272" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="273" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C273" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
     </row>
     <row r="274" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C274" t="s">
-        <v>82</v>
+        <v>405</v>
       </c>
     </row>
     <row r="275" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C275" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
     </row>
     <row r="276" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C276" t="s">
-        <v>84</v>
+        <v>243</v>
       </c>
     </row>
     <row r="277" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C277" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
     </row>
     <row r="278" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C278" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="283" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C283" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="285" spans="3:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="C285" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D285" s="11"/>
-      <c r="E285" s="11"/>
-      <c r="F285" s="11"/>
-      <c r="G285" s="11"/>
-      <c r="H285" s="11"/>
-      <c r="I285" s="11"/>
-      <c r="J285" s="11"/>
-      <c r="K285" s="11"/>
-      <c r="L285" s="11"/>
-      <c r="M285" s="11"/>
-      <c r="N285" s="11"/>
-      <c r="O285" s="11"/>
-      <c r="P285" s="11"/>
-      <c r="Q285" s="11"/>
-      <c r="R285" s="11"/>
-      <c r="S285" s="11"/>
-      <c r="T285" s="11"/>
-      <c r="U285" s="11"/>
-      <c r="V285" s="11"/>
-      <c r="W285" s="11"/>
-      <c r="X285" s="11"/>
-      <c r="Y285" s="11"/>
-      <c r="Z285" s="11"/>
-      <c r="AA285" s="11"/>
-      <c r="AB285" s="11"/>
-      <c r="AC285" s="11"/>
-      <c r="AD285" s="11"/>
-    </row>
-    <row r="286" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C286" s="5"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="279" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C279" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="280" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C280" s="5"/>
+    </row>
+    <row r="281" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C281" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="282" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C282" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="284" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C284" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+      <c r="H284" s="1"/>
+      <c r="I284" s="1"/>
+      <c r="J284" s="1"/>
+      <c r="K284" s="1"/>
+      <c r="L284" s="1"/>
+      <c r="M284" s="1"/>
+      <c r="N284" s="1"/>
+      <c r="O284" s="1"/>
+      <c r="P284" s="1"/>
+      <c r="Q284" s="1"/>
+      <c r="R284" s="1"/>
+      <c r="S284" s="1"/>
+      <c r="T284" s="1"/>
+      <c r="U284" s="1"/>
+      <c r="V284" s="1"/>
+      <c r="W284" s="1"/>
+      <c r="X284" s="1"/>
+      <c r="Y284" s="1"/>
+      <c r="Z284" s="1"/>
+      <c r="AA284" s="1"/>
+      <c r="AB284" s="1"/>
+      <c r="AC284" s="1"/>
+      <c r="AD284" s="1"/>
+    </row>
+    <row r="285" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C286" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="287" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C287" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="288" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C288" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
     </row>
     <row r="289" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C289" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="294" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C294" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D294" s="1"/>
-      <c r="E294" s="1"/>
-      <c r="F294" s="1"/>
-      <c r="G294" s="1"/>
-      <c r="H294" s="1"/>
-      <c r="I294" s="1"/>
-      <c r="J294" s="1"/>
-      <c r="K294" s="1"/>
-      <c r="L294" s="1"/>
-      <c r="M294" s="1"/>
-      <c r="N294" s="1"/>
-      <c r="O294" s="1"/>
-      <c r="P294" s="1"/>
-      <c r="Q294" s="1"/>
-      <c r="R294" s="1"/>
-      <c r="S294" s="1"/>
-      <c r="T294" s="1"/>
-      <c r="U294" s="1"/>
-      <c r="V294" s="1"/>
-      <c r="W294" s="1"/>
-      <c r="X294" s="1"/>
-      <c r="Y294" s="1"/>
-      <c r="Z294" s="1"/>
-      <c r="AA294" s="1"/>
-      <c r="AB294" s="1"/>
-      <c r="AC294" s="1"/>
-      <c r="AD294" s="1"/>
-    </row>
-    <row r="295" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C297" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D297" s="1"/>
-      <c r="E297" s="1"/>
-      <c r="F297" s="1"/>
-      <c r="G297" s="1"/>
-      <c r="H297" s="1"/>
-      <c r="I297" s="1"/>
-      <c r="J297" s="1"/>
-      <c r="K297" s="1"/>
-      <c r="L297" s="1"/>
-      <c r="M297" s="1"/>
-      <c r="N297" s="1"/>
-      <c r="O297" s="1"/>
-      <c r="P297" s="1"/>
-      <c r="Q297" s="1"/>
-      <c r="R297" s="1"/>
-      <c r="S297" s="1"/>
-      <c r="T297" s="1"/>
-      <c r="U297" s="1"/>
-      <c r="V297" s="1"/>
-      <c r="W297" s="1"/>
-      <c r="X297" s="1"/>
-      <c r="Y297" s="1"/>
-      <c r="Z297" s="1"/>
-      <c r="AA297" s="1"/>
-      <c r="AB297" s="1"/>
-      <c r="AC297" s="1"/>
-      <c r="AD297" s="1"/>
-    </row>
-    <row r="298" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" spans="3:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="C301" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D301" s="11"/>
-      <c r="E301" s="11"/>
-      <c r="F301" s="11"/>
-      <c r="G301" s="11"/>
-      <c r="H301" s="11"/>
-      <c r="I301" s="11"/>
-      <c r="J301" s="11"/>
-      <c r="K301" s="11"/>
-      <c r="L301" s="11"/>
-      <c r="M301" s="11"/>
-      <c r="N301" s="11"/>
-      <c r="O301" s="11"/>
-      <c r="P301" s="11"/>
-      <c r="Q301" s="11"/>
-      <c r="R301" s="11"/>
-      <c r="S301" s="11"/>
-      <c r="T301" s="11"/>
-      <c r="U301" s="11"/>
-      <c r="V301" s="11"/>
-      <c r="W301" s="11"/>
-      <c r="X301" s="11"/>
-      <c r="Y301" s="11"/>
-      <c r="Z301" s="11"/>
-      <c r="AA301" s="11"/>
-      <c r="AB301" s="11"/>
-      <c r="AC301" s="11"/>
-      <c r="AD301" s="11"/>
-    </row>
-    <row r="302" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C302" s="5"/>
-    </row>
-    <row r="303" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C303" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D303" s="1"/>
-      <c r="E303" s="1"/>
-      <c r="F303" s="1"/>
-      <c r="G303" s="1"/>
-      <c r="H303" s="1"/>
-      <c r="I303" s="1"/>
-      <c r="J303" s="1"/>
-      <c r="K303" s="1"/>
-      <c r="L303" s="1"/>
-      <c r="M303" s="1"/>
-      <c r="N303" s="1"/>
-      <c r="O303" s="1"/>
-      <c r="P303" s="1"/>
-      <c r="Q303" s="1"/>
-      <c r="R303" s="1"/>
-      <c r="S303" s="1"/>
-      <c r="T303" s="1"/>
-      <c r="U303" s="1"/>
-      <c r="V303" s="1"/>
-      <c r="W303" s="1"/>
-      <c r="X303" s="1"/>
-      <c r="Y303" s="1"/>
-      <c r="Z303" s="1"/>
-      <c r="AA303" s="1"/>
-      <c r="AB303" s="1"/>
-      <c r="AC303" s="1"/>
-      <c r="AD303" s="1"/>
-    </row>
-    <row r="304" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C304" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="305" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C306" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D306" s="1"/>
-      <c r="E306" s="1"/>
-      <c r="F306" s="1"/>
-      <c r="G306" s="1"/>
-      <c r="H306" s="1"/>
-      <c r="I306" s="1"/>
-      <c r="J306" s="1"/>
-      <c r="K306" s="1"/>
-      <c r="L306" s="1"/>
-      <c r="M306" s="1"/>
-      <c r="N306" s="1"/>
-      <c r="O306" s="1"/>
-      <c r="P306" s="1"/>
-      <c r="Q306" s="1"/>
-      <c r="R306" s="1"/>
-      <c r="S306" s="1"/>
-      <c r="T306" s="1"/>
-      <c r="U306" s="1"/>
-      <c r="V306" s="1"/>
-      <c r="W306" s="1"/>
-      <c r="X306" s="1"/>
-      <c r="Y306" s="1"/>
-      <c r="Z306" s="1"/>
-      <c r="AA306" s="1"/>
-      <c r="AB306" s="1"/>
-      <c r="AC306" s="1"/>
-      <c r="AD306" s="1"/>
-    </row>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="291" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C291" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="1"/>
+      <c r="I291" s="1"/>
+      <c r="J291" s="1"/>
+      <c r="K291" s="1"/>
+      <c r="L291" s="1"/>
+      <c r="M291" s="1"/>
+      <c r="N291" s="1"/>
+      <c r="O291" s="1"/>
+      <c r="P291" s="1"/>
+      <c r="Q291" s="1"/>
+      <c r="R291" s="1"/>
+      <c r="S291" s="1"/>
+      <c r="T291" s="1"/>
+      <c r="U291" s="1"/>
+      <c r="V291" s="1"/>
+      <c r="W291" s="1"/>
+      <c r="X291" s="1"/>
+      <c r="Y291" s="1"/>
+      <c r="Z291" s="1"/>
+      <c r="AA291" s="1"/>
+      <c r="AB291" s="1"/>
+      <c r="AC291" s="1"/>
+      <c r="AD291" s="1"/>
+    </row>
+    <row r="292" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C292" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="293" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C293" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="294" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C294" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="295" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C295" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="296" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C296" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="297" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C297" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="298" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C298" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="300" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C300" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D300" s="11"/>
+      <c r="E300" s="11"/>
+      <c r="F300" s="11"/>
+      <c r="G300" s="11"/>
+      <c r="H300" s="11"/>
+      <c r="I300" s="11"/>
+      <c r="J300" s="11"/>
+      <c r="K300" s="11"/>
+      <c r="L300" s="11"/>
+      <c r="M300" s="11"/>
+      <c r="N300" s="11"/>
+      <c r="O300" s="11"/>
+      <c r="P300" s="11"/>
+      <c r="Q300" s="11"/>
+      <c r="R300" s="11"/>
+      <c r="S300" s="11"/>
+      <c r="T300" s="11"/>
+      <c r="U300" s="11"/>
+      <c r="V300" s="11"/>
+      <c r="W300" s="11"/>
+      <c r="X300" s="11"/>
+      <c r="Y300" s="11"/>
+      <c r="Z300" s="11"/>
+      <c r="AA300" s="11"/>
+      <c r="AB300" s="11"/>
+      <c r="AC300" s="11"/>
+      <c r="AD300" s="11"/>
+    </row>
+    <row r="301" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C301" s="5"/>
+    </row>
+    <row r="302" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C302" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="303" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C303" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="305" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C305" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+      <c r="G305" s="1"/>
+      <c r="H305" s="1"/>
+      <c r="I305" s="1"/>
+      <c r="J305" s="1"/>
+      <c r="K305" s="1"/>
+      <c r="L305" s="1"/>
+      <c r="M305" s="1"/>
+      <c r="N305" s="1"/>
+      <c r="O305" s="1"/>
+      <c r="P305" s="1"/>
+      <c r="Q305" s="1"/>
+      <c r="R305" s="1"/>
+      <c r="S305" s="1"/>
+      <c r="T305" s="1"/>
+      <c r="U305" s="1"/>
+      <c r="V305" s="1"/>
+      <c r="W305" s="1"/>
+      <c r="X305" s="1"/>
+      <c r="Y305" s="1"/>
+      <c r="Z305" s="1"/>
+      <c r="AA305" s="1"/>
+      <c r="AB305" s="1"/>
+      <c r="AC305" s="1"/>
+      <c r="AD305" s="1"/>
+    </row>
+    <row r="306" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="307" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C307" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="308" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C309" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D309" s="1"/>
-      <c r="E309" s="1"/>
-      <c r="F309" s="1"/>
-      <c r="G309" s="1"/>
-      <c r="H309" s="1"/>
-      <c r="I309" s="1"/>
-      <c r="J309" s="1"/>
-      <c r="K309" s="1"/>
-      <c r="L309" s="1"/>
-      <c r="M309" s="1"/>
-      <c r="N309" s="1"/>
-      <c r="O309" s="1"/>
-      <c r="P309" s="1"/>
-      <c r="Q309" s="1"/>
-      <c r="R309" s="1"/>
-      <c r="S309" s="1"/>
-      <c r="T309" s="1"/>
-      <c r="U309" s="1"/>
-      <c r="V309" s="1"/>
-      <c r="W309" s="1"/>
-      <c r="X309" s="1"/>
-      <c r="Y309" s="1"/>
-      <c r="Z309" s="1"/>
-      <c r="AA309" s="1"/>
-      <c r="AB309" s="1"/>
-      <c r="AC309" s="1"/>
-      <c r="AD309" s="1"/>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="308" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C308" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="309" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C309" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="310" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C310" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="311" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C311" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="312" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C313" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D313" s="1"/>
-      <c r="E313" s="1"/>
-      <c r="F313" s="1"/>
-      <c r="G313" s="1"/>
-      <c r="H313" s="1"/>
-      <c r="I313" s="1"/>
-      <c r="J313" s="1"/>
-      <c r="K313" s="1"/>
-      <c r="L313" s="1"/>
-      <c r="M313" s="1"/>
-      <c r="N313" s="1"/>
-      <c r="O313" s="1"/>
-      <c r="P313" s="1"/>
-      <c r="Q313" s="1"/>
-      <c r="R313" s="1"/>
-      <c r="S313" s="1"/>
-      <c r="T313" s="1"/>
-      <c r="U313" s="1"/>
-      <c r="V313" s="1"/>
-      <c r="W313" s="1"/>
-      <c r="X313" s="1"/>
-      <c r="Y313" s="1"/>
-      <c r="Z313" s="1"/>
-      <c r="AA313" s="1"/>
-      <c r="AB313" s="1"/>
-      <c r="AC313" s="1"/>
-      <c r="AD313" s="1"/>
-    </row>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="312" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C312" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+      <c r="G312" s="1"/>
+      <c r="H312" s="1"/>
+      <c r="I312" s="1"/>
+      <c r="J312" s="1"/>
+      <c r="K312" s="1"/>
+      <c r="L312" s="1"/>
+      <c r="M312" s="1"/>
+      <c r="N312" s="1"/>
+      <c r="O312" s="1"/>
+      <c r="P312" s="1"/>
+      <c r="Q312" s="1"/>
+      <c r="R312" s="1"/>
+      <c r="S312" s="1"/>
+      <c r="T312" s="1"/>
+      <c r="U312" s="1"/>
+      <c r="V312" s="1"/>
+      <c r="W312" s="1"/>
+      <c r="X312" s="1"/>
+      <c r="Y312" s="1"/>
+      <c r="Z312" s="1"/>
+      <c r="AA312" s="1"/>
+      <c r="AB312" s="1"/>
+      <c r="AC312" s="1"/>
+      <c r="AD312" s="1"/>
+    </row>
+    <row r="313" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="314" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C314" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="316" spans="3:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="C316" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D316" s="11"/>
-      <c r="E316" s="11"/>
-      <c r="F316" s="11"/>
-      <c r="G316" s="11"/>
-      <c r="H316" s="11"/>
-      <c r="I316" s="11"/>
-      <c r="J316" s="11"/>
-      <c r="K316" s="11"/>
-      <c r="L316" s="11"/>
-      <c r="M316" s="11"/>
-      <c r="N316" s="11"/>
-      <c r="O316" s="11"/>
-      <c r="P316" s="11"/>
-      <c r="Q316" s="11"/>
-      <c r="R316" s="11"/>
-      <c r="S316" s="11"/>
-      <c r="T316" s="11"/>
-      <c r="U316" s="11"/>
-      <c r="V316" s="11"/>
-      <c r="W316" s="11"/>
-      <c r="X316" s="11"/>
-      <c r="Y316" s="11"/>
-      <c r="Z316" s="11"/>
-      <c r="AA316" s="11"/>
-      <c r="AB316" s="11"/>
-      <c r="AC316" s="11"/>
-      <c r="AD316" s="11"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="316" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C316" s="12" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="317" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C317" s="5"/>
     </row>
-    <row r="318" spans="3:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C318" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D318" s="1"/>
-      <c r="E318" s="1"/>
-      <c r="F318" s="1"/>
-      <c r="G318" s="1"/>
-      <c r="H318" s="1"/>
-      <c r="I318" s="1"/>
-      <c r="J318" s="1"/>
-      <c r="K318" s="1"/>
-      <c r="L318" s="1"/>
-      <c r="M318" s="1"/>
-      <c r="N318" s="1"/>
-      <c r="O318" s="1"/>
-      <c r="P318" s="1"/>
-      <c r="Q318" s="1"/>
-      <c r="R318" s="1"/>
-      <c r="S318" s="1"/>
-      <c r="T318" s="1"/>
-      <c r="U318" s="1"/>
-      <c r="V318" s="1"/>
-      <c r="W318" s="1"/>
-      <c r="X318" s="1"/>
-      <c r="Y318" s="1"/>
-      <c r="Z318" s="1"/>
-      <c r="AA318" s="1"/>
-      <c r="AB318" s="1"/>
-      <c r="AC318" s="1"/>
+    <row r="318" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C318" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="319" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C319" t="s">
-        <v>68</v>
+        <v>260</v>
       </c>
     </row>
     <row r="320" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C320" t="s">
+      <c r="C320" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C321" s="5"/>
+    </row>
+    <row r="322" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C322" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C323" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C324" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C325" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C326" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="327" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C327" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="328" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C328" s="5"/>
+    </row>
+    <row r="329" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C329" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="330" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C330" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C331" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="332" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C332" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C333" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="334" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C334" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C335" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C336" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="337" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C337" s="5"/>
+    </row>
+    <row r="338" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C338" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="339" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C339" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="340" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C340" s="5"/>
+    </row>
+    <row r="341" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C341" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="342" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C342" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="343" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C343" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="344" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C344" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="345" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C345" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="346" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C346" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="347" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C347" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="348" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C348" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="350" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C350" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D350" s="11"/>
+      <c r="E350" s="11"/>
+      <c r="F350" s="11"/>
+      <c r="G350" s="11"/>
+      <c r="H350" s="11"/>
+      <c r="I350" s="11"/>
+      <c r="J350" s="11"/>
+      <c r="K350" s="11"/>
+      <c r="L350" s="11"/>
+      <c r="M350" s="11"/>
+      <c r="N350" s="11"/>
+      <c r="O350" s="11"/>
+      <c r="P350" s="11"/>
+      <c r="Q350" s="11"/>
+      <c r="R350" s="11"/>
+      <c r="S350" s="11"/>
+      <c r="T350" s="11"/>
+      <c r="U350" s="11"/>
+      <c r="V350" s="11"/>
+      <c r="W350" s="11"/>
+      <c r="X350" s="11"/>
+      <c r="Y350" s="11"/>
+      <c r="Z350" s="11"/>
+      <c r="AA350" s="11"/>
+      <c r="AB350" s="11"/>
+      <c r="AC350" s="11"/>
+      <c r="AD350" s="11"/>
+    </row>
+    <row r="351" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C351" s="5"/>
+    </row>
+    <row r="352" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C352" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="354" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C354" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
+      <c r="H354" s="1"/>
+      <c r="I354" s="1"/>
+      <c r="J354" s="1"/>
+      <c r="K354" s="1"/>
+      <c r="L354" s="1"/>
+      <c r="M354" s="1"/>
+      <c r="N354" s="1"/>
+      <c r="O354" s="1"/>
+      <c r="P354" s="1"/>
+      <c r="Q354" s="1"/>
+      <c r="R354" s="1"/>
+      <c r="S354" s="1"/>
+      <c r="T354" s="1"/>
+      <c r="U354" s="1"/>
+      <c r="V354" s="1"/>
+      <c r="W354" s="1"/>
+      <c r="X354" s="1"/>
+      <c r="Y354" s="1"/>
+      <c r="Z354" s="1"/>
+      <c r="AA354" s="1"/>
+      <c r="AB354" s="1"/>
+      <c r="AC354" s="1"/>
+      <c r="AD354" s="1"/>
+    </row>
+    <row r="355" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C356" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="357" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C357" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="358" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C358" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="359" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C359" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="360" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C360" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="361" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C361" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="362" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C362" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="363" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C363" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="364" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C364" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="365" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C365" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="366" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C366" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="367" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C367" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="368" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C368" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="370" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C370" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="372" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C373" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D373" s="1"/>
+      <c r="E373" s="1"/>
+      <c r="F373" s="1"/>
+      <c r="G373" s="1"/>
+      <c r="H373" s="1"/>
+      <c r="I373" s="1"/>
+      <c r="J373" s="1"/>
+      <c r="K373" s="1"/>
+      <c r="L373" s="1"/>
+      <c r="M373" s="1"/>
+      <c r="N373" s="1"/>
+      <c r="O373" s="1"/>
+      <c r="P373" s="1"/>
+      <c r="Q373" s="1"/>
+      <c r="R373" s="1"/>
+      <c r="S373" s="1"/>
+      <c r="T373" s="1"/>
+      <c r="U373" s="1"/>
+      <c r="V373" s="1"/>
+      <c r="W373" s="1"/>
+      <c r="X373" s="1"/>
+      <c r="Y373" s="1"/>
+      <c r="Z373" s="1"/>
+      <c r="AA373" s="1"/>
+      <c r="AB373" s="1"/>
+      <c r="AC373" s="1"/>
+      <c r="AD373" s="1"/>
+    </row>
+    <row r="374" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C375" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="376" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C376" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="377" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C377" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="378" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C378" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="380" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C380" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D380" s="1"/>
+      <c r="E380" s="1"/>
+      <c r="F380" s="1"/>
+      <c r="G380" s="1"/>
+      <c r="H380" s="1"/>
+      <c r="I380" s="1"/>
+      <c r="J380" s="1"/>
+      <c r="K380" s="1"/>
+      <c r="L380" s="1"/>
+      <c r="M380" s="1"/>
+      <c r="N380" s="1"/>
+      <c r="O380" s="1"/>
+      <c r="P380" s="1"/>
+      <c r="Q380" s="1"/>
+      <c r="R380" s="1"/>
+      <c r="S380" s="1"/>
+      <c r="T380" s="1"/>
+      <c r="U380" s="1"/>
+      <c r="V380" s="1"/>
+      <c r="W380" s="1"/>
+      <c r="X380" s="1"/>
+      <c r="Y380" s="1"/>
+      <c r="Z380" s="1"/>
+      <c r="AA380" s="1"/>
+      <c r="AB380" s="1"/>
+      <c r="AC380" s="1"/>
+      <c r="AD380" s="1"/>
+    </row>
+    <row r="381" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C382" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="383" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C383" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="384" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C384" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="385" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C385" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="386" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C386" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="388" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C388" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D388" s="1"/>
+      <c r="E388" s="1"/>
+      <c r="F388" s="1"/>
+      <c r="G388" s="1"/>
+      <c r="H388" s="1"/>
+      <c r="I388" s="1"/>
+      <c r="J388" s="1"/>
+      <c r="K388" s="1"/>
+      <c r="L388" s="1"/>
+      <c r="M388" s="1"/>
+      <c r="N388" s="1"/>
+      <c r="O388" s="1"/>
+      <c r="P388" s="1"/>
+      <c r="Q388" s="1"/>
+      <c r="R388" s="1"/>
+      <c r="S388" s="1"/>
+      <c r="T388" s="1"/>
+      <c r="U388" s="1"/>
+      <c r="V388" s="1"/>
+      <c r="W388" s="1"/>
+      <c r="X388" s="1"/>
+      <c r="Y388" s="1"/>
+      <c r="Z388" s="1"/>
+      <c r="AA388" s="1"/>
+      <c r="AB388" s="1"/>
+      <c r="AC388" s="1"/>
+      <c r="AD388" s="1"/>
+    </row>
+    <row r="389" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C390" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="391" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C391" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="392" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C392" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="393" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C393" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="394" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C394" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="395" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C395" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="396" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C396" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="397" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C397" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="399" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C399" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D399" s="11"/>
+      <c r="E399" s="11"/>
+      <c r="F399" s="11"/>
+      <c r="G399" s="11"/>
+      <c r="H399" s="11"/>
+      <c r="I399" s="11"/>
+      <c r="J399" s="11"/>
+      <c r="K399" s="11"/>
+      <c r="L399" s="11"/>
+      <c r="M399" s="11"/>
+      <c r="N399" s="11"/>
+      <c r="O399" s="11"/>
+      <c r="P399" s="11"/>
+      <c r="Q399" s="11"/>
+      <c r="R399" s="11"/>
+      <c r="S399" s="11"/>
+      <c r="T399" s="11"/>
+      <c r="U399" s="11"/>
+      <c r="V399" s="11"/>
+      <c r="W399" s="11"/>
+      <c r="X399" s="11"/>
+      <c r="Y399" s="11"/>
+      <c r="Z399" s="11"/>
+      <c r="AA399" s="11"/>
+      <c r="AB399" s="11"/>
+      <c r="AC399" s="11"/>
+      <c r="AD399" s="11"/>
+    </row>
+    <row r="400" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C400" s="5"/>
+    </row>
+    <row r="401" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C401" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="403" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C403" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D403" s="1"/>
+      <c r="E403" s="1"/>
+      <c r="F403" s="1"/>
+      <c r="G403" s="1"/>
+      <c r="H403" s="1"/>
+      <c r="I403" s="1"/>
+      <c r="J403" s="1"/>
+      <c r="K403" s="1"/>
+      <c r="L403" s="1"/>
+      <c r="M403" s="1"/>
+      <c r="N403" s="1"/>
+      <c r="O403" s="1"/>
+      <c r="P403" s="1"/>
+      <c r="Q403" s="1"/>
+      <c r="R403" s="1"/>
+      <c r="S403" s="1"/>
+      <c r="T403" s="1"/>
+      <c r="U403" s="1"/>
+      <c r="V403" s="1"/>
+      <c r="W403" s="1"/>
+      <c r="X403" s="1"/>
+      <c r="Y403" s="1"/>
+      <c r="Z403" s="1"/>
+      <c r="AA403" s="1"/>
+      <c r="AB403" s="1"/>
+      <c r="AC403" s="1"/>
+      <c r="AD403" s="1"/>
+    </row>
+    <row r="404" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C405" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="406" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C406" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="407" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C407" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="409" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C409" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D409" s="1"/>
+      <c r="E409" s="1"/>
+      <c r="F409" s="1"/>
+      <c r="G409" s="1"/>
+      <c r="H409" s="1"/>
+      <c r="I409" s="1"/>
+      <c r="J409" s="1"/>
+      <c r="K409" s="1"/>
+      <c r="L409" s="1"/>
+      <c r="M409" s="1"/>
+      <c r="N409" s="1"/>
+      <c r="O409" s="1"/>
+      <c r="P409" s="1"/>
+      <c r="Q409" s="1"/>
+      <c r="R409" s="1"/>
+      <c r="S409" s="1"/>
+      <c r="T409" s="1"/>
+      <c r="U409" s="1"/>
+      <c r="V409" s="1"/>
+      <c r="W409" s="1"/>
+      <c r="X409" s="1"/>
+      <c r="Y409" s="1"/>
+      <c r="Z409" s="1"/>
+      <c r="AA409" s="1"/>
+      <c r="AB409" s="1"/>
+      <c r="AC409" s="1"/>
+      <c r="AD409" s="1"/>
+    </row>
+    <row r="410" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C411" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="412" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C412" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="413" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C413" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="414" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C414" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="415" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C415" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="417" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C417" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D417" s="1"/>
+      <c r="E417" s="1"/>
+      <c r="F417" s="1"/>
+      <c r="G417" s="1"/>
+      <c r="H417" s="1"/>
+      <c r="I417" s="1"/>
+      <c r="J417" s="1"/>
+      <c r="K417" s="1"/>
+      <c r="L417" s="1"/>
+      <c r="M417" s="1"/>
+      <c r="N417" s="1"/>
+      <c r="O417" s="1"/>
+      <c r="P417" s="1"/>
+      <c r="Q417" s="1"/>
+      <c r="R417" s="1"/>
+      <c r="S417" s="1"/>
+      <c r="T417" s="1"/>
+      <c r="U417" s="1"/>
+      <c r="V417" s="1"/>
+      <c r="W417" s="1"/>
+      <c r="X417" s="1"/>
+      <c r="Y417" s="1"/>
+      <c r="Z417" s="1"/>
+      <c r="AA417" s="1"/>
+      <c r="AB417" s="1"/>
+      <c r="AC417" s="1"/>
+      <c r="AD417" s="1"/>
+    </row>
+    <row r="418" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C419" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="420" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C420" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="421" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C421" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="422" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C422" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="423" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C423" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="424" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C424" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="425" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C425" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="426" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C426" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="427" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C427" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="428" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C428" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="429" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C429" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="431" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C431" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D431" s="1"/>
+      <c r="E431" s="1"/>
+      <c r="F431" s="1"/>
+      <c r="G431" s="1"/>
+      <c r="H431" s="1"/>
+      <c r="I431" s="1"/>
+      <c r="J431" s="1"/>
+      <c r="K431" s="1"/>
+      <c r="L431" s="1"/>
+      <c r="M431" s="1"/>
+      <c r="N431" s="1"/>
+      <c r="O431" s="1"/>
+      <c r="P431" s="1"/>
+      <c r="Q431" s="1"/>
+      <c r="R431" s="1"/>
+      <c r="S431" s="1"/>
+      <c r="T431" s="1"/>
+      <c r="U431" s="1"/>
+      <c r="V431" s="1"/>
+      <c r="W431" s="1"/>
+      <c r="X431" s="1"/>
+      <c r="Y431" s="1"/>
+      <c r="Z431" s="1"/>
+      <c r="AA431" s="1"/>
+      <c r="AB431" s="1"/>
+      <c r="AC431" s="1"/>
+      <c r="AD431" s="1"/>
+    </row>
+    <row r="432" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C433" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="434" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C434" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="435" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C435" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="436" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C436" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="437" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C437" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="438" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C438" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="439" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C439" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="440" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C440" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="442" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C442" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="443" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C443" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="444" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C444" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="445" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C445" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="448" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C448" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D448" s="11"/>
+      <c r="E448" s="11"/>
+      <c r="F448" s="11"/>
+      <c r="G448" s="11"/>
+      <c r="H448" s="11"/>
+      <c r="I448" s="11"/>
+      <c r="J448" s="11"/>
+      <c r="K448" s="11"/>
+      <c r="L448" s="11"/>
+      <c r="M448" s="11"/>
+      <c r="N448" s="11"/>
+      <c r="O448" s="11"/>
+      <c r="P448" s="11"/>
+      <c r="Q448" s="11"/>
+      <c r="R448" s="11"/>
+      <c r="S448" s="11"/>
+      <c r="T448" s="11"/>
+      <c r="U448" s="11"/>
+      <c r="V448" s="11"/>
+      <c r="W448" s="11"/>
+      <c r="X448" s="11"/>
+      <c r="Y448" s="11"/>
+      <c r="Z448" s="11"/>
+      <c r="AA448" s="11"/>
+      <c r="AB448" s="11"/>
+      <c r="AC448" s="11"/>
+      <c r="AD448" s="11"/>
+    </row>
+    <row r="449" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C449" s="5"/>
+    </row>
+    <row r="450" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C450" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="451" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C451" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="453" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C453" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="321" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D321" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="322" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C322" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="325" spans="3:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="C325" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D325" s="11"/>
-      <c r="E325" s="11"/>
-      <c r="F325" s="11"/>
-      <c r="G325" s="11"/>
-      <c r="H325" s="11"/>
-      <c r="I325" s="11"/>
-      <c r="J325" s="11"/>
-      <c r="K325" s="11"/>
-      <c r="L325" s="11"/>
-      <c r="M325" s="11"/>
-      <c r="N325" s="11"/>
-      <c r="O325" s="11"/>
-      <c r="P325" s="11"/>
-      <c r="Q325" s="11"/>
-      <c r="R325" s="11"/>
-      <c r="S325" s="11"/>
-      <c r="T325" s="11"/>
-      <c r="U325" s="11"/>
-      <c r="V325" s="11"/>
-      <c r="W325" s="11"/>
-      <c r="X325" s="11"/>
-      <c r="Y325" s="11"/>
-      <c r="Z325" s="11"/>
-      <c r="AA325" s="11"/>
-      <c r="AB325" s="11"/>
-      <c r="AC325" s="11"/>
-      <c r="AD325" s="11"/>
+      <c r="D453" s="1"/>
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
+      <c r="G453" s="1"/>
+      <c r="H453" s="1"/>
+      <c r="I453" s="1"/>
+      <c r="J453" s="1"/>
+      <c r="K453" s="1"/>
+      <c r="L453" s="1"/>
+      <c r="M453" s="1"/>
+      <c r="N453" s="1"/>
+      <c r="O453" s="1"/>
+      <c r="P453" s="1"/>
+      <c r="Q453" s="1"/>
+      <c r="R453" s="1"/>
+      <c r="S453" s="1"/>
+      <c r="T453" s="1"/>
+      <c r="U453" s="1"/>
+      <c r="V453" s="1"/>
+      <c r="W453" s="1"/>
+      <c r="X453" s="1"/>
+      <c r="Y453" s="1"/>
+      <c r="Z453" s="1"/>
+      <c r="AA453" s="1"/>
+      <c r="AB453" s="1"/>
+      <c r="AC453" s="1"/>
+      <c r="AD453" s="1"/>
+    </row>
+    <row r="454" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C455" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="456" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C456" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="457" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C457" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="458" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C458" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="459" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C459" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="461" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C461" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D461" s="1"/>
+      <c r="E461" s="1"/>
+      <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+      <c r="H461" s="1"/>
+      <c r="I461" s="1"/>
+      <c r="J461" s="1"/>
+      <c r="K461" s="1"/>
+      <c r="L461" s="1"/>
+      <c r="M461" s="1"/>
+      <c r="N461" s="1"/>
+      <c r="O461" s="1"/>
+      <c r="P461" s="1"/>
+      <c r="Q461" s="1"/>
+      <c r="R461" s="1"/>
+      <c r="S461" s="1"/>
+      <c r="T461" s="1"/>
+      <c r="U461" s="1"/>
+      <c r="V461" s="1"/>
+      <c r="W461" s="1"/>
+      <c r="X461" s="1"/>
+      <c r="Y461" s="1"/>
+      <c r="Z461" s="1"/>
+      <c r="AA461" s="1"/>
+      <c r="AB461" s="1"/>
+      <c r="AC461" s="1"/>
+      <c r="AD461" s="1"/>
+    </row>
+    <row r="462" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C463" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="464" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C464" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="465" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C465" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="466" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C466" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="467" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C467" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="468" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C468" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="469" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C469" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="470" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C470" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="472" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C472" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D472" s="11"/>
+      <c r="E472" s="11"/>
+      <c r="F472" s="11"/>
+      <c r="G472" s="11"/>
+      <c r="H472" s="11"/>
+      <c r="I472" s="11"/>
+      <c r="J472" s="11"/>
+      <c r="K472" s="11"/>
+      <c r="L472" s="11"/>
+      <c r="M472" s="11"/>
+      <c r="N472" s="11"/>
+      <c r="O472" s="11"/>
+      <c r="P472" s="11"/>
+      <c r="Q472" s="11"/>
+      <c r="R472" s="11"/>
+      <c r="S472" s="11"/>
+      <c r="T472" s="11"/>
+      <c r="U472" s="11"/>
+      <c r="V472" s="11"/>
+      <c r="W472" s="11"/>
+      <c r="X472" s="11"/>
+      <c r="Y472" s="11"/>
+      <c r="Z472" s="11"/>
+      <c r="AA472" s="11"/>
+      <c r="AB472" s="11"/>
+      <c r="AC472" s="11"/>
+      <c r="AD472" s="11"/>
+    </row>
+    <row r="473" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C474" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="475" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C475" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="476" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C476" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="477" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C477" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="478" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C478" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="480" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C480" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D480" s="11"/>
+      <c r="E480" s="11"/>
+      <c r="F480" s="11"/>
+      <c r="G480" s="11"/>
+      <c r="H480" s="11"/>
+      <c r="I480" s="11"/>
+      <c r="J480" s="11"/>
+      <c r="K480" s="11"/>
+      <c r="L480" s="11"/>
+      <c r="M480" s="11"/>
+      <c r="N480" s="11"/>
+      <c r="O480" s="11"/>
+      <c r="P480" s="11"/>
+      <c r="Q480" s="11"/>
+      <c r="R480" s="11"/>
+      <c r="S480" s="11"/>
+      <c r="T480" s="11"/>
+      <c r="U480" s="11"/>
+      <c r="V480" s="11"/>
+      <c r="W480" s="11"/>
+      <c r="X480" s="11"/>
+      <c r="Y480" s="11"/>
+      <c r="Z480" s="11"/>
+      <c r="AA480" s="11"/>
+      <c r="AB480" s="11"/>
+      <c r="AC480" s="11"/>
+      <c r="AD480" s="11"/>
+    </row>
+    <row r="481" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C482" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="483" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C483" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="484" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C484" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="485" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C485" t="s">
+        <v>374</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7290,11 +10991,13 @@
     <hyperlink ref="Q67" r:id="rId5" xr:uid="{F5D8BB27-2854-40EA-8D4B-A6BE419F95E9}"/>
     <hyperlink ref="Q68" r:id="rId6" xr:uid="{F7980033-BD8D-4F4B-9F21-598EAB55CE98}"/>
     <hyperlink ref="Q69" r:id="rId7" xr:uid="{7D744DA7-89BB-41BE-841D-50250D877BE4}"/>
-    <hyperlink ref="Q72" r:id="rId8" xr:uid="{FE37A244-A3B8-4D73-B4AD-1F7665CCC517}"/>
-    <hyperlink ref="Q71" r:id="rId9" xr:uid="{6353F47B-6807-4239-BD21-14239CEC90E0}"/>
+    <hyperlink ref="Q73" r:id="rId8" xr:uid="{FE37A244-A3B8-4D73-B4AD-1F7665CCC517}"/>
+    <hyperlink ref="Q72" r:id="rId9" xr:uid="{6353F47B-6807-4239-BD21-14239CEC90E0}"/>
+    <hyperlink ref="C348" r:id="rId10" xr:uid="{55C9A81B-2D11-4D52-A3FB-F2EC5106F02E}"/>
+    <hyperlink ref="Q71" r:id="rId11" xr:uid="{1DA1AB89-C887-48A3-9F5B-8698F67CE183}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -7347,7 +11050,7 @@
     </row>
     <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/アフィリエイト_商品.xlsx
+++ b/アフィリエイト_商品.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\aff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuzo\Desktop\aff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B14DC2A-9B08-467A-8E41-8F58FC5E03A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43170" yWindow="75" windowWidth="14430" windowHeight="15600" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43170" yWindow="75" windowWidth="14430" windowHeight="15600" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="グリーンクレンズジュース" sheetId="2" r:id="rId2"/>
     <sheet name="ハリシュ" sheetId="4" r:id="rId3"/>
-    <sheet name="シートテンプレ" sheetId="3" r:id="rId4"/>
+    <sheet name="M3040プレミアムスカルプシャンプー" sheetId="5" r:id="rId4"/>
+    <sheet name="シートテンプレ" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="419">
   <si>
     <r>
       <t>もっと詳しく知りたい方は</t>
@@ -7096,11 +7096,45 @@
     <t>https://harishureviews.web.fc2.com/</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>M3040プレミアムスカルプシャンプー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M3040のシャンプーってどんな匂い？【最安値販売店情報あり！】</t>
+    <rPh sb="16" eb="17">
+      <t>ニオ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>サイヤスネ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ハンバイテン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M3040,シャンプー,匂い,販売店,最安値</t>
+    <rPh sb="15" eb="18">
+      <t>ハンバイテン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>サイヤスネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://m3040スカルプシャンプー.xyz/</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7621,14 +7655,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7636,7 +7670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7645,15 +7679,15 @@
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
@@ -7661,22 +7695,22 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
@@ -7708,20 +7742,20 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:30" ht="24" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:30" ht="22.9" x14ac:dyDescent="0.7">
       <c r="D20" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:30" ht="36" x14ac:dyDescent="0.7">
       <c r="C23" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C25" s="2" t="s">
         <v>36</v>
       </c>
@@ -7753,57 +7787,57 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="2:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="2:30" ht="24" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="28" spans="2:30" ht="22.9" x14ac:dyDescent="0.7">
       <c r="D28" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="E29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="2:30" ht="24" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="31" spans="2:30" ht="22.9" x14ac:dyDescent="0.7">
       <c r="D31" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="E32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="34" spans="3:30" ht="24" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="34" spans="3:30" ht="22.9" x14ac:dyDescent="0.7">
       <c r="D34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="E35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="37" spans="3:30" ht="24" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="37" spans="3:30" ht="22.9" x14ac:dyDescent="0.7">
       <c r="D37" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="E38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="40" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C40" s="2" t="s">
         <v>26</v>
       </c>
@@ -7835,23 +7869,23 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="45" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C45" s="2" t="s">
         <v>22</v>
       </c>
@@ -7883,33 +7917,33 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="52" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
@@ -7941,14 +7975,14 @@
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
     </row>
-    <row r="53" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D53" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="55" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="56" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
@@ -7980,72 +8014,72 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
     </row>
-    <row r="57" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D58" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D59" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E60" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E61" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D66" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D67" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D68" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D69" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D71" t="s">
         <v>0</v>
       </c>
@@ -8053,7 +8087,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -8061,25 +8095,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
@@ -8087,7 +8121,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
@@ -8096,272 +8130,272 @@
         <v>30 文字</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C14" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C15" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B19" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E37" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E40" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D41" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E42" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F47" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F48" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F49" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D51" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D52" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C53" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D54" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E55" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D56" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E57" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D58" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D61" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C63" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D64" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D65" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D66" t="s">
         <v>68</v>
       </c>
@@ -8369,7 +8403,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E67" t="s">
         <v>67</v>
       </c>
@@ -8377,7 +8411,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D68" t="s">
         <v>69</v>
       </c>
@@ -8385,12 +8419,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="Q69" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C71" t="s">
         <v>70</v>
       </c>
@@ -8398,7 +8432,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="72" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G72" t="s">
         <v>387</v>
       </c>
@@ -8409,7 +8443,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G73" t="s">
         <v>387</v>
       </c>
@@ -8420,12 +8454,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H74" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="75" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G75" t="s">
         <v>387</v>
       </c>
@@ -8433,12 +8467,12 @@
         <v>379</v>
       </c>
     </row>
-    <row r="77" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B77" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C78" s="10" t="s">
         <v>39</v>
       </c>
@@ -8470,10 +8504,10 @@
       <c r="AC78" s="11"/>
       <c r="AD78" s="11"/>
     </row>
-    <row r="79" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C80" s="9" t="s">
         <v>38</v>
       </c>
@@ -8505,25 +8539,25 @@
       <c r="AC80" s="1"/>
       <c r="AD80" s="1"/>
     </row>
-    <row r="81" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C82" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:30" ht="36" x14ac:dyDescent="0.7">
       <c r="C84" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C85" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="B87" t="s">
         <v>380</v>
       </c>
@@ -8558,30 +8592,30 @@
       <c r="AC87" s="11"/>
       <c r="AD87" s="11"/>
     </row>
-    <row r="88" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C89" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="90" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C90" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C91" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="92" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C92" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="94" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C94" s="10" t="s">
         <v>381</v>
       </c>
@@ -8613,15 +8647,15 @@
       <c r="AC94" s="11"/>
       <c r="AD94" s="11"/>
     </row>
-    <row r="95" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C96" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="98" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C98" s="9" t="s">
         <v>118</v>
       </c>
@@ -8653,38 +8687,38 @@
       <c r="AC98" s="1"/>
       <c r="AD98" s="1"/>
     </row>
-    <row r="99" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="100" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C100" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C102" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C103" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C105" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C106" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C107" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C109" s="9" t="s">
         <v>119</v>
       </c>
@@ -8716,101 +8750,101 @@
       <c r="AC109" s="1"/>
       <c r="AD109" s="1"/>
     </row>
-    <row r="110" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="111" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C111" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C113" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="115" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C115" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="116" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C116" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C117" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="119" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C119" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="120" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="121" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C121" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="122" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C122" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="123" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C123" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="124" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C124" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C125" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C126" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C127" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="128" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C128" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="130" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C130" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="132" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C132" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="133" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C133" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C134" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="137" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C137" s="9" t="s">
         <v>120</v>
       </c>
@@ -8842,122 +8876,122 @@
       <c r="AC137" s="1"/>
       <c r="AD137" s="1"/>
     </row>
-    <row r="138" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="139" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C139" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="140" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C141" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C142" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="144" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C144" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C145" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="146" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C146" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="148" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C148" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="149" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C149" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C151" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="152" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C154" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C155" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C157" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C158" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="159" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C159" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="161" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C161" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="162" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="163" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C163" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="165" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C165" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="167" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C167" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="168" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C168" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="170" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C170" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="171" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C171" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="173" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C173" s="9" t="s">
         <v>147</v>
       </c>
@@ -8989,43 +9023,43 @@
       <c r="AC173" s="1"/>
       <c r="AD173" s="1"/>
     </row>
-    <row r="174" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="175" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C175" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="176" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C176" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="177" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C177" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="178" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C178" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="179" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C179" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C180" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="181" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C181" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="184" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="184" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C184" s="10" t="s">
         <v>105</v>
       </c>
@@ -9057,20 +9091,20 @@
       <c r="AC184" s="11"/>
       <c r="AD184" s="11"/>
     </row>
-    <row r="185" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C185" s="5"/>
     </row>
-    <row r="186" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C186" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="187" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C187" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="189" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C189" s="9" t="s">
         <v>206</v>
       </c>
@@ -9102,80 +9136,80 @@
       <c r="AC189" s="1"/>
       <c r="AD189" s="1"/>
     </row>
-    <row r="190" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C190" s="5"/>
     </row>
-    <row r="191" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C191" s="6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="192" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C192" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="193" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C193" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="194" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C194" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="195" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C195" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="196" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C196" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="197" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C197" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="198" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C198" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="199" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C199" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="200" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C200" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="201" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C201" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="202" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C202" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="203" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C203" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="204" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C204" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="206" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C206" s="9" t="s">
         <v>207</v>
       </c>
@@ -9207,43 +9241,43 @@
       <c r="AC206" s="1"/>
       <c r="AD206" s="1"/>
     </row>
-    <row r="207" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="208" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C208" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="209" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C209" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="210" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C210" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="211" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C211" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="212" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C212" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="213" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C213" s="16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="214" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C214" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="216" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C216" s="9" t="s">
         <v>205</v>
       </c>
@@ -9275,38 +9309,38 @@
       <c r="AC216" s="1"/>
       <c r="AD216" s="1"/>
     </row>
-    <row r="217" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="218" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C218" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="219" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C219" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="220" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C220" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="221" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C221" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="222" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C222" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="224" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C224" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="227" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="227" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C227" s="10" t="s">
         <v>106</v>
       </c>
@@ -9338,15 +9372,15 @@
       <c r="AC227" s="11"/>
       <c r="AD227" s="11"/>
     </row>
-    <row r="228" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C228" s="5"/>
     </row>
-    <row r="229" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C229" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="231" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C231" s="9" t="s">
         <v>121</v>
       </c>
@@ -9378,141 +9412,141 @@
       <c r="AC231" s="1"/>
       <c r="AD231" s="1"/>
     </row>
-    <row r="232" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C232" s="5"/>
     </row>
-    <row r="233" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C233" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="235" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C235" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="236" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C237" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="239" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C239" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="240" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C240" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="241" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C241" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="242" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C242" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="243" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C243" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="244" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C244" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="245" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C245" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="246" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C246" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="247" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C247" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="248" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C248" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="249" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C249" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="250" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C250" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="251" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C251" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="252" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C252" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="253" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C253" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="254" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C254" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="255" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C255" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="256" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C256" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="257" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C257" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="259" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C259" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="260" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C260" s="5"/>
     </row>
-    <row r="261" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C261" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="262" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C262" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="264" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C264" s="9" t="s">
         <v>240</v>
       </c>
@@ -9544,91 +9578,91 @@
       <c r="AC264" s="1"/>
       <c r="AD264" s="1"/>
     </row>
-    <row r="265" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="266" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C266" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="267" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C267" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="268" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C268" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="269" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C269" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="270" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C270" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="271" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C271" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="272" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C272" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="273" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C273" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="274" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C274" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="275" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C275" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="276" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C276" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="277" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C277" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="278" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C278" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="279" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C279" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="280" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C280" s="5"/>
     </row>
-    <row r="281" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C281" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="282" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C282" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="284" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C284" s="9" t="s">
         <v>246</v>
       </c>
@@ -9660,28 +9694,28 @@
       <c r="AC284" s="1"/>
       <c r="AD284" s="1"/>
     </row>
-    <row r="285" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="286" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C286" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="287" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C287" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="288" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C288" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="289" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C289" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="291" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C291" s="9" t="s">
         <v>122</v>
       </c>
@@ -9713,42 +9747,42 @@
       <c r="AC291" s="1"/>
       <c r="AD291" s="1"/>
     </row>
-    <row r="292" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C292" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="293" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C293" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="294" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C294" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="295" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C295" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="296" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C296" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="297" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C297" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="298" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C298" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="300" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="300" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C300" s="10" t="s">
         <v>107</v>
       </c>
@@ -9780,20 +9814,20 @@
       <c r="AC300" s="11"/>
       <c r="AD300" s="11"/>
     </row>
-    <row r="301" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C301" s="5"/>
     </row>
-    <row r="302" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C302" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="303" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C303" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="305" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C305" s="9" t="s">
         <v>254</v>
       </c>
@@ -9825,28 +9859,28 @@
       <c r="AC305" s="1"/>
       <c r="AD305" s="1"/>
     </row>
-    <row r="306" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="307" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C307" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="308" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C308" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="309" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C309" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="310" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C310" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="312" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C312" s="9" t="s">
         <v>258</v>
       </c>
@@ -9878,168 +9912,168 @@
       <c r="AC312" s="1"/>
       <c r="AD312" s="1"/>
     </row>
-    <row r="313" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="314" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C314" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="316" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C316" s="12" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="317" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C317" s="5"/>
     </row>
-    <row r="318" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C318" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="319" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C319" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="320" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C320" s="12" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="321" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C321" s="5"/>
     </row>
-    <row r="322" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C322" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="323" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C323" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="324" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C324" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="325" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C325" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="326" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C326" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="327" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C327" s="12" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="328" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C328" s="5"/>
     </row>
-    <row r="329" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C329" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="330" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C330" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="331" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C331" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="332" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C332" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="333" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C333" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="334" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C334" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="335" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C335" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="336" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C336" s="12" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="337" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C337" s="5"/>
     </row>
-    <row r="338" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C338" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="339" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C339" s="12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="340" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C340" s="5"/>
     </row>
-    <row r="341" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C341" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="342" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C342" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="343" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C343" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="344" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C344" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="345" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C345" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="346" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C346" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="347" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C347" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="348" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C348" s="13" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="350" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="350" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C350" s="10" t="s">
         <v>108</v>
       </c>
@@ -10071,15 +10105,15 @@
       <c r="AC350" s="11"/>
       <c r="AD350" s="11"/>
     </row>
-    <row r="351" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C351" s="5"/>
     </row>
-    <row r="352" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C352" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="354" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C354" s="9" t="s">
         <v>123</v>
       </c>
@@ -10111,79 +10145,79 @@
       <c r="AC354" s="1"/>
       <c r="AD354" s="1"/>
     </row>
-    <row r="355" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="356" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C356" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="357" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C357" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="358" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C358" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="359" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C359" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="360" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C360" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="361" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C361" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="362" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C362" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="363" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C363" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="364" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C364" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="365" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C365" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="366" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C366" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="367" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C367" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="368" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C368" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="370" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C370" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="372" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="373" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C373" s="9" t="s">
         <v>124</v>
       </c>
@@ -10215,28 +10249,28 @@
       <c r="AC373" s="1"/>
       <c r="AD373" s="1"/>
     </row>
-    <row r="374" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="375" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C375" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="376" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C376" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="377" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C377" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="378" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C378" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="380" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C380" s="9" t="s">
         <v>125</v>
       </c>
@@ -10268,33 +10302,33 @@
       <c r="AC380" s="1"/>
       <c r="AD380" s="1"/>
     </row>
-    <row r="381" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="382" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C382" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="383" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C383" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="384" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C384" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="385" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C385" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="386" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C386" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="388" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C388" s="9" t="s">
         <v>126</v>
       </c>
@@ -10326,48 +10360,48 @@
       <c r="AC388" s="1"/>
       <c r="AD388" s="1"/>
     </row>
-    <row r="389" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="390" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C390" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="391" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C391" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="392" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C392" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="393" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C393" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="394" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="394" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C394" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="395" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C395" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="396" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C396" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="397" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C397" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="399" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="399" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C399" s="10" t="s">
         <v>109</v>
       </c>
@@ -10399,15 +10433,15 @@
       <c r="AC399" s="11"/>
       <c r="AD399" s="11"/>
     </row>
-    <row r="400" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="400" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C401" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="403" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C403" s="9" t="s">
         <v>321</v>
       </c>
@@ -10439,23 +10473,23 @@
       <c r="AC403" s="1"/>
       <c r="AD403" s="1"/>
     </row>
-    <row r="404" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="404" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="405" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C405" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="406" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C406" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="407" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C407" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="409" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C409" s="9" t="s">
         <v>318</v>
       </c>
@@ -10487,33 +10521,33 @@
       <c r="AC409" s="1"/>
       <c r="AD409" s="1"/>
     </row>
-    <row r="410" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="410" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="411" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C411" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="412" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="412" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C412" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="413" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C413" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="414" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C414" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="415" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="415" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C415" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="417" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C417" s="9" t="s">
         <v>319</v>
       </c>
@@ -10545,63 +10579,63 @@
       <c r="AC417" s="1"/>
       <c r="AD417" s="1"/>
     </row>
-    <row r="418" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="418" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="419" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C419" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="420" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="420" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C420" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="421" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C421" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="422" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C422" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="423" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="423" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C423" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="424" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C424" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="425" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C425" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="426" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C426" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="427" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="427" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C427" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="428" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="428" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C428" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="429" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="429" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C429" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="431" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C431" s="9" t="s">
         <v>320</v>
       </c>
@@ -10633,68 +10667,68 @@
       <c r="AC431" s="1"/>
       <c r="AD431" s="1"/>
     </row>
-    <row r="432" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="433" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C433" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="434" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C434" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="435" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C435" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="436" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C436" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="437" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C437" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="438" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="438" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C438" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="439" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C439" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="440" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="440" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C440" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="442" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="442" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C442" s="6" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="443" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C443" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="444" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="444" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C444" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="445" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C445" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="448" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="448" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C448" s="10" t="s">
         <v>351</v>
       </c>
@@ -10726,20 +10760,20 @@
       <c r="AC448" s="11"/>
       <c r="AD448" s="11"/>
     </row>
-    <row r="449" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C449" s="5"/>
     </row>
-    <row r="450" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C450" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="451" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="451" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C451" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="453" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C453" s="9" t="s">
         <v>69</v>
       </c>
@@ -10771,33 +10805,33 @@
       <c r="AC453" s="1"/>
       <c r="AD453" s="1"/>
     </row>
-    <row r="454" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="455" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C455" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="456" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C456" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="457" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C457" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="458" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C458" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="459" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C459" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="461" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C461" s="9" t="s">
         <v>357</v>
       </c>
@@ -10829,48 +10863,48 @@
       <c r="AC461" s="1"/>
       <c r="AD461" s="1"/>
     </row>
-    <row r="462" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="462" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="463" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C463" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="464" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="464" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C464" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="465" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="465" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C465" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="466" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="466" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C466" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="467" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="467" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C467" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="468" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="468" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C468" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="469" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="469" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C469" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="470" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="470" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C470" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="472" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="472" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C472" s="10" t="s">
         <v>110</v>
       </c>
@@ -10902,33 +10936,33 @@
       <c r="AC472" s="11"/>
       <c r="AD472" s="11"/>
     </row>
-    <row r="473" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="473" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="474" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C474" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="475" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="475" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C475" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="476" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="476" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C476" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="477" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="477" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C477" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="478" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="478" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C478" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="480" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="480" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C480" s="10" t="s">
         <v>370</v>
       </c>
@@ -10960,23 +10994,23 @@
       <c r="AC480" s="11"/>
       <c r="AD480" s="11"/>
     </row>
-    <row r="481" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="481" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="482" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C482" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="483" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="483" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C483" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="484" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="484" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C484" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="485" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="485" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C485" t="s">
         <v>374</v>
       </c>
@@ -10984,17 +11018,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" xr:uid="{A9E59C44-035A-4C7C-B148-EF778B8ECE4A}"/>
-    <hyperlink ref="C15" r:id="rId2" xr:uid="{074DBE9F-8E36-439B-8B89-40EB074769ED}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{EDDCCBFA-F14E-4B93-83A0-8A36EB6C7515}"/>
-    <hyperlink ref="Q66" r:id="rId4" location=":~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82" display="https://www.haba.co.jp/info/CHSfIngredientDetail.jsp?INGREDIENT_NO=923&amp;igidx=1#:~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82" xr:uid="{AC33AEE8-680F-445D-8923-86E546487C7F}"/>
-    <hyperlink ref="Q67" r:id="rId5" xr:uid="{F5D8BB27-2854-40EA-8D4B-A6BE419F95E9}"/>
-    <hyperlink ref="Q68" r:id="rId6" xr:uid="{F7980033-BD8D-4F4B-9F21-598EAB55CE98}"/>
-    <hyperlink ref="Q69" r:id="rId7" xr:uid="{7D744DA7-89BB-41BE-841D-50250D877BE4}"/>
-    <hyperlink ref="Q73" r:id="rId8" xr:uid="{FE37A244-A3B8-4D73-B4AD-1F7665CCC517}"/>
-    <hyperlink ref="Q72" r:id="rId9" xr:uid="{6353F47B-6807-4239-BD21-14239CEC90E0}"/>
-    <hyperlink ref="C348" r:id="rId10" xr:uid="{55C9A81B-2D11-4D52-A3FB-F2EC5106F02E}"/>
-    <hyperlink ref="Q71" r:id="rId11" xr:uid="{1DA1AB89-C887-48A3-9F5B-8698F67CE183}"/>
+    <hyperlink ref="C14" r:id="rId1"/>
+    <hyperlink ref="C15" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="Q66" r:id="rId4" location=":~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82" display="https://www.haba.co.jp/info/CHSfIngredientDetail.jsp?INGREDIENT_NO=923&amp;igidx=1#:~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82"/>
+    <hyperlink ref="Q67" r:id="rId5"/>
+    <hyperlink ref="Q68" r:id="rId6"/>
+    <hyperlink ref="Q69" r:id="rId7"/>
+    <hyperlink ref="Q73" r:id="rId8"/>
+    <hyperlink ref="Q72" r:id="rId9"/>
+    <hyperlink ref="C348" r:id="rId10"/>
+    <hyperlink ref="Q71" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
@@ -11002,63 +11036,73 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="6" t="str">
         <f>LEN($C$7)&amp;" 文字"</f>
-        <v>4 文字</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>32 文字</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C15" s="13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B19" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B33" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C34" s="10" t="s">
         <v>39</v>
       </c>
@@ -11090,10 +11134,10 @@
       <c r="AC34" s="11"/>
       <c r="AD34" s="11"/>
     </row>
-    <row r="35" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="2:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C36" s="9" t="s">
         <v>38</v>
       </c>
@@ -11125,15 +11169,162 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C38" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:30" ht="36" x14ac:dyDescent="0.7">
+      <c r="C40" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
+      <c r="A1" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f>LEN($C$7)&amp;" 文字"</f>
+        <v>4 文字</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B14" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B19" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B33" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
+      <c r="C34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+    </row>
+    <row r="35" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="2:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C38" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" ht="36" x14ac:dyDescent="0.7">
       <c r="C40" s="4" t="s">
         <v>47</v>
       </c>

--- a/アフィリエイト_商品.xlsx
+++ b/アフィリエイト_商品.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuzo\Desktop\aff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\aff\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5386FD72-0E2B-4508-BA7C-DAE72C091685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43170" yWindow="75" windowWidth="14430" windowHeight="15600" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="M3040プレミアムスカルプシャンプー" sheetId="5" r:id="rId4"/>
     <sheet name="シートテンプレ" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="430">
   <si>
     <r>
       <t>もっと詳しく知りたい方は</t>
@@ -7097,44 +7098,158 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>M3040プレミアムスカルプシャンプー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>M3040のシャンプーってどんな匂い？【最安値販売店情報あり！】</t>
-    <rPh sb="16" eb="17">
-      <t>ニオ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>サイヤスネ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ハンバイテン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>M3040,シャンプー,匂い,販売店,最安値</t>
-    <rPh sb="15" eb="18">
-      <t>ハンバイテン</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>サイヤスネ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://m3040スカルプシャンプー.xyz/</t>
+    <t>デコつる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デコつる 口コミ</t>
+  </si>
+  <si>
+    <t>デコつる アトピー 口コミ</t>
+  </si>
+  <si>
+    <t>デコつる サプリ 口コミ</t>
+  </si>
+  <si>
+    <t>デコつる 知恵袋</t>
+  </si>
+  <si>
+    <t>デコつる 評判</t>
+  </si>
+  <si>
+    <t>デコつる,口コミ,知恵袋,評判,アトピー,サプリ</t>
+    <rPh sb="5" eb="6">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デコつるの評判や知恵袋は嘘？アトピー用サプリとしての口コミの真実</t>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売実績100万個を超える人気サプリ「デコつる」。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし調べてみると「デコつる 嘘」などのワードが出てきますので、購入する時には気になりますよね。</t>
+    <rPh sb="3" eb="4">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウソ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デコつるの評判や知恵袋の内容などに嘘があるのか、アトピーに効くかどうかの口コミについて見てみましょう。</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウバン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チエ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウソ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評判と口コミ、知恵袋</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウバン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ブクロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評判</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口コミ</t>
+    <rPh sb="0" eb="1">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>知恵袋</t>
+    <rPh sb="0" eb="2">
+      <t>チエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブクロ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7655,14 +7770,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7670,7 +7785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7679,15 +7794,15 @@
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:4" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
@@ -7695,22 +7810,22 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
@@ -7742,20 +7857,20 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:30" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:30" ht="24" x14ac:dyDescent="0.4">
       <c r="D20" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:30" ht="36" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
       <c r="C23" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C25" s="2" t="s">
         <v>36</v>
       </c>
@@ -7787,57 +7902,57 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="28" spans="2:30" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="2:30" ht="24" x14ac:dyDescent="0.4">
       <c r="D28" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="31" spans="2:30" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="2:30" ht="24" x14ac:dyDescent="0.4">
       <c r="D31" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="34" spans="3:30" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="33" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="3:30" ht="24" x14ac:dyDescent="0.4">
       <c r="D34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="35" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="37" spans="3:30" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="36" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="3:30" ht="24" x14ac:dyDescent="0.4">
       <c r="D37" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="38" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="40" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="39" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C40" s="2" t="s">
         <v>26</v>
       </c>
@@ -7869,23 +7984,23 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="41" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="42" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="43" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="45" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="44" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C45" s="2" t="s">
         <v>22</v>
       </c>
@@ -7917,33 +8032,33 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="46" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="47" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="48" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="49" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="50" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="52" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="51" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
@@ -7975,14 +8090,14 @@
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
     </row>
-    <row r="53" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="53" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D53" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="55" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="56" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="54" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
@@ -8014,72 +8129,72 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
     </row>
-    <row r="57" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="57" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="58" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D58" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D59" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E60" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E61" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D66" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D67" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D68" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D69" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D71" t="s">
         <v>0</v>
       </c>
@@ -8087,7 +8202,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -8095,25 +8210,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD485"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
@@ -8121,7 +8236,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
@@ -8130,272 +8245,272 @@
         <v>30 文字</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E37" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E40" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D41" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E42" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F47" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F48" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F49" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D51" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D52" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E55" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E57" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D58" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D61" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C63" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D64" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D65" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D66" t="s">
         <v>68</v>
       </c>
@@ -8403,7 +8518,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E67" t="s">
         <v>67</v>
       </c>
@@ -8411,7 +8526,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D68" t="s">
         <v>69</v>
       </c>
@@ -8419,12 +8534,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q69" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C71" t="s">
         <v>70</v>
       </c>
@@ -8432,7 +8547,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="72" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G72" t="s">
         <v>387</v>
       </c>
@@ -8443,7 +8558,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G73" t="s">
         <v>387</v>
       </c>
@@ -8454,12 +8569,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H74" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="75" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G75" t="s">
         <v>387</v>
       </c>
@@ -8467,12 +8582,12 @@
         <v>379</v>
       </c>
     </row>
-    <row r="77" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="78" spans="2:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C78" s="10" t="s">
         <v>39</v>
       </c>
@@ -8504,10 +8619,10 @@
       <c r="AC78" s="11"/>
       <c r="AD78" s="11"/>
     </row>
-    <row r="79" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="80" spans="2:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C80" s="9" t="s">
         <v>38</v>
       </c>
@@ -8539,25 +8654,25 @@
       <c r="AC80" s="1"/>
       <c r="AD80" s="1"/>
     </row>
-    <row r="81" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C82" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="2:30" ht="36" x14ac:dyDescent="0.7">
+    <row r="84" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
       <c r="C84" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C85" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="87" spans="2:30" ht="30" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
         <v>380</v>
       </c>
@@ -8592,30 +8707,30 @@
       <c r="AC87" s="11"/>
       <c r="AD87" s="11"/>
     </row>
-    <row r="88" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C89" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="90" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C90" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C91" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="92" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C92" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="94" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="94" spans="2:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C94" s="10" t="s">
         <v>381</v>
       </c>
@@ -8647,15 +8762,15 @@
       <c r="AC94" s="11"/>
       <c r="AD94" s="11"/>
     </row>
-    <row r="95" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C96" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="98" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="98" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C98" s="9" t="s">
         <v>118</v>
       </c>
@@ -8687,38 +8802,38 @@
       <c r="AC98" s="1"/>
       <c r="AD98" s="1"/>
     </row>
-    <row r="99" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="100" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C100" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C102" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C103" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C105" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C106" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C107" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="109" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C109" s="9" t="s">
         <v>119</v>
       </c>
@@ -8750,101 +8865,101 @@
       <c r="AC109" s="1"/>
       <c r="AD109" s="1"/>
     </row>
-    <row r="110" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="111" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C111" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C113" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="115" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C115" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="116" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C116" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C117" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="119" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C119" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="120" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="121" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C121" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="122" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C122" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="123" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C123" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="124" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C124" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C125" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C126" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C127" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="128" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C128" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="130" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="130" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C130" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="132" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C132" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="133" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C133" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C134" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="137" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="137" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C137" s="9" t="s">
         <v>120</v>
       </c>
@@ -8876,122 +8991,122 @@
       <c r="AC137" s="1"/>
       <c r="AD137" s="1"/>
     </row>
-    <row r="138" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="139" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="138" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C139" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="140" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="141" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C141" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="142" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="144" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="144" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C144" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="145" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C145" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="146" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="146" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C146" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="148" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="148" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C148" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="149" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="149" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C149" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="151" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C151" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="152" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="152" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="154" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C154" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="155" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C155" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="157" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C157" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="158" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C158" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="159" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="159" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C159" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="161" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="161" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C161" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="162" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="163" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C163" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="165" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C165" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="167" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="167" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C167" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="168" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="168" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C168" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="170" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="170" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C170" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="171" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="171" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C171" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="173" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="173" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C173" s="9" t="s">
         <v>147</v>
       </c>
@@ -9023,43 +9138,43 @@
       <c r="AC173" s="1"/>
       <c r="AD173" s="1"/>
     </row>
-    <row r="174" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="175" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="174" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C175" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="176" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="176" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C176" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="177" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="177" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C177" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="178" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="178" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C178" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="179" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="179" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C179" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="180" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C180" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="181" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="181" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C181" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="184" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="184" spans="3:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C184" s="10" t="s">
         <v>105</v>
       </c>
@@ -9091,20 +9206,20 @@
       <c r="AC184" s="11"/>
       <c r="AD184" s="11"/>
     </row>
-    <row r="185" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="185" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C185" s="5"/>
     </row>
-    <row r="186" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="186" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C186" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="187" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="187" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C187" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="189" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="189" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C189" s="9" t="s">
         <v>206</v>
       </c>
@@ -9136,80 +9251,80 @@
       <c r="AC189" s="1"/>
       <c r="AD189" s="1"/>
     </row>
-    <row r="190" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="190" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C190" s="5"/>
     </row>
-    <row r="191" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="191" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C191" s="6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="192" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="192" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C192" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="193" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="193" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C193" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="194" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="194" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C194" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="195" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="195" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C195" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="196" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="196" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C196" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="197" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="197" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C197" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="198" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="198" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C198" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="199" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="199" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C199" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="200" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="200" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C200" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="201" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="201" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C201" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="202" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="202" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C202" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="203" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="203" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C203" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="204" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="204" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C204" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="206" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="206" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C206" s="9" t="s">
         <v>207</v>
       </c>
@@ -9241,43 +9356,43 @@
       <c r="AC206" s="1"/>
       <c r="AD206" s="1"/>
     </row>
-    <row r="207" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="208" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="207" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C208" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="209" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="209" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C209" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="210" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="210" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C210" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="211" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="211" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C211" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="212" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="212" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C212" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="213" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="213" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C213" s="16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="214" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="214" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C214" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="216" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="216" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C216" s="9" t="s">
         <v>205</v>
       </c>
@@ -9309,38 +9424,38 @@
       <c r="AC216" s="1"/>
       <c r="AD216" s="1"/>
     </row>
-    <row r="217" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="218" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="217" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C218" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="219" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="219" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C219" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="220" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="220" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C220" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="221" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="221" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C221" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="222" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="222" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C222" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="224" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="224" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C224" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="227" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="227" spans="3:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C227" s="10" t="s">
         <v>106</v>
       </c>
@@ -9372,15 +9487,15 @@
       <c r="AC227" s="11"/>
       <c r="AD227" s="11"/>
     </row>
-    <row r="228" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="228" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C228" s="5"/>
     </row>
-    <row r="229" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="229" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C229" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="231" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="231" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C231" s="9" t="s">
         <v>121</v>
       </c>
@@ -9412,141 +9527,141 @@
       <c r="AC231" s="1"/>
       <c r="AD231" s="1"/>
     </row>
-    <row r="232" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="232" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C232" s="5"/>
     </row>
-    <row r="233" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="233" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C233" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="235" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="235" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C235" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="236" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="236" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="237" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C237" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="239" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="239" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C239" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="240" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="240" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C240" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="241" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="241" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C241" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="242" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="242" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C242" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="243" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="243" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C243" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="244" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="244" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C244" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="245" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="245" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C245" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="246" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="246" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C246" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="247" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="247" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C247" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="248" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="248" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C248" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="249" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="249" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C249" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="250" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="250" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C250" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="251" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="251" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C251" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="252" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="252" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C252" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="253" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="253" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C253" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="254" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="254" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C254" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="255" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="255" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C255" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="256" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="256" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C256" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="257" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="257" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C257" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="259" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="259" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C259" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="260" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="260" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C260" s="5"/>
     </row>
-    <row r="261" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="261" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C261" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="262" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="262" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C262" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="264" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="264" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C264" s="9" t="s">
         <v>240</v>
       </c>
@@ -9578,91 +9693,91 @@
       <c r="AC264" s="1"/>
       <c r="AD264" s="1"/>
     </row>
-    <row r="265" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="266" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="265" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C266" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="267" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="267" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C267" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="268" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="268" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C268" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="269" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="269" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C269" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="270" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="270" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C270" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="271" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="271" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C271" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="272" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="272" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C272" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="273" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="273" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C273" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="274" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="274" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C274" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="275" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="275" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C275" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="276" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="276" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C276" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="277" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="277" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C277" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="278" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="278" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C278" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="279" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="279" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C279" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="280" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="280" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C280" s="5"/>
     </row>
-    <row r="281" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="281" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C281" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="282" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="282" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C282" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="284" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="284" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C284" s="9" t="s">
         <v>246</v>
       </c>
@@ -9694,28 +9809,28 @@
       <c r="AC284" s="1"/>
       <c r="AD284" s="1"/>
     </row>
-    <row r="285" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="286" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="285" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C286" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="287" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="287" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C287" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="288" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="288" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C288" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="289" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="289" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C289" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="291" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="291" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C291" s="9" t="s">
         <v>122</v>
       </c>
@@ -9747,42 +9862,42 @@
       <c r="AC291" s="1"/>
       <c r="AD291" s="1"/>
     </row>
-    <row r="292" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="292" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C292" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="293" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="293" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C293" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="294" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="294" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C294" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="295" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="295" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C295" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="296" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="296" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C296" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="297" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="297" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C297" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="298" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="298" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C298" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="300" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="300" spans="3:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C300" s="10" t="s">
         <v>107</v>
       </c>
@@ -9814,20 +9929,20 @@
       <c r="AC300" s="11"/>
       <c r="AD300" s="11"/>
     </row>
-    <row r="301" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="301" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C301" s="5"/>
     </row>
-    <row r="302" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="302" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C302" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="303" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="303" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C303" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="305" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="305" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C305" s="9" t="s">
         <v>254</v>
       </c>
@@ -9859,28 +9974,28 @@
       <c r="AC305" s="1"/>
       <c r="AD305" s="1"/>
     </row>
-    <row r="306" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="307" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="306" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C307" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="308" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="308" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C308" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="309" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="309" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C309" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="310" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="310" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C310" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="312" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="312" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C312" s="9" t="s">
         <v>258</v>
       </c>
@@ -9912,168 +10027,168 @@
       <c r="AC312" s="1"/>
       <c r="AD312" s="1"/>
     </row>
-    <row r="313" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="314" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="313" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C314" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="316" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="316" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C316" s="12" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="317" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="317" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C317" s="5"/>
     </row>
-    <row r="318" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="318" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C318" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="319" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="319" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C319" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="320" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="320" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C320" s="12" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="321" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="321" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C321" s="5"/>
     </row>
-    <row r="322" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="322" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C322" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="323" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="323" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C323" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="324" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="324" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C324" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="325" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="325" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C325" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="326" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="326" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C326" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="327" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="327" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C327" s="12" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="328" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="328" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C328" s="5"/>
     </row>
-    <row r="329" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="329" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C329" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="330" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="330" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C330" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="331" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="331" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C331" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="332" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="332" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C332" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="333" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="333" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C333" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="334" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="334" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C334" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="335" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="335" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C335" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="336" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="336" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C336" s="12" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="337" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="337" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C337" s="5"/>
     </row>
-    <row r="338" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="338" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C338" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="339" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="339" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C339" s="12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="340" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="340" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C340" s="5"/>
     </row>
-    <row r="341" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="341" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C341" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="342" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="342" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C342" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="343" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="343" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C343" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="344" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="344" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C344" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="345" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="345" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C345" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="346" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="346" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C346" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="347" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="347" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C347" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="348" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="348" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C348" s="13" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="350" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="350" spans="3:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C350" s="10" t="s">
         <v>108</v>
       </c>
@@ -10105,15 +10220,15 @@
       <c r="AC350" s="11"/>
       <c r="AD350" s="11"/>
     </row>
-    <row r="351" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="351" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C351" s="5"/>
     </row>
-    <row r="352" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="352" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C352" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="354" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="354" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C354" s="9" t="s">
         <v>123</v>
       </c>
@@ -10145,79 +10260,79 @@
       <c r="AC354" s="1"/>
       <c r="AD354" s="1"/>
     </row>
-    <row r="355" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="356" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="355" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C356" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="357" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="357" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C357" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="358" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="358" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C358" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="359" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="359" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C359" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="360" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="360" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C360" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="361" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="361" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C361" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="362" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="362" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C362" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="363" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="363" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C363" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="364" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="364" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C364" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="365" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="365" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C365" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="366" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="366" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C366" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="367" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="367" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C367" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="368" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="368" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C368" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="370" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="370" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C370" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="372" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="373" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="372" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C373" s="9" t="s">
         <v>124</v>
       </c>
@@ -10249,28 +10364,28 @@
       <c r="AC373" s="1"/>
       <c r="AD373" s="1"/>
     </row>
-    <row r="374" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="375" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="374" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C375" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="376" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="376" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C376" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="377" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="377" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C377" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="378" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="378" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C378" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="380" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="380" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C380" s="9" t="s">
         <v>125</v>
       </c>
@@ -10302,33 +10417,33 @@
       <c r="AC380" s="1"/>
       <c r="AD380" s="1"/>
     </row>
-    <row r="381" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="382" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="381" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C382" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="383" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="383" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C383" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="384" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="384" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C384" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="385" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="385" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C385" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="386" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="386" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C386" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="388" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="388" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C388" s="9" t="s">
         <v>126</v>
       </c>
@@ -10360,48 +10475,48 @@
       <c r="AC388" s="1"/>
       <c r="AD388" s="1"/>
     </row>
-    <row r="389" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="390" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="389" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C390" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="391" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="391" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C391" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="392" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="392" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C392" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="393" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="393" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C393" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="394" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="394" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C394" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="395" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="395" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C395" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="396" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="396" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C396" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="397" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="397" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C397" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="399" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="399" spans="3:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C399" s="10" t="s">
         <v>109</v>
       </c>
@@ -10433,15 +10548,15 @@
       <c r="AC399" s="11"/>
       <c r="AD399" s="11"/>
     </row>
-    <row r="400" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="400" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="401" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C401" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="403" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="403" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C403" s="9" t="s">
         <v>321</v>
       </c>
@@ -10473,23 +10588,23 @@
       <c r="AC403" s="1"/>
       <c r="AD403" s="1"/>
     </row>
-    <row r="404" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="405" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="404" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C405" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="406" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="406" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C406" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="407" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="407" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C407" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="409" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="409" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C409" s="9" t="s">
         <v>318</v>
       </c>
@@ -10521,33 +10636,33 @@
       <c r="AC409" s="1"/>
       <c r="AD409" s="1"/>
     </row>
-    <row r="410" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="411" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="410" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C411" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="412" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="412" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C412" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="413" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="413" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C413" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="414" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="414" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C414" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="415" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="415" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C415" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="417" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="417" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C417" s="9" t="s">
         <v>319</v>
       </c>
@@ -10579,63 +10694,63 @@
       <c r="AC417" s="1"/>
       <c r="AD417" s="1"/>
     </row>
-    <row r="418" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="419" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="418" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C419" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="420" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="420" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C420" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="421" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="421" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C421" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="422" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="422" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C422" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="423" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="423" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C423" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="424" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="424" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C424" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="425" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="425" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C425" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="426" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="426" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C426" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="427" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="427" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C427" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="428" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="428" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C428" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="429" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="429" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C429" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="431" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="431" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C431" s="9" t="s">
         <v>320</v>
       </c>
@@ -10667,68 +10782,68 @@
       <c r="AC431" s="1"/>
       <c r="AD431" s="1"/>
     </row>
-    <row r="432" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="433" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="432" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C433" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="434" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="434" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C434" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="435" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="435" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C435" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="436" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="436" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C436" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="437" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="437" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C437" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="438" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="438" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C438" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="439" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="439" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C439" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="440" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="440" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C440" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="442" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="442" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C442" s="6" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="443" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="443" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C443" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="444" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="444" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C444" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="445" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="445" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C445" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="448" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="448" spans="3:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C448" s="10" t="s">
         <v>351</v>
       </c>
@@ -10760,20 +10875,20 @@
       <c r="AC448" s="11"/>
       <c r="AD448" s="11"/>
     </row>
-    <row r="449" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="449" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C449" s="5"/>
     </row>
-    <row r="450" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="450" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C450" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="451" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="451" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C451" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="453" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="453" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C453" s="9" t="s">
         <v>69</v>
       </c>
@@ -10805,33 +10920,33 @@
       <c r="AC453" s="1"/>
       <c r="AD453" s="1"/>
     </row>
-    <row r="454" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="455" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="454" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C455" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="456" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="456" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C456" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="457" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="457" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C457" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="458" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="458" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C458" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="459" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="459" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C459" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="461" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="461" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C461" s="9" t="s">
         <v>357</v>
       </c>
@@ -10863,48 +10978,48 @@
       <c r="AC461" s="1"/>
       <c r="AD461" s="1"/>
     </row>
-    <row r="462" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="463" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="462" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C463" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="464" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="464" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C464" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="465" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="465" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C465" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="466" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="466" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C466" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="467" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="467" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C467" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="468" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="468" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C468" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="469" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="469" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C469" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="470" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="470" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C470" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="472" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="472" spans="3:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C472" s="10" t="s">
         <v>110</v>
       </c>
@@ -10936,33 +11051,33 @@
       <c r="AC472" s="11"/>
       <c r="AD472" s="11"/>
     </row>
-    <row r="473" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="474" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="473" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C474" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="475" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="475" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C475" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="476" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="476" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C476" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="477" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="477" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C477" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="478" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="478" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C478" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="480" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="480" spans="3:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C480" s="10" t="s">
         <v>370</v>
       </c>
@@ -10994,23 +11109,23 @@
       <c r="AC480" s="11"/>
       <c r="AD480" s="11"/>
     </row>
-    <row r="481" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="482" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="481" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C482" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="483" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="483" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C483" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="484" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="484" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C484" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="485" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="485" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C485" t="s">
         <v>374</v>
       </c>
@@ -11018,17 +11133,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-    <hyperlink ref="C15" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="Q66" r:id="rId4" location=":~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82" display="https://www.haba.co.jp/info/CHSfIngredientDetail.jsp?INGREDIENT_NO=923&amp;igidx=1#:~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82"/>
-    <hyperlink ref="Q67" r:id="rId5"/>
-    <hyperlink ref="Q68" r:id="rId6"/>
-    <hyperlink ref="Q69" r:id="rId7"/>
-    <hyperlink ref="Q73" r:id="rId8"/>
-    <hyperlink ref="Q72" r:id="rId9"/>
-    <hyperlink ref="C348" r:id="rId10"/>
-    <hyperlink ref="Q71" r:id="rId11"/>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="Q66" r:id="rId4" location=":~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82" display="https://www.haba.co.jp/info/CHSfIngredientDetail.jsp?INGREDIENT_NO=923&amp;igidx=1#:~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="Q67" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="Q68" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="Q69" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="Q73" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="Q72" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C348" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="Q71" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
@@ -11036,29 +11151,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AD42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
@@ -11067,42 +11182,241 @@
         <v>32 文字</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C15" s="13" t="s">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D28" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D29" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D30" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C36" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+    </row>
+    <row r="37" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="2:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+    </row>
+    <row r="39" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C40" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="C42" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AD40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="39.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f>LEN($C$7)&amp;" 文字"</f>
+        <v>4 文字</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C34" s="10" t="s">
         <v>39</v>
       </c>
@@ -11134,10 +11448,10 @@
       <c r="AC34" s="11"/>
       <c r="AD34" s="11"/>
     </row>
-    <row r="35" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="2:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="2:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C36" s="9" t="s">
         <v>38</v>
       </c>
@@ -11169,162 +11483,15 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C38" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="2:30" ht="36" x14ac:dyDescent="0.7">
-      <c r="C40" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
-      <c r="A1" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B4" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="6" t="str">
-        <f>LEN($C$7)&amp;" 文字"</f>
-        <v>4 文字</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B11" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B14" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B19" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B33" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
-      <c r="C34" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-    </row>
-    <row r="35" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="2:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C36" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-    </row>
-    <row r="37" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C38" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="2:30" ht="36" x14ac:dyDescent="0.7">
+    <row r="40" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
       <c r="C40" s="4" t="s">
         <v>47</v>
       </c>

--- a/アフィリエイト_商品.xlsx
+++ b/アフィリエイト_商品.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\aff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuzo\Desktop\aff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5386FD72-0E2B-4508-BA7C-DAE72C091685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="M3040プレミアムスカルプシャンプー" sheetId="5" r:id="rId4"/>
     <sheet name="シートテンプレ" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="478">
   <si>
     <r>
       <t>もっと詳しく知りたい方は</t>
@@ -7117,23 +7116,6 @@
     <t>デコつる 評判</t>
   </si>
   <si>
-    <t>デコつる,口コミ,知恵袋,評判,アトピー,サプリ</t>
-    <rPh sb="5" eb="6">
-      <t>クチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デコつるの評判や知恵袋は嘘？アトピー用サプリとしての口コミの真実</t>
-    <rPh sb="18" eb="19">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>販売実績100万個を超える人気サプリ「デコつる」。</t>
     <rPh sb="0" eb="2">
       <t>ハンバイ</t>
@@ -7178,78 +7160,938 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>デコつるの評判や知恵袋の内容などに嘘があるのか、アトピーに効くかどうかの口コミについて見てみましょう。</t>
+    <t>デコつるの評判｜知恵袋は嘘？アトピーサプリとしての口コミなど検証</t>
+    <rPh sb="30" eb="32">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デコつる,評判,口コミ,アトピー,サプリ,知恵袋,嘘</t>
+    <rPh sb="8" eb="9">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このサイトでは知恵袋の内容などに嘘があるのか、アトピーに効くかどうかの口コミなど、評判を調べましたのでご紹介します。</t>
+    <rPh sb="7" eb="9">
+      <t>チエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウソ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウバン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>またお買い得情報と解約方法についても併せてご紹介します。</t>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイヤク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際に口コミやデコつるについて紹介しているサイトの中には「デコつるの内容には嘘がある」と言う内容がちらほら見られます。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ウソ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結局デコつるの評判は嘘なのか？</t>
+    <rPh sb="0" eb="2">
+      <t>ケッキョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウバン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デコつるの評判を調べてみると検索ワードに「デコつる 嘘」と言うワードが出て来ます。</t>
     <rPh sb="5" eb="7">
       <t>ヒョウバン</t>
     </rPh>
+    <rPh sb="8" eb="9">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ウソ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デコつるの悪い評判や口コミ</t>
+    <rPh sb="5" eb="6">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウバン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトの作り方が単純</t>
+    <rPh sb="4" eb="5">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
     <rPh sb="8" eb="10">
+      <t>タンジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像がフリー素材</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>知恵袋が自作自演</t>
+    <rPh sb="0" eb="3">
+      <t>チエブクロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索で上位表示しているサイトはアフィリエイトサイトが多い</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿日時と回答日時が近い</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デコつるの評判を口コミや知恵袋などから見て嘘かどうか考えてみる</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウバン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
       <t>チエ</t>
     </rPh>
+    <rPh sb="14" eb="15">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウソ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その理由についてご説明します。</t>
+    <rPh sb="2" eb="4">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嘘と決めつけることは出来ない、と言うのが正直なところ。</t>
+    <rPh sb="0" eb="1">
+      <t>ウソ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショウジキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿者と回答者の参加日が同じ</t>
+    <rPh sb="0" eb="3">
+      <t>トウコウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サンカ</t>
+    </rPh>
     <rPh sb="10" eb="11">
-      <t>ブクロ</t>
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前が似ている</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「デコつるが嘘である」と言うブログ</t>
+    <rPh sb="6" eb="7">
+      <t>ウソ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デコつるの評判が「嘘」だと決めつけれらない理由</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウバン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウソ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まず口コミと評判について</t>
+    <rPh sb="2" eb="3">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「デコつるが嘘である」と言うブログの内容について</t>
+    <rPh sb="18" eb="20">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトが凝っていると言うことはそのサイトに経費が掛かっていると言うこと</t>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勿論サイトの質も最低限必要ですが、大切なのはサイトを派手にしたりすることではなく商品の製造にこそコストを割くべき</t>
+    <rPh sb="17" eb="19">
+      <t>タイセツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハデ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セイゾウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小さい会社の企業努力だと言えます。</t>
+    <rPh sb="0" eb="1">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドリョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きい会社なら広告や宣伝に費用をかけるでしょうが、それらは商品の質とは別問題です。</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センデン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ベツモンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちらも根拠としては弱いと思います。</t>
+    <rPh sb="4" eb="6">
+      <t>コンキョ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>と言うのもアフィリエイトと言うのは信頼が大切。</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適当な内容のサイトはそもそも上位表示されない。</t>
+    <rPh sb="0" eb="2">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上位に来ているサイトは一定の信頼があります。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シンライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブログの運営者はアフィリエイターと言うわけでは内容ですが、ブログから自身のyoutubeに引っ張り収益を上げている</t>
+    <rPh sb="4" eb="7">
+      <t>ウンエイシャ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>パ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シュウエキ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アフィリエイターはお金稼ぎの為に良い情報を載せがち。</t>
+    <rPh sb="10" eb="11">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カセ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちらは言われてみるとそんな気がしなくもないですが、やはり決定的な証拠がありません。</t>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ケッテイテキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また仮に自作自演ならこんな簡単に指摘されるようなやり方はせず、逆に気を付けるだろうと思います。</t>
+    <rPh sb="2" eb="3">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デコつるの評判が「嘘」だと決めつけれらない理由のまとめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配合している乳酸菌の量が桁違いなのでアトピーやアレルギーにも効果が高いと評判です。</t>
+    <rPh sb="0" eb="2">
+      <t>ハイゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウサンキン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リョウ</t>
     </rPh>
     <rPh sb="12" eb="14">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ウソ</t>
+      <t>ケタチガ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆に宣伝に経費を割かずに100万個も売れているのは、商品の質にコストを掛けているからだと言えます。</t>
+    <rPh sb="0" eb="1">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センデン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウヒン</t>
     </rPh>
     <rPh sb="29" eb="30">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>クチ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>評判と口コミ、知恵袋</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウバン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>クチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>チエ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ブクロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>評判</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>口コミ</t>
-    <rPh sb="0" eb="1">
-      <t>クチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>知恵袋</t>
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>知恵袋や口コミ</t>
     <rPh sb="0" eb="2">
       <t>チエ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ブクロ</t>
     </rPh>
+    <rPh sb="4" eb="5">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用期間が短い</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミジカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デコつるに限らず三か月は試すべき</t>
+    <rPh sb="5" eb="6">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブログに関しては実は運営者はデコつるを使用してはいないようです。</t>
+    <rPh sb="4" eb="5">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ウンエイシャ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブログ内や自身の運営するyoutubeチャンネルでは別の商品を紹介しています。</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読者やチャンネル登録者集めるために「デコつる」と言う人気商品の記事を書いている、と言う可能性も否めません。</t>
+    <rPh sb="0" eb="2">
+      <t>ドクシャ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>トウロクシャ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただそれも証拠があるわけではなく、ブログの運営者がデコつるを批判しているのと同レベルの言い掛かりでしかありません。</t>
+    <rPh sb="5" eb="7">
+      <t>ショウコ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ウンエイシャ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒハン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せめて効果を実感した人と同じく、3ヶ月の継続使用がなければ説得力に欠けます。</t>
+    <rPh sb="3" eb="5">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッカン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>セットクリョク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デコつるの悪い評判や口コミなどについて、その理由をご紹介しましたので</t>
+    <rPh sb="5" eb="6">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウバン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次に良い評判について見てみましょう。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウバン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デコつるの良い評判を口コミや知恵袋などから見る</t>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウバン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デコつるの効果が期待出来るポイント</t>
+    <rPh sb="5" eb="7">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デコつるはどこで購入するのが1番か</t>
+    <rPh sb="8" eb="10">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勿論個人差があるとは思う。</t>
+    <rPh sb="0" eb="2">
+      <t>モチロン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コジンサ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デコつるの解約方法</t>
+    <rPh sb="5" eb="7">
+      <t>カイヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売者情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとめ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7770,14 +8612,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7785,7 +8627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7794,15 +8636,15 @@
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
@@ -7810,22 +8652,22 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
@@ -7857,20 +8699,20 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:30" ht="24" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:30" ht="22.9" x14ac:dyDescent="0.7">
       <c r="D20" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:30" ht="36" x14ac:dyDescent="0.7">
       <c r="C23" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C25" s="2" t="s">
         <v>36</v>
       </c>
@@ -7902,57 +8744,57 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="2:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="2:30" ht="24" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="28" spans="2:30" ht="22.9" x14ac:dyDescent="0.7">
       <c r="D28" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="E29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="2:30" ht="24" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="31" spans="2:30" ht="22.9" x14ac:dyDescent="0.7">
       <c r="D31" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="E32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="34" spans="3:30" ht="24" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="34" spans="3:30" ht="22.9" x14ac:dyDescent="0.7">
       <c r="D34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="E35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="37" spans="3:30" ht="24" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="37" spans="3:30" ht="22.9" x14ac:dyDescent="0.7">
       <c r="D37" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="E38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="40" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C40" s="2" t="s">
         <v>26</v>
       </c>
@@ -7984,23 +8826,23 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="45" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C45" s="2" t="s">
         <v>22</v>
       </c>
@@ -8032,33 +8874,33 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="52" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
@@ -8090,14 +8932,14 @@
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
     </row>
-    <row r="53" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D53" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="55" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
+    <row r="56" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
@@ -8129,72 +8971,72 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
     </row>
-    <row r="57" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
       <c r="D58" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D59" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E60" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E61" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D66" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D67" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D68" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D69" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D71" t="s">
         <v>0</v>
       </c>
@@ -8202,7 +9044,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -8210,25 +9052,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD485"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
@@ -8236,7 +9078,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
@@ -8245,272 +9087,272 @@
         <v>30 文字</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C14" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C15" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B19" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E37" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E40" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D41" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E42" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F47" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F48" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F49" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D51" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D52" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C53" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D54" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E55" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D56" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E57" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D58" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D61" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C63" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D64" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D65" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D66" t="s">
         <v>68</v>
       </c>
@@ -8518,7 +9360,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E67" t="s">
         <v>67</v>
       </c>
@@ -8526,7 +9368,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D68" t="s">
         <v>69</v>
       </c>
@@ -8534,12 +9376,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="Q69" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C71" t="s">
         <v>70</v>
       </c>
@@ -8547,7 +9389,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="72" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G72" t="s">
         <v>387</v>
       </c>
@@ -8558,7 +9400,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G73" t="s">
         <v>387</v>
       </c>
@@ -8569,12 +9411,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="H74" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="75" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="G75" t="s">
         <v>387</v>
       </c>
@@ -8582,12 +9424,12 @@
         <v>379</v>
       </c>
     </row>
-    <row r="77" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B77" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C78" s="10" t="s">
         <v>39</v>
       </c>
@@ -8619,10 +9461,10 @@
       <c r="AC78" s="11"/>
       <c r="AD78" s="11"/>
     </row>
-    <row r="79" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C80" s="9" t="s">
         <v>38</v>
       </c>
@@ -8654,25 +9496,25 @@
       <c r="AC80" s="1"/>
       <c r="AD80" s="1"/>
     </row>
-    <row r="81" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C82" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:30" ht="36" x14ac:dyDescent="0.7">
       <c r="C84" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C85" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="B87" t="s">
         <v>380</v>
       </c>
@@ -8707,30 +9549,30 @@
       <c r="AC87" s="11"/>
       <c r="AD87" s="11"/>
     </row>
-    <row r="88" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C89" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="90" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C90" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C91" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="92" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C92" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="94" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C94" s="10" t="s">
         <v>381</v>
       </c>
@@ -8762,15 +9604,15 @@
       <c r="AC94" s="11"/>
       <c r="AD94" s="11"/>
     </row>
-    <row r="95" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C96" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="98" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C98" s="9" t="s">
         <v>118</v>
       </c>
@@ -8802,38 +9644,38 @@
       <c r="AC98" s="1"/>
       <c r="AD98" s="1"/>
     </row>
-    <row r="99" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="100" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C100" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C102" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C103" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C105" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C106" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C107" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C109" s="9" t="s">
         <v>119</v>
       </c>
@@ -8865,101 +9707,101 @@
       <c r="AC109" s="1"/>
       <c r="AD109" s="1"/>
     </row>
-    <row r="110" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="111" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C111" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C113" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="115" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C115" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="116" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C116" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C117" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="119" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C119" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="120" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="121" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C121" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="122" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C122" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="123" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C123" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="124" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C124" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C125" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C126" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C127" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="128" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C128" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="130" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C130" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="132" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C132" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="133" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C133" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C134" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="137" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C137" s="9" t="s">
         <v>120</v>
       </c>
@@ -8991,122 +9833,122 @@
       <c r="AC137" s="1"/>
       <c r="AD137" s="1"/>
     </row>
-    <row r="138" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="139" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C139" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="140" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C141" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C142" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="144" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C144" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C145" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="146" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C146" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="148" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C148" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="149" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C149" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C151" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="152" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C154" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C155" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C157" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C158" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="159" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C159" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="161" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C161" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="162" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="163" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C163" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="165" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C165" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="167" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C167" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="168" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C168" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="170" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C170" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="171" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C171" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="173" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C173" s="9" t="s">
         <v>147</v>
       </c>
@@ -9138,43 +9980,43 @@
       <c r="AC173" s="1"/>
       <c r="AD173" s="1"/>
     </row>
-    <row r="174" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="175" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C175" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="176" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C176" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="177" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C177" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="178" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C178" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="179" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C179" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C180" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="181" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C181" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="184" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="184" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C184" s="10" t="s">
         <v>105</v>
       </c>
@@ -9206,20 +10048,20 @@
       <c r="AC184" s="11"/>
       <c r="AD184" s="11"/>
     </row>
-    <row r="185" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C185" s="5"/>
     </row>
-    <row r="186" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C186" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="187" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C187" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="189" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C189" s="9" t="s">
         <v>206</v>
       </c>
@@ -9251,80 +10093,80 @@
       <c r="AC189" s="1"/>
       <c r="AD189" s="1"/>
     </row>
-    <row r="190" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C190" s="5"/>
     </row>
-    <row r="191" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C191" s="6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="192" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C192" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="193" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C193" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="194" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C194" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="195" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C195" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="196" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C196" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="197" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C197" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="198" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C198" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="199" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C199" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="200" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C200" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="201" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C201" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="202" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C202" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="203" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C203" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="204" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C204" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="206" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C206" s="9" t="s">
         <v>207</v>
       </c>
@@ -9356,43 +10198,43 @@
       <c r="AC206" s="1"/>
       <c r="AD206" s="1"/>
     </row>
-    <row r="207" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="208" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C208" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="209" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C209" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="210" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C210" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="211" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C211" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="212" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C212" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="213" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C213" s="16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="214" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C214" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="216" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C216" s="9" t="s">
         <v>205</v>
       </c>
@@ -9424,38 +10266,38 @@
       <c r="AC216" s="1"/>
       <c r="AD216" s="1"/>
     </row>
-    <row r="217" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="218" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C218" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="219" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C219" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="220" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C220" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="221" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C221" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="222" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C222" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="224" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C224" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="227" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="227" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C227" s="10" t="s">
         <v>106</v>
       </c>
@@ -9487,15 +10329,15 @@
       <c r="AC227" s="11"/>
       <c r="AD227" s="11"/>
     </row>
-    <row r="228" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C228" s="5"/>
     </row>
-    <row r="229" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C229" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="231" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C231" s="9" t="s">
         <v>121</v>
       </c>
@@ -9527,141 +10369,141 @@
       <c r="AC231" s="1"/>
       <c r="AD231" s="1"/>
     </row>
-    <row r="232" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C232" s="5"/>
     </row>
-    <row r="233" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C233" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="235" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C235" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="236" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C237" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="239" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C239" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="240" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C240" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="241" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C241" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="242" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C242" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="243" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C243" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="244" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C244" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="245" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C245" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="246" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C246" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="247" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C247" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="248" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C248" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="249" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C249" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="250" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C250" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="251" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C251" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="252" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C252" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="253" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C253" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="254" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C254" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="255" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C255" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="256" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C256" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="257" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C257" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="259" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C259" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="260" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C260" s="5"/>
     </row>
-    <row r="261" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C261" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="262" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C262" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="264" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C264" s="9" t="s">
         <v>240</v>
       </c>
@@ -9693,91 +10535,91 @@
       <c r="AC264" s="1"/>
       <c r="AD264" s="1"/>
     </row>
-    <row r="265" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="266" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C266" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="267" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C267" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="268" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C268" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="269" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C269" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="270" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C270" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="271" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C271" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="272" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C272" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="273" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C273" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="274" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C274" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="275" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C275" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="276" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C276" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="277" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C277" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="278" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C278" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="279" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C279" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="280" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C280" s="5"/>
     </row>
-    <row r="281" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C281" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="282" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C282" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="284" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C284" s="9" t="s">
         <v>246</v>
       </c>
@@ -9809,28 +10651,28 @@
       <c r="AC284" s="1"/>
       <c r="AD284" s="1"/>
     </row>
-    <row r="285" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="286" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C286" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="287" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C287" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="288" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C288" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="289" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C289" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="291" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C291" s="9" t="s">
         <v>122</v>
       </c>
@@ -9862,42 +10704,42 @@
       <c r="AC291" s="1"/>
       <c r="AD291" s="1"/>
     </row>
-    <row r="292" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C292" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="293" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C293" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="294" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C294" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="295" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C295" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="296" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C296" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="297" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C297" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="298" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C298" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="300" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="300" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C300" s="10" t="s">
         <v>107</v>
       </c>
@@ -9929,20 +10771,20 @@
       <c r="AC300" s="11"/>
       <c r="AD300" s="11"/>
     </row>
-    <row r="301" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C301" s="5"/>
     </row>
-    <row r="302" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C302" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="303" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C303" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="305" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C305" s="9" t="s">
         <v>254</v>
       </c>
@@ -9974,28 +10816,28 @@
       <c r="AC305" s="1"/>
       <c r="AD305" s="1"/>
     </row>
-    <row r="306" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="307" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C307" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="308" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C308" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="309" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C309" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="310" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C310" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="312" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C312" s="9" t="s">
         <v>258</v>
       </c>
@@ -10027,168 +10869,168 @@
       <c r="AC312" s="1"/>
       <c r="AD312" s="1"/>
     </row>
-    <row r="313" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="314" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C314" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="316" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C316" s="12" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="317" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C317" s="5"/>
     </row>
-    <row r="318" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C318" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="319" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C319" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="320" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C320" s="12" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="321" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C321" s="5"/>
     </row>
-    <row r="322" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C322" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="323" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C323" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="324" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C324" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="325" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C325" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="326" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C326" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="327" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C327" s="12" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="328" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C328" s="5"/>
     </row>
-    <row r="329" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C329" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="330" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C330" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="331" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C331" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="332" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C332" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="333" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C333" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="334" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C334" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="335" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C335" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="336" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C336" s="12" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="337" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C337" s="5"/>
     </row>
-    <row r="338" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C338" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="339" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C339" s="12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="340" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C340" s="5"/>
     </row>
-    <row r="341" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C341" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="342" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C342" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="343" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C343" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="344" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C344" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="345" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C345" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="346" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C346" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="347" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C347" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="348" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C348" s="13" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="350" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="350" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C350" s="10" t="s">
         <v>108</v>
       </c>
@@ -10220,15 +11062,15 @@
       <c r="AC350" s="11"/>
       <c r="AD350" s="11"/>
     </row>
-    <row r="351" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C351" s="5"/>
     </row>
-    <row r="352" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C352" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="354" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C354" s="9" t="s">
         <v>123</v>
       </c>
@@ -10260,79 +11102,79 @@
       <c r="AC354" s="1"/>
       <c r="AD354" s="1"/>
     </row>
-    <row r="355" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="356" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C356" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="357" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C357" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="358" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C358" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="359" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C359" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="360" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C360" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="361" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C361" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="362" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C362" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="363" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C363" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="364" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C364" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="365" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C365" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="366" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C366" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="367" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C367" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="368" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C368" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="370" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C370" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="372" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="373" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C373" s="9" t="s">
         <v>124</v>
       </c>
@@ -10364,28 +11206,28 @@
       <c r="AC373" s="1"/>
       <c r="AD373" s="1"/>
     </row>
-    <row r="374" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="375" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C375" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="376" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C376" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="377" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C377" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="378" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C378" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="380" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C380" s="9" t="s">
         <v>125</v>
       </c>
@@ -10417,33 +11259,33 @@
       <c r="AC380" s="1"/>
       <c r="AD380" s="1"/>
     </row>
-    <row r="381" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="382" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C382" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="383" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C383" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="384" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C384" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="385" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C385" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="386" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C386" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="388" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C388" s="9" t="s">
         <v>126</v>
       </c>
@@ -10475,48 +11317,48 @@
       <c r="AC388" s="1"/>
       <c r="AD388" s="1"/>
     </row>
-    <row r="389" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="390" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C390" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="391" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C391" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="392" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C392" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="393" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C393" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="394" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="394" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C394" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="395" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C395" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="396" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C396" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="397" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C397" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="399" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="399" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C399" s="10" t="s">
         <v>109</v>
       </c>
@@ -10548,15 +11390,15 @@
       <c r="AC399" s="11"/>
       <c r="AD399" s="11"/>
     </row>
-    <row r="400" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="400" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C401" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="403" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C403" s="9" t="s">
         <v>321</v>
       </c>
@@ -10588,23 +11430,23 @@
       <c r="AC403" s="1"/>
       <c r="AD403" s="1"/>
     </row>
-    <row r="404" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="404" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="405" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C405" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="406" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C406" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="407" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C407" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="409" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C409" s="9" t="s">
         <v>318</v>
       </c>
@@ -10636,33 +11478,33 @@
       <c r="AC409" s="1"/>
       <c r="AD409" s="1"/>
     </row>
-    <row r="410" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="410" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="411" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C411" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="412" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="412" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C412" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="413" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C413" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="414" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C414" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="415" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="415" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C415" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="417" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C417" s="9" t="s">
         <v>319</v>
       </c>
@@ -10694,63 +11536,63 @@
       <c r="AC417" s="1"/>
       <c r="AD417" s="1"/>
     </row>
-    <row r="418" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="418" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="419" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C419" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="420" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="420" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C420" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="421" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C421" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="422" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C422" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="423" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="423" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C423" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="424" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C424" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="425" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C425" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="426" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C426" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="427" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="427" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C427" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="428" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="428" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C428" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="429" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="429" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C429" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="431" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C431" s="9" t="s">
         <v>320</v>
       </c>
@@ -10782,68 +11624,68 @@
       <c r="AC431" s="1"/>
       <c r="AD431" s="1"/>
     </row>
-    <row r="432" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="433" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C433" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="434" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C434" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="435" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C435" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="436" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C436" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="437" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C437" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="438" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="438" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C438" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="439" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C439" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="440" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="440" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C440" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="442" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="442" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C442" s="6" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="443" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C443" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="444" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="444" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C444" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="445" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C445" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="448" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="448" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C448" s="10" t="s">
         <v>351</v>
       </c>
@@ -10875,20 +11717,20 @@
       <c r="AC448" s="11"/>
       <c r="AD448" s="11"/>
     </row>
-    <row r="449" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C449" s="5"/>
     </row>
-    <row r="450" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C450" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="451" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="451" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C451" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="453" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C453" s="9" t="s">
         <v>69</v>
       </c>
@@ -10920,33 +11762,33 @@
       <c r="AC453" s="1"/>
       <c r="AD453" s="1"/>
     </row>
-    <row r="454" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="455" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C455" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="456" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C456" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="457" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C457" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="458" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C458" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="459" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C459" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="461" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C461" s="9" t="s">
         <v>357</v>
       </c>
@@ -10978,48 +11820,48 @@
       <c r="AC461" s="1"/>
       <c r="AD461" s="1"/>
     </row>
-    <row r="462" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="462" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="463" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C463" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="464" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="464" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C464" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="465" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="465" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C465" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="466" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="466" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C466" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="467" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="467" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C467" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="468" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="468" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C468" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="469" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="469" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C469" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="470" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="470" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C470" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="472" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="472" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C472" s="10" t="s">
         <v>110</v>
       </c>
@@ -11051,33 +11893,33 @@
       <c r="AC472" s="11"/>
       <c r="AD472" s="11"/>
     </row>
-    <row r="473" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="473" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="474" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C474" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="475" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="475" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C475" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="476" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="476" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C476" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="477" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="477" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C477" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="478" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="478" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C478" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="480" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="480" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C480" s="10" t="s">
         <v>370</v>
       </c>
@@ -11109,23 +11951,23 @@
       <c r="AC480" s="11"/>
       <c r="AD480" s="11"/>
     </row>
-    <row r="481" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="481" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="482" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C482" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="483" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="483" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C483" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="484" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="484" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C484" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="485" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="485" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C485" t="s">
         <v>374</v>
       </c>
@@ -11133,17 +11975,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C15" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="Q66" r:id="rId4" location=":~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82" display="https://www.haba.co.jp/info/CHSfIngredientDetail.jsp?INGREDIENT_NO=923&amp;igidx=1#:~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="Q67" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="Q68" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="Q69" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="Q73" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="Q72" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C348" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="Q71" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C14" r:id="rId1"/>
+    <hyperlink ref="C15" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="Q66" r:id="rId4" location=":~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82" display="https://www.haba.co.jp/info/CHSfIngredientDetail.jsp?INGREDIENT_NO=923&amp;igidx=1#:~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82"/>
+    <hyperlink ref="Q67" r:id="rId5"/>
+    <hyperlink ref="Q68" r:id="rId6"/>
+    <hyperlink ref="Q69" r:id="rId7"/>
+    <hyperlink ref="Q73" r:id="rId8"/>
+    <hyperlink ref="Q72" r:id="rId9"/>
+    <hyperlink ref="C348" r:id="rId10"/>
+    <hyperlink ref="Q71" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
@@ -11151,29 +11993,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="8" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
@@ -11182,173 +12024,453 @@
         <v>32 文字</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C15" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C16" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C17" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C18" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C19" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B22" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C23" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C24" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C25" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C26" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C27" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D28" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D29" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C29" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D30" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="35" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="6" t="s">
+    <row r="32" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D32" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D34" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D36" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E37" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E38" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E39" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E40" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F41" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F42" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F43" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D46" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E47" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E48" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D51" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E52" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E53" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D54" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E55" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E56" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F57" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F58" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F59" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F60" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F61" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E62" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F63" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F64" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F65" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F66" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F67" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F68" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E69" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F70" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F71" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F72" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F73" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F74" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E77" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E78" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E79" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E80" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E81" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E82" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E83" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C85" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C87" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D88" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D89" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C91" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C93" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C95" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="97" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C97" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="99" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C99" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="101" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C101" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="103" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B103" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="2:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="C36" s="10" t="s">
+    <row r="104" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
+      <c r="C104" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="11"/>
-      <c r="AD36" s="11"/>
-    </row>
-    <row r="37" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="2:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="9" t="s">
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11"/>
+      <c r="Q104" s="11"/>
+      <c r="R104" s="11"/>
+      <c r="S104" s="11"/>
+      <c r="T104" s="11"/>
+      <c r="U104" s="11"/>
+      <c r="V104" s="11"/>
+      <c r="W104" s="11"/>
+      <c r="X104" s="11"/>
+      <c r="Y104" s="11"/>
+      <c r="Z104" s="11"/>
+      <c r="AA104" s="11"/>
+      <c r="AB104" s="11"/>
+      <c r="AC104" s="11"/>
+      <c r="AD104" s="11"/>
+    </row>
+    <row r="105" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C105" s="5"/>
+    </row>
+    <row r="106" spans="2:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C106" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-    </row>
-    <row r="39" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C40" s="12" t="s">
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
+      <c r="AD106" s="1"/>
+    </row>
+    <row r="107" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C107" s="5"/>
+    </row>
+    <row r="108" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C108" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="C42" s="4" t="s">
+    <row r="110" spans="2:30" ht="36" x14ac:dyDescent="0.7">
+      <c r="C110" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -11360,7 +12482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11369,20 +12491,20 @@
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A1" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
@@ -11391,32 +12513,32 @@
         <v>4 文字</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B19" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B33" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
       <c r="C34" s="10" t="s">
         <v>39</v>
       </c>
@@ -11448,10 +12570,10 @@
       <c r="AC34" s="11"/>
       <c r="AD34" s="11"/>
     </row>
-    <row r="35" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="2:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C36" s="9" t="s">
         <v>38</v>
       </c>
@@ -11483,15 +12605,15 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C38" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:30" ht="36" x14ac:dyDescent="0.7">
       <c r="C40" s="4" t="s">
         <v>47</v>
       </c>

--- a/アフィリエイト_商品.xlsx
+++ b/アフィリエイト_商品.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuzo\Desktop\aff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\aff\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49C5073-AC58-4DEB-A5D7-12E17CDD6B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="M3040プレミアムスカルプシャンプー" sheetId="5" r:id="rId4"/>
     <sheet name="シートテンプレ" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="495">
   <si>
     <r>
       <t>もっと詳しく知りたい方は</t>
@@ -7661,34 +7662,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブログの運営者はアフィリエイターと言うわけでは内容ですが、ブログから自身のyoutubeに引っ張り収益を上げている</t>
-    <rPh sb="4" eb="7">
-      <t>ウンエイシャ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>パ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>シュウエキ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アフィリエイターはお金稼ぎの為に良い情報を載せがち。</t>
     <rPh sb="10" eb="11">
       <t>カネ</t>
@@ -8085,13 +8058,126 @@
   </si>
   <si>
     <t>まとめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://dekoturu.site/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>twitter参考</t>
+    <rPh sb="7" eb="9">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.lettherightoneinmovie.com/archives/187#i-11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブログの運営者はアフィリエイターと言うわけでは無いようですが、ブログから自身のyoutubeに引っ張り収益を上げている</t>
+    <rPh sb="4" eb="7">
+      <t>ウンエイシャ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>パ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シュウエキ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>批判ブログ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://atopi-kyokasho.com/decoturu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@コスメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.cosme.net/product/product_id/10157296/reviews/ord/age/sort/asc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴箇条書き</t>
+  </si>
+  <si>
+    <t>公式：</t>
+    <rPh sb="0" eb="2">
+      <t>コウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://kanpolabo.com/deko-go/a8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://shufu-run.net/deco-tsuru/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.drjadko.org/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好転反応</t>
+    <rPh sb="0" eb="2">
+      <t>コウテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://tsurunlife.xyz/nyusankin/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反論</t>
+    <rPh sb="0" eb="2">
+      <t>ハンロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://sangerine.com/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.bauers-kamna.cz/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8246,7 +8332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8296,6 +8382,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8612,14 +8701,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8627,24 +8716,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:4" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
@@ -8652,22 +8741,22 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
@@ -8699,20 +8788,20 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:30" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:30" ht="24" x14ac:dyDescent="0.4">
       <c r="D20" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:30" ht="36" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
       <c r="C23" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="2:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C25" s="2" t="s">
         <v>36</v>
       </c>
@@ -8744,57 +8833,57 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="28" spans="2:30" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="2:30" ht="24" x14ac:dyDescent="0.4">
       <c r="D28" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="31" spans="2:30" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="2:30" ht="24" x14ac:dyDescent="0.4">
       <c r="D31" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="34" spans="3:30" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="33" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="3:30" ht="24" x14ac:dyDescent="0.4">
       <c r="D34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="35" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="37" spans="3:30" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="36" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="3:30" ht="24" x14ac:dyDescent="0.4">
       <c r="D37" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="38" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="E38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="40" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="39" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C40" s="2" t="s">
         <v>26</v>
       </c>
@@ -8826,23 +8915,23 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="41" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="42" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="43" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="45" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="44" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C45" s="2" t="s">
         <v>22</v>
       </c>
@@ -8874,33 +8963,33 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="46" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="47" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="48" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="49" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="50" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="52" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="51" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
@@ -8932,14 +9021,14 @@
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
     </row>
-    <row r="53" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="53" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D53" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="55" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7"/>
-    <row r="56" spans="3:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="54" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="3:30" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="3:30" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
@@ -8971,72 +9060,72 @@
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
     </row>
-    <row r="57" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="57" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="3:30" ht="17.649999999999999" x14ac:dyDescent="0.7">
+    <row r="58" spans="3:30" ht="18.75" x14ac:dyDescent="0.4">
       <c r="D58" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D59" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E60" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E61" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D66" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D67" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D68" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D69" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D71" t="s">
         <v>0</v>
       </c>
@@ -9044,7 +9133,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -9052,25 +9141,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD485"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
@@ -9078,7 +9165,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
@@ -9087,272 +9174,272 @@
         <v>30 文字</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E37" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E40" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D41" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E42" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F47" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F48" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F49" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D51" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D52" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E55" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E57" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D58" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D61" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C63" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D64" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D65" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D66" t="s">
         <v>68</v>
       </c>
@@ -9360,7 +9447,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E67" t="s">
         <v>67</v>
       </c>
@@ -9368,7 +9455,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D68" t="s">
         <v>69</v>
       </c>
@@ -9376,12 +9463,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q69" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C71" t="s">
         <v>70</v>
       </c>
@@ -9389,7 +9476,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="72" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G72" t="s">
         <v>387</v>
       </c>
@@ -9400,7 +9487,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G73" t="s">
         <v>387</v>
       </c>
@@ -9411,12 +9498,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H74" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="75" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G75" t="s">
         <v>387</v>
       </c>
@@ -9424,12 +9511,12 @@
         <v>379</v>
       </c>
     </row>
-    <row r="77" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="78" spans="2:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C78" s="10" t="s">
         <v>39</v>
       </c>
@@ -9461,10 +9548,10 @@
       <c r="AC78" s="11"/>
       <c r="AD78" s="11"/>
     </row>
-    <row r="79" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="80" spans="2:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C80" s="9" t="s">
         <v>38</v>
       </c>
@@ -9496,25 +9583,25 @@
       <c r="AC80" s="1"/>
       <c r="AD80" s="1"/>
     </row>
-    <row r="81" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C82" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="2:30" ht="36" x14ac:dyDescent="0.7">
+    <row r="84" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
       <c r="C84" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C85" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="87" spans="2:30" ht="30" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
         <v>380</v>
       </c>
@@ -9549,30 +9636,30 @@
       <c r="AC87" s="11"/>
       <c r="AD87" s="11"/>
     </row>
-    <row r="88" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C89" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="90" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C90" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C91" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="92" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C92" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="94" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="94" spans="2:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C94" s="10" t="s">
         <v>381</v>
       </c>
@@ -9604,15 +9691,15 @@
       <c r="AC94" s="11"/>
       <c r="AD94" s="11"/>
     </row>
-    <row r="95" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C96" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="98" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="98" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C98" s="9" t="s">
         <v>118</v>
       </c>
@@ -9644,38 +9731,38 @@
       <c r="AC98" s="1"/>
       <c r="AD98" s="1"/>
     </row>
-    <row r="99" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="100" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C100" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C102" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C103" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C105" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C106" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C107" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="109" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C109" s="9" t="s">
         <v>119</v>
       </c>
@@ -9707,101 +9794,101 @@
       <c r="AC109" s="1"/>
       <c r="AD109" s="1"/>
     </row>
-    <row r="110" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="111" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C111" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C113" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="115" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C115" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="116" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C116" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C117" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="119" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C119" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="120" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="121" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C121" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="122" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C122" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="123" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C123" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="124" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C124" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C125" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C126" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C127" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="128" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C128" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="130" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="130" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C130" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="132" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C132" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="133" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C133" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C134" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="137" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="137" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C137" s="9" t="s">
         <v>120</v>
       </c>
@@ -9833,122 +9920,122 @@
       <c r="AC137" s="1"/>
       <c r="AD137" s="1"/>
     </row>
-    <row r="138" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="139" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="138" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C139" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="140" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="141" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C141" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="142" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="144" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="144" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C144" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="145" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C145" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="146" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="146" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C146" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="148" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="148" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C148" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="149" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="149" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C149" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="151" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C151" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="152" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="152" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="154" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C154" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="155" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C155" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="157" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C157" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="158" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C158" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="159" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="159" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C159" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="161" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="161" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C161" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="162" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="163" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C163" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="165" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C165" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="167" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="167" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C167" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="168" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="168" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C168" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="170" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="170" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C170" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="171" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="171" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C171" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="173" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="173" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C173" s="9" t="s">
         <v>147</v>
       </c>
@@ -9980,43 +10067,43 @@
       <c r="AC173" s="1"/>
       <c r="AD173" s="1"/>
     </row>
-    <row r="174" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="175" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="174" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C175" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="176" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="176" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C176" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="177" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="177" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C177" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="178" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="178" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C178" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="179" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="179" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C179" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="180" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C180" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="181" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="181" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C181" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="184" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="184" spans="3:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C184" s="10" t="s">
         <v>105</v>
       </c>
@@ -10048,20 +10135,20 @@
       <c r="AC184" s="11"/>
       <c r="AD184" s="11"/>
     </row>
-    <row r="185" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="185" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C185" s="5"/>
     </row>
-    <row r="186" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="186" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C186" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="187" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="187" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C187" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="189" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="189" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C189" s="9" t="s">
         <v>206</v>
       </c>
@@ -10093,80 +10180,80 @@
       <c r="AC189" s="1"/>
       <c r="AD189" s="1"/>
     </row>
-    <row r="190" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="190" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C190" s="5"/>
     </row>
-    <row r="191" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="191" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C191" s="6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="192" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="192" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C192" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="193" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="193" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C193" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="194" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="194" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C194" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="195" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="195" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C195" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="196" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="196" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C196" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="197" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="197" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C197" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="198" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="198" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C198" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="199" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="199" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C199" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="200" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="200" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C200" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="201" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="201" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C201" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="202" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="202" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C202" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="203" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="203" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C203" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="204" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="204" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C204" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="206" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="206" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C206" s="9" t="s">
         <v>207</v>
       </c>
@@ -10198,43 +10285,43 @@
       <c r="AC206" s="1"/>
       <c r="AD206" s="1"/>
     </row>
-    <row r="207" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="208" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="207" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C208" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="209" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="209" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C209" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="210" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="210" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C210" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="211" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="211" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C211" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="212" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="212" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C212" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="213" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="213" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C213" s="16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="214" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="214" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C214" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="216" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="216" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C216" s="9" t="s">
         <v>205</v>
       </c>
@@ -10266,38 +10353,38 @@
       <c r="AC216" s="1"/>
       <c r="AD216" s="1"/>
     </row>
-    <row r="217" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="218" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="217" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C218" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="219" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="219" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C219" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="220" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="220" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C220" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="221" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="221" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C221" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="222" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="222" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C222" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="224" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="224" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C224" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="227" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="227" spans="3:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C227" s="10" t="s">
         <v>106</v>
       </c>
@@ -10329,15 +10416,15 @@
       <c r="AC227" s="11"/>
       <c r="AD227" s="11"/>
     </row>
-    <row r="228" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="228" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C228" s="5"/>
     </row>
-    <row r="229" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="229" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C229" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="231" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="231" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C231" s="9" t="s">
         <v>121</v>
       </c>
@@ -10369,141 +10456,141 @@
       <c r="AC231" s="1"/>
       <c r="AD231" s="1"/>
     </row>
-    <row r="232" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="232" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C232" s="5"/>
     </row>
-    <row r="233" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="233" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C233" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="235" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="235" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C235" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="236" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="236" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="237" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C237" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="239" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="239" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C239" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="240" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="240" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C240" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="241" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="241" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C241" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="242" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="242" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C242" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="243" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="243" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C243" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="244" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="244" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C244" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="245" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="245" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C245" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="246" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="246" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C246" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="247" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="247" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C247" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="248" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="248" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C248" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="249" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="249" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C249" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="250" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="250" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C250" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="251" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="251" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C251" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="252" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="252" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C252" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="253" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="253" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C253" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="254" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="254" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C254" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="255" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="255" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C255" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="256" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="256" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C256" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="257" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="257" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C257" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="259" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="259" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C259" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="260" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="260" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C260" s="5"/>
     </row>
-    <row r="261" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="261" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C261" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="262" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="262" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C262" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="264" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="264" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C264" s="9" t="s">
         <v>240</v>
       </c>
@@ -10535,91 +10622,91 @@
       <c r="AC264" s="1"/>
       <c r="AD264" s="1"/>
     </row>
-    <row r="265" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="266" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="265" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C266" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="267" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="267" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C267" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="268" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="268" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C268" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="269" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="269" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C269" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="270" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="270" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C270" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="271" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="271" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C271" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="272" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="272" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C272" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="273" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="273" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C273" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="274" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="274" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C274" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="275" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="275" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C275" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="276" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="276" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C276" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="277" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="277" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C277" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="278" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="278" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C278" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="279" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="279" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C279" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="280" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="280" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C280" s="5"/>
     </row>
-    <row r="281" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="281" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C281" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="282" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="282" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C282" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="284" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="284" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C284" s="9" t="s">
         <v>246</v>
       </c>
@@ -10651,28 +10738,28 @@
       <c r="AC284" s="1"/>
       <c r="AD284" s="1"/>
     </row>
-    <row r="285" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="286" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="285" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C286" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="287" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="287" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C287" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="288" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="288" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C288" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="289" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="289" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C289" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="291" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="291" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C291" s="9" t="s">
         <v>122</v>
       </c>
@@ -10704,42 +10791,42 @@
       <c r="AC291" s="1"/>
       <c r="AD291" s="1"/>
     </row>
-    <row r="292" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="292" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C292" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="293" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="293" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C293" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="294" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="294" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C294" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="295" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="295" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C295" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="296" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="296" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C296" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="297" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="297" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C297" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="298" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="298" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C298" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="300" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="300" spans="3:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C300" s="10" t="s">
         <v>107</v>
       </c>
@@ -10771,20 +10858,20 @@
       <c r="AC300" s="11"/>
       <c r="AD300" s="11"/>
     </row>
-    <row r="301" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="301" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C301" s="5"/>
     </row>
-    <row r="302" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="302" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C302" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="303" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="303" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C303" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="305" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="305" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C305" s="9" t="s">
         <v>254</v>
       </c>
@@ -10816,28 +10903,28 @@
       <c r="AC305" s="1"/>
       <c r="AD305" s="1"/>
     </row>
-    <row r="306" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="307" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="306" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C307" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="308" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="308" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C308" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="309" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="309" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C309" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="310" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="310" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C310" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="312" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="312" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C312" s="9" t="s">
         <v>258</v>
       </c>
@@ -10869,168 +10956,168 @@
       <c r="AC312" s="1"/>
       <c r="AD312" s="1"/>
     </row>
-    <row r="313" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="314" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="313" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C314" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="316" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="316" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C316" s="12" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="317" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="317" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C317" s="5"/>
     </row>
-    <row r="318" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="318" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C318" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="319" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="319" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C319" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="320" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="320" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C320" s="12" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="321" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="321" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C321" s="5"/>
     </row>
-    <row r="322" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="322" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C322" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="323" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="323" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C323" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="324" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="324" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C324" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="325" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="325" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C325" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="326" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="326" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C326" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="327" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="327" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C327" s="12" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="328" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="328" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C328" s="5"/>
     </row>
-    <row r="329" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="329" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C329" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="330" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="330" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C330" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="331" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="331" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C331" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="332" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="332" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C332" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="333" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="333" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C333" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="334" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="334" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C334" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="335" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="335" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C335" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="336" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="336" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C336" s="12" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="337" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="337" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C337" s="5"/>
     </row>
-    <row r="338" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="338" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C338" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="339" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="339" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C339" s="12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="340" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="340" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C340" s="5"/>
     </row>
-    <row r="341" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="341" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C341" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="342" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="342" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C342" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="343" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="343" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C343" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="344" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="344" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C344" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="345" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="345" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C345" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="346" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="346" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C346" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="347" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="347" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C347" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="348" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="348" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C348" s="13" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="350" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="350" spans="3:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C350" s="10" t="s">
         <v>108</v>
       </c>
@@ -11062,15 +11149,15 @@
       <c r="AC350" s="11"/>
       <c r="AD350" s="11"/>
     </row>
-    <row r="351" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="351" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C351" s="5"/>
     </row>
-    <row r="352" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="352" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C352" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="354" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="354" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C354" s="9" t="s">
         <v>123</v>
       </c>
@@ -11102,79 +11189,79 @@
       <c r="AC354" s="1"/>
       <c r="AD354" s="1"/>
     </row>
-    <row r="355" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="356" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="355" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C356" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="357" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="357" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C357" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="358" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="358" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C358" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="359" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="359" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C359" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="360" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="360" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C360" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="361" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="361" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C361" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="362" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="362" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C362" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="363" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="363" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C363" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="364" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="364" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C364" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="365" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="365" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C365" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="366" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="366" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C366" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="367" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="367" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C367" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="368" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="368" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C368" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="370" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="370" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C370" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="372" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="373" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="372" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C373" s="9" t="s">
         <v>124</v>
       </c>
@@ -11206,28 +11293,28 @@
       <c r="AC373" s="1"/>
       <c r="AD373" s="1"/>
     </row>
-    <row r="374" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="375" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="374" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C375" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="376" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="376" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C376" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="377" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="377" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C377" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="378" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="378" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C378" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="380" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="380" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C380" s="9" t="s">
         <v>125</v>
       </c>
@@ -11259,33 +11346,33 @@
       <c r="AC380" s="1"/>
       <c r="AD380" s="1"/>
     </row>
-    <row r="381" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="382" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="381" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C382" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="383" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="383" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C383" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="384" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="384" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C384" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="385" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="385" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C385" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="386" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="386" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C386" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="388" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="388" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C388" s="9" t="s">
         <v>126</v>
       </c>
@@ -11317,48 +11404,48 @@
       <c r="AC388" s="1"/>
       <c r="AD388" s="1"/>
     </row>
-    <row r="389" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="390" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="389" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C390" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="391" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="391" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C391" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="392" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="392" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C392" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="393" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="393" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C393" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="394" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="394" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C394" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="395" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="395" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C395" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="396" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="396" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C396" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="397" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="397" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C397" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="399" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="399" spans="3:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C399" s="10" t="s">
         <v>109</v>
       </c>
@@ -11390,15 +11477,15 @@
       <c r="AC399" s="11"/>
       <c r="AD399" s="11"/>
     </row>
-    <row r="400" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="400" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="401" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C401" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="403" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="403" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C403" s="9" t="s">
         <v>321</v>
       </c>
@@ -11430,23 +11517,23 @@
       <c r="AC403" s="1"/>
       <c r="AD403" s="1"/>
     </row>
-    <row r="404" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="405" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="404" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C405" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="406" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="406" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C406" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="407" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="407" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C407" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="409" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="409" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C409" s="9" t="s">
         <v>318</v>
       </c>
@@ -11478,33 +11565,33 @@
       <c r="AC409" s="1"/>
       <c r="AD409" s="1"/>
     </row>
-    <row r="410" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="411" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="410" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C411" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="412" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="412" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C412" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="413" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="413" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C413" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="414" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="414" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C414" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="415" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="415" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C415" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="417" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="417" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C417" s="9" t="s">
         <v>319</v>
       </c>
@@ -11536,63 +11623,63 @@
       <c r="AC417" s="1"/>
       <c r="AD417" s="1"/>
     </row>
-    <row r="418" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="419" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="418" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C419" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="420" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="420" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C420" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="421" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="421" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C421" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="422" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="422" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C422" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="423" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="423" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C423" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="424" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="424" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C424" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="425" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="425" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C425" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="426" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="426" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C426" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="427" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="427" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C427" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="428" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="428" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C428" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="429" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="429" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C429" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="431" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="431" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C431" s="9" t="s">
         <v>320</v>
       </c>
@@ -11624,68 +11711,68 @@
       <c r="AC431" s="1"/>
       <c r="AD431" s="1"/>
     </row>
-    <row r="432" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="433" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="432" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C433" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="434" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="434" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C434" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="435" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="435" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C435" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="436" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="436" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C436" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="437" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="437" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C437" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="438" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="438" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C438" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="439" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="439" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C439" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="440" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="440" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C440" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="442" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="442" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C442" s="6" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="443" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="443" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C443" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="444" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="444" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C444" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="445" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="445" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C445" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="448" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="448" spans="3:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C448" s="10" t="s">
         <v>351</v>
       </c>
@@ -11717,20 +11804,20 @@
       <c r="AC448" s="11"/>
       <c r="AD448" s="11"/>
     </row>
-    <row r="449" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="449" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C449" s="5"/>
     </row>
-    <row r="450" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="450" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C450" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="451" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="451" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C451" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="453" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="453" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C453" s="9" t="s">
         <v>69</v>
       </c>
@@ -11762,33 +11849,33 @@
       <c r="AC453" s="1"/>
       <c r="AD453" s="1"/>
     </row>
-    <row r="454" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="455" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="454" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C455" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="456" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="456" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C456" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="457" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="457" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C457" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="458" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="458" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C458" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="459" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="459" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C459" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="461" spans="3:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="461" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C461" s="9" t="s">
         <v>357</v>
       </c>
@@ -11820,48 +11907,48 @@
       <c r="AC461" s="1"/>
       <c r="AD461" s="1"/>
     </row>
-    <row r="462" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="463" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="462" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C463" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="464" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="464" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C464" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="465" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="465" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C465" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="466" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="466" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C466" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="467" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="467" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C467" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="468" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="468" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C468" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="469" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="469" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C469" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="470" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="470" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C470" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="472" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="472" spans="3:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C472" s="10" t="s">
         <v>110</v>
       </c>
@@ -11893,33 +11980,33 @@
       <c r="AC472" s="11"/>
       <c r="AD472" s="11"/>
     </row>
-    <row r="473" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="474" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="473" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C474" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="475" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="475" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C475" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="476" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="476" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C476" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="477" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="477" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C477" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="478" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="478" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C478" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="480" spans="3:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="480" spans="3:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C480" s="10" t="s">
         <v>370</v>
       </c>
@@ -11951,23 +12038,23 @@
       <c r="AC480" s="11"/>
       <c r="AD480" s="11"/>
     </row>
-    <row r="481" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="482" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="481" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C482" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="483" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="483" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C483" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="484" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="484" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C484" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="485" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="485" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C485" t="s">
         <v>374</v>
       </c>
@@ -11975,17 +12062,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-    <hyperlink ref="C15" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="Q66" r:id="rId4" location=":~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82" display="https://www.haba.co.jp/info/CHSfIngredientDetail.jsp?INGREDIENT_NO=923&amp;igidx=1#:~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82"/>
-    <hyperlink ref="Q67" r:id="rId5"/>
-    <hyperlink ref="Q68" r:id="rId6"/>
-    <hyperlink ref="Q69" r:id="rId7"/>
-    <hyperlink ref="Q73" r:id="rId8"/>
-    <hyperlink ref="Q72" r:id="rId9"/>
-    <hyperlink ref="C348" r:id="rId10"/>
-    <hyperlink ref="Q71" r:id="rId11"/>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="Q66" r:id="rId4" location=":~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82" display="https://www.haba.co.jp/info/CHSfIngredientDetail.jsp?INGREDIENT_NO=923&amp;igidx=1#:~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="Q67" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="Q68" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="Q69" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="Q73" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="Q72" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C348" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="Q71" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
@@ -11993,496 +12080,567 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AD121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:19" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="6" t="s">
+      <c r="E6" s="13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="6" t="str">
-        <f>LEN($C$7)&amp;" 文字"</f>
+      <c r="F8" s="6" t="str">
+        <f>LEN($C$9)&amp;" 文字"</f>
         <v>32 文字</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C7" t="s">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="O15" t="s">
+        <v>478</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="O16" t="s">
+        <v>481</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="O17" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="O18" t="s">
+        <v>485</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B22" s="6" t="s">
+      <c r="O19" s="13" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O20" t="s">
+        <v>490</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O21" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O22" s="13" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C23" t="s">
+    <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C24" t="s">
+    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C38" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D41" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D43" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D45" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E49" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E50" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E51" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F52" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F53" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F54" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D57" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E58" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E59" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C61" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D62" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E63" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E64" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D65" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E66" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E67" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F68" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F69" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F70" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F71" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F72" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C25" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C26" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C27" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C29" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D30" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D32" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D34" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D36" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E37" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E38" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E39" t="s">
+    <row r="73" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E73" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="40" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E40" t="s">
+    <row r="74" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F74" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F75" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F76" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F77" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F78" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F79" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E80" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="41" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F41" t="s">
+    <row r="81" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F81" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="42" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F42" t="s">
+    <row r="82" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F82" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="43" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F43" t="s">
+    <row r="83" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F83" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="46" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D46" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E47" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E48" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D51" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E52" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E53" t="s">
+    <row r="84" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F84" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F85" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D87" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E88" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E89" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E90" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D54" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E55" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E56" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F57" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F58" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F59" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F60" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F61" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E62" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F63" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F64" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F65" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F66" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="67" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F67" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="68" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F68" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="69" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E69" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F70" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F71" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F72" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="73" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F73" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="74" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="F74" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="76" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D76" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="77" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E77" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E78" t="s">
+    <row r="91" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E91" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E92" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E93" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E94" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C96" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C98" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D99" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D100" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C102" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C104" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C106" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C108" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="79" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E79" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="80" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E80" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E81" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E82" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E83" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C85" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C87" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D88" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="D89" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="91" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C91" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="93" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C93" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C95" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="97" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C97" t="s">
+    <row r="110" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C110" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C112" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="99" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C99" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="101" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C101" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="103" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B103" s="6" t="s">
+    <row r="114" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B114" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
-      <c r="C104" s="10" t="s">
+    <row r="115" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C115" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11"/>
-      <c r="L104" s="11"/>
-      <c r="M104" s="11"/>
-      <c r="N104" s="11"/>
-      <c r="O104" s="11"/>
-      <c r="P104" s="11"/>
-      <c r="Q104" s="11"/>
-      <c r="R104" s="11"/>
-      <c r="S104" s="11"/>
-      <c r="T104" s="11"/>
-      <c r="U104" s="11"/>
-      <c r="V104" s="11"/>
-      <c r="W104" s="11"/>
-      <c r="X104" s="11"/>
-      <c r="Y104" s="11"/>
-      <c r="Z104" s="11"/>
-      <c r="AA104" s="11"/>
-      <c r="AB104" s="11"/>
-      <c r="AC104" s="11"/>
-      <c r="AD104" s="11"/>
-    </row>
-    <row r="105" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C105" s="5"/>
-    </row>
-    <row r="106" spans="2:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C106" s="9" t="s">
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="11"/>
+      <c r="P115" s="11"/>
+      <c r="Q115" s="11"/>
+      <c r="R115" s="11"/>
+      <c r="S115" s="11"/>
+      <c r="T115" s="11"/>
+      <c r="U115" s="11"/>
+      <c r="V115" s="11"/>
+      <c r="W115" s="11"/>
+      <c r="X115" s="11"/>
+      <c r="Y115" s="11"/>
+      <c r="Z115" s="11"/>
+      <c r="AA115" s="11"/>
+      <c r="AB115" s="11"/>
+      <c r="AC115" s="11"/>
+      <c r="AD115" s="11"/>
+    </row>
+    <row r="116" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C116" s="5"/>
+    </row>
+    <row r="117" spans="2:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C117" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
-      <c r="R106" s="1"/>
-      <c r="S106" s="1"/>
-      <c r="T106" s="1"/>
-      <c r="U106" s="1"/>
-      <c r="V106" s="1"/>
-      <c r="W106" s="1"/>
-      <c r="X106" s="1"/>
-      <c r="Y106" s="1"/>
-      <c r="Z106" s="1"/>
-      <c r="AA106" s="1"/>
-      <c r="AB106" s="1"/>
-      <c r="AC106" s="1"/>
-      <c r="AD106" s="1"/>
-    </row>
-    <row r="107" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C107" s="5"/>
-    </row>
-    <row r="108" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C108" s="12" t="s">
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+      <c r="X117" s="1"/>
+      <c r="Y117" s="1"/>
+      <c r="Z117" s="1"/>
+      <c r="AA117" s="1"/>
+      <c r="AB117" s="1"/>
+      <c r="AC117" s="1"/>
+      <c r="AD117" s="1"/>
+    </row>
+    <row r="118" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C118" s="5"/>
+    </row>
+    <row r="119" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C119" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="2:30" ht="36" x14ac:dyDescent="0.7">
-      <c r="C110" s="4" t="s">
+    <row r="121" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="C121" s="4" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{A56B6386-3958-43DF-A396-4E364AABC98B}"/>
+    <hyperlink ref="S15" r:id="rId2" location="i-11" xr:uid="{C3665EAF-5797-4B4F-BB8A-75A96BA4F496}"/>
+    <hyperlink ref="S16" r:id="rId3" xr:uid="{DF58F74E-8ABE-4D97-A53A-FE9CBEA7AA8F}"/>
+    <hyperlink ref="R17" r:id="rId4" xr:uid="{ECFA0BC9-4E77-49F4-AFB4-931B964F7B8E}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{C42553CB-B3F2-4214-8F4D-A00366B127C8}"/>
+    <hyperlink ref="T18" r:id="rId6" xr:uid="{BDDD8EA0-DD91-48E3-A65D-A7F8965AB8C8}"/>
+    <hyperlink ref="O19" r:id="rId7" xr:uid="{D80FDE63-B1F5-4991-863F-C3B974264D94}"/>
+    <hyperlink ref="R20" r:id="rId8" xr:uid="{55F02C79-C75F-4FD6-BFDA-4BF481FBF6B0}"/>
+    <hyperlink ref="Q21" r:id="rId9" xr:uid="{D98E317C-78C3-419D-BF18-ACBD62275C5C}"/>
+    <hyperlink ref="O22" r:id="rId10" xr:uid="{0889ECCF-0DAB-4D2F-AC25-3C5A16B3B609}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12491,20 +12649,20 @@
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
@@ -12513,32 +12671,32 @@
         <v>4 文字</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:30" ht="28.9" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:30" ht="30" x14ac:dyDescent="0.4">
       <c r="C34" s="10" t="s">
         <v>39</v>
       </c>
@@ -12570,10 +12728,10 @@
       <c r="AC34" s="11"/>
       <c r="AD34" s="11"/>
     </row>
-    <row r="35" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="2:30" ht="23.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="2:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C36" s="9" t="s">
         <v>38</v>
       </c>
@@ -12605,15 +12763,15 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C38" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="2:30" ht="36" x14ac:dyDescent="0.7">
+    <row r="40" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
       <c r="C40" s="4" t="s">
         <v>47</v>
       </c>

--- a/アフィリエイト_商品.xlsx
+++ b/アフィリエイト_商品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\aff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49C5073-AC58-4DEB-A5D7-12E17CDD6B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C326C80-39F1-40DD-8AC1-15C85BD81899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="499">
   <si>
     <r>
       <t>もっと詳しく知りたい方は</t>
@@ -7108,9 +7108,6 @@
     <t>デコつる アトピー 口コミ</t>
   </si>
   <si>
-    <t>デコつる サプリ 口コミ</t>
-  </si>
-  <si>
     <t>デコつる 知恵袋</t>
   </si>
   <si>
@@ -8172,6 +8169,21 @@
   <si>
     <t>https://www.bauers-kamna.cz/</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリシュ</t>
+  </si>
+  <si>
+    <t>ハリシュ 口コミ</t>
+  </si>
+  <si>
+    <t>ハリシュ 評判</t>
+  </si>
+  <si>
+    <t>ハリシュ 効果</t>
+  </si>
+  <si>
+    <t>デコつる 嘘</t>
   </si>
 </sst>
 </file>
@@ -9142,22 +9154,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AD485"/>
+  <dimension ref="A1:AD488"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
@@ -9165,7 +9179,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
@@ -9174,2905 +9188,2921 @@
         <v>30 文字</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="13" t="s">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>494</v>
+      </c>
+      <c r="O14" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="13" t="s">
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>495</v>
+      </c>
+      <c r="O15" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="6" t="s">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" t="s">
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D23" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" t="s">
-        <v>102</v>
+      <c r="E25" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E27" t="s">
+    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E30" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D30" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D32" t="s">
+    <row r="35" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E33" t="s">
+    <row r="36" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E34" t="s">
+    <row r="37" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E37" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C35" t="s">
+    <row r="38" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C38" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D36" t="s">
+    <row r="39" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D39" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E37" t="s">
+    <row r="40" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E40" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E38" t="s">
+    <row r="41" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E41" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D39" t="s">
+    <row r="42" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D42" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E40" t="s">
+    <row r="43" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E43" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D41" t="s">
+    <row r="44" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D44" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E42" t="s">
+    <row r="45" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E45" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D43" t="s">
+    <row r="46" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E44" t="s">
+    <row r="47" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E47" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E45" t="s">
+    <row r="48" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E46" t="s">
+    <row r="49" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F47" t="s">
+    <row r="50" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F48" t="s">
+    <row r="51" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F51" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F49" t="s">
+    <row r="52" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F52" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D52" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="53" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D57" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E55" t="s">
+    <row r="58" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E58" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D56" t="s">
+    <row r="59" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D59" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E59" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="60" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E60" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E62" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C63" t="s">
-        <v>65</v>
+      <c r="E63" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D65" t="s">
+    <row r="68" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D66" t="s">
+    <row r="69" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D69" t="s">
         <v>68</v>
       </c>
-      <c r="Q66" s="13" t="s">
+      <c r="Q69" s="13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E67" t="s">
+    <row r="70" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E70" t="s">
         <v>67</v>
       </c>
-      <c r="Q67" s="13" t="s">
+      <c r="Q70" s="13" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D68" t="s">
+    <row r="71" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D71" t="s">
         <v>69</v>
       </c>
-      <c r="Q68" s="13" t="s">
+      <c r="Q71" s="13" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Q69" s="13" t="s">
+    <row r="72" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q72" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C71" t="s">
+    <row r="74" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C74" t="s">
         <v>70</v>
       </c>
-      <c r="Q71" s="13" t="s">
+      <c r="Q74" s="13" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="72" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G72" t="s">
-        <v>387</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q72" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="73" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G73" t="s">
-        <v>387</v>
-      </c>
-      <c r="H73" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q73" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="74" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H74" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="75" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G75" t="s">
         <v>387</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q75" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G76" t="s">
+        <v>387</v>
+      </c>
+      <c r="H76" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q76" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H77" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G78" t="s">
+        <v>387</v>
+      </c>
+      <c r="H78" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="77" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="6" t="s">
+    <row r="80" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="2:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="C78" s="10" t="s">
+    <row r="81" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C81" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
-      <c r="U78" s="11"/>
-      <c r="V78" s="11"/>
-      <c r="W78" s="11"/>
-      <c r="X78" s="11"/>
-      <c r="Y78" s="11"/>
-      <c r="Z78" s="11"/>
-      <c r="AA78" s="11"/>
-      <c r="AB78" s="11"/>
-      <c r="AC78" s="11"/>
-      <c r="AD78" s="11"/>
-    </row>
-    <row r="79" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="2:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C80" s="9" t="s">
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="11"/>
+      <c r="AA81" s="11"/>
+      <c r="AB81" s="11"/>
+      <c r="AC81" s="11"/>
+      <c r="AD81" s="11"/>
+    </row>
+    <row r="82" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" spans="2:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C83" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="1"/>
-      <c r="Y80" s="1"/>
-      <c r="Z80" s="1"/>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
-      <c r="AD80" s="1"/>
-    </row>
-    <row r="81" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C81" s="5"/>
-    </row>
-    <row r="82" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C82" s="12" t="s">
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+    </row>
+    <row r="84" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C84" s="5"/>
+    </row>
+    <row r="85" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C85" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="C84" s="4" t="s">
+    <row r="87" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="C87" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C85" t="s">
+    <row r="88" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C88" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="2:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="B87" t="s">
+    <row r="90" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="B90" t="s">
         <v>380</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11"/>
-      <c r="U87" s="11"/>
-      <c r="V87" s="11"/>
-      <c r="W87" s="11"/>
-      <c r="X87" s="11"/>
-      <c r="Y87" s="11"/>
-      <c r="Z87" s="11"/>
-      <c r="AA87" s="11"/>
-      <c r="AB87" s="11"/>
-      <c r="AC87" s="11"/>
-      <c r="AD87" s="11"/>
-    </row>
-    <row r="88" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C88" s="5"/>
-    </row>
-    <row r="89" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C89" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="90" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C90" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="91" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C91" t="s">
-        <v>384</v>
-      </c>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="11"/>
+      <c r="V90" s="11"/>
+      <c r="W90" s="11"/>
+      <c r="X90" s="11"/>
+      <c r="Y90" s="11"/>
+      <c r="Z90" s="11"/>
+      <c r="AA90" s="11"/>
+      <c r="AB90" s="11"/>
+      <c r="AC90" s="11"/>
+      <c r="AD90" s="11"/>
+    </row>
+    <row r="91" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C91" s="5"/>
     </row>
     <row r="92" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C92" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="93" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C93" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="94" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C94" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="95" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C95" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="94" spans="2:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="C94" s="10" t="s">
+    <row r="97" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C97" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="11"/>
-      <c r="N94" s="11"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="11"/>
-      <c r="R94" s="11"/>
-      <c r="S94" s="11"/>
-      <c r="T94" s="11"/>
-      <c r="U94" s="11"/>
-      <c r="V94" s="11"/>
-      <c r="W94" s="11"/>
-      <c r="X94" s="11"/>
-      <c r="Y94" s="11"/>
-      <c r="Z94" s="11"/>
-      <c r="AA94" s="11"/>
-      <c r="AB94" s="11"/>
-      <c r="AC94" s="11"/>
-      <c r="AD94" s="11"/>
-    </row>
-    <row r="95" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C95" s="5"/>
-    </row>
-    <row r="96" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C96" t="s">
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="11"/>
+      <c r="U97" s="11"/>
+      <c r="V97" s="11"/>
+      <c r="W97" s="11"/>
+      <c r="X97" s="11"/>
+      <c r="Y97" s="11"/>
+      <c r="Z97" s="11"/>
+      <c r="AA97" s="11"/>
+      <c r="AB97" s="11"/>
+      <c r="AC97" s="11"/>
+      <c r="AD97" s="11"/>
+    </row>
+    <row r="98" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C98" s="5"/>
+    </row>
+    <row r="99" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C99" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="98" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C98" s="9" t="s">
+    <row r="101" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C101" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
-      <c r="T98" s="1"/>
-      <c r="U98" s="1"/>
-      <c r="V98" s="1"/>
-      <c r="W98" s="1"/>
-      <c r="X98" s="1"/>
-      <c r="Y98" s="1"/>
-      <c r="Z98" s="1"/>
-      <c r="AA98" s="1"/>
-      <c r="AB98" s="1"/>
-      <c r="AC98" s="1"/>
-      <c r="AD98" s="1"/>
-    </row>
-    <row r="99" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C100" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="102" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C102" t="s">
-        <v>115</v>
-      </c>
-    </row>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
+      <c r="AD101" s="1"/>
+    </row>
+    <row r="102" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="103" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C103" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C105" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C106" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C108" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C109" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C107" t="s">
+    <row r="110" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C110" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C109" s="9" t="s">
+    <row r="112" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C112" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
-      <c r="T109" s="1"/>
-      <c r="U109" s="1"/>
-      <c r="V109" s="1"/>
-      <c r="W109" s="1"/>
-      <c r="X109" s="1"/>
-      <c r="Y109" s="1"/>
-      <c r="Z109" s="1"/>
-      <c r="AA109" s="1"/>
-      <c r="AB109" s="1"/>
-      <c r="AC109" s="1"/>
-      <c r="AD109" s="1"/>
-    </row>
-    <row r="110" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C111" t="s">
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+      <c r="AB112" s="1"/>
+      <c r="AC112" s="1"/>
+      <c r="AD112" s="1"/>
+    </row>
+    <row r="113" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C114" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C113" s="12" t="s">
+    <row r="116" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C116" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C115" t="s">
+    <row r="117" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C118" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="116" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C116" t="s">
+    <row r="119" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C119" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C117" t="s">
+    <row r="120" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C120" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="119" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C119" s="12" t="s">
+    <row r="122" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C122" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="120" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C121" t="s">
+    <row r="123" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C124" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="122" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C122" t="s">
+    <row r="125" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C125" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="123" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C123" t="s">
+    <row r="126" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C126" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C124" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C125" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C126" s="14" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="127" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C127" s="14" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C128" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C129" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C130" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="131" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C131" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="130" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C130" s="12" t="s">
+    <row r="133" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C133" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C132" s="15" t="s">
+    <row r="134" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C135" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="133" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C133" s="14" t="s">
+    <row r="136" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C136" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C134" s="15" t="s">
+    <row r="137" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C137" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="137" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C137" s="9" t="s">
+    <row r="140" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C140" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
-      <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
-      <c r="R137" s="1"/>
-      <c r="S137" s="1"/>
-      <c r="T137" s="1"/>
-      <c r="U137" s="1"/>
-      <c r="V137" s="1"/>
-      <c r="W137" s="1"/>
-      <c r="X137" s="1"/>
-      <c r="Y137" s="1"/>
-      <c r="Z137" s="1"/>
-      <c r="AA137" s="1"/>
-      <c r="AB137" s="1"/>
-      <c r="AC137" s="1"/>
-      <c r="AD137" s="1"/>
-    </row>
-    <row r="138" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C139" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="140" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C140" s="6"/>
-    </row>
-    <row r="141" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C141" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+      <c r="T140" s="1"/>
+      <c r="U140" s="1"/>
+      <c r="V140" s="1"/>
+      <c r="W140" s="1"/>
+      <c r="X140" s="1"/>
+      <c r="Y140" s="1"/>
+      <c r="Z140" s="1"/>
+      <c r="AA140" s="1"/>
+      <c r="AB140" s="1"/>
+      <c r="AC140" s="1"/>
+      <c r="AD140" s="1"/>
+    </row>
+    <row r="141" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="142" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C142" t="s">
-        <v>138</v>
-      </c>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="143" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C143" s="6"/>
     </row>
     <row r="144" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C144" t="s">
-        <v>148</v>
+      <c r="C144" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C145" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="146" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C146" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C147" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C148" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C149" s="16" t="s">
-        <v>150</v>
+      <c r="C149" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="151" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C151" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C152" t="s">
-        <v>151</v>
+      <c r="C152" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C154" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="155" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C155" s="16" t="s">
-        <v>153</v>
+      <c r="C155" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C157" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C158" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C160" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C158" t="s">
+    <row r="161" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C161" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="159" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C159" s="16" t="s">
+    <row r="162" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C162" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="161" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C161" s="12" t="s">
+    <row r="164" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C164" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="162" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C163" t="s">
+    <row r="165" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C166" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="165" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C165" t="s">
+    <row r="168" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C168" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="167" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C167" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="168" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C168" s="16" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="170" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C170" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C171" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="173" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C173" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="174" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C174" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="173" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C173" s="9" t="s">
+    <row r="176" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C176" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
-      <c r="K173" s="1"/>
-      <c r="L173" s="1"/>
-      <c r="M173" s="1"/>
-      <c r="N173" s="1"/>
-      <c r="O173" s="1"/>
-      <c r="P173" s="1"/>
-      <c r="Q173" s="1"/>
-      <c r="R173" s="1"/>
-      <c r="S173" s="1"/>
-      <c r="T173" s="1"/>
-      <c r="U173" s="1"/>
-      <c r="V173" s="1"/>
-      <c r="W173" s="1"/>
-      <c r="X173" s="1"/>
-      <c r="Y173" s="1"/>
-      <c r="Z173" s="1"/>
-      <c r="AA173" s="1"/>
-      <c r="AB173" s="1"/>
-      <c r="AC173" s="1"/>
-      <c r="AD173" s="1"/>
-    </row>
-    <row r="174" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C175" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="176" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C176" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="177" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C177" t="s">
-        <v>197</v>
-      </c>
-    </row>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
+      <c r="U176" s="1"/>
+      <c r="V176" s="1"/>
+      <c r="W176" s="1"/>
+      <c r="X176" s="1"/>
+      <c r="Y176" s="1"/>
+      <c r="Z176" s="1"/>
+      <c r="AA176" s="1"/>
+      <c r="AB176" s="1"/>
+      <c r="AC176" s="1"/>
+      <c r="AD176" s="1"/>
+    </row>
+    <row r="177" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="178" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C178" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
     </row>
     <row r="179" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C179" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="180" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C180" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
     </row>
     <row r="181" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C181" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="182" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C182" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="183" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C183" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="184" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C184" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="184" spans="3:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="C184" s="10" t="s">
+    <row r="187" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C187" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D184" s="11"/>
-      <c r="E184" s="11"/>
-      <c r="F184" s="11"/>
-      <c r="G184" s="11"/>
-      <c r="H184" s="11"/>
-      <c r="I184" s="11"/>
-      <c r="J184" s="11"/>
-      <c r="K184" s="11"/>
-      <c r="L184" s="11"/>
-      <c r="M184" s="11"/>
-      <c r="N184" s="11"/>
-      <c r="O184" s="11"/>
-      <c r="P184" s="11"/>
-      <c r="Q184" s="11"/>
-      <c r="R184" s="11"/>
-      <c r="S184" s="11"/>
-      <c r="T184" s="11"/>
-      <c r="U184" s="11"/>
-      <c r="V184" s="11"/>
-      <c r="W184" s="11"/>
-      <c r="X184" s="11"/>
-      <c r="Y184" s="11"/>
-      <c r="Z184" s="11"/>
-      <c r="AA184" s="11"/>
-      <c r="AB184" s="11"/>
-      <c r="AC184" s="11"/>
-      <c r="AD184" s="11"/>
-    </row>
-    <row r="185" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C185" s="5"/>
-    </row>
-    <row r="186" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C186" t="s">
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="11"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="11"/>
+      <c r="L187" s="11"/>
+      <c r="M187" s="11"/>
+      <c r="N187" s="11"/>
+      <c r="O187" s="11"/>
+      <c r="P187" s="11"/>
+      <c r="Q187" s="11"/>
+      <c r="R187" s="11"/>
+      <c r="S187" s="11"/>
+      <c r="T187" s="11"/>
+      <c r="U187" s="11"/>
+      <c r="V187" s="11"/>
+      <c r="W187" s="11"/>
+      <c r="X187" s="11"/>
+      <c r="Y187" s="11"/>
+      <c r="Z187" s="11"/>
+      <c r="AA187" s="11"/>
+      <c r="AB187" s="11"/>
+      <c r="AC187" s="11"/>
+      <c r="AD187" s="11"/>
+    </row>
+    <row r="188" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C188" s="5"/>
+    </row>
+    <row r="189" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C189" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="187" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C187" t="s">
+    <row r="190" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C190" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="189" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C189" s="9" t="s">
+    <row r="192" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C192" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
-      <c r="K189" s="1"/>
-      <c r="L189" s="1"/>
-      <c r="M189" s="1"/>
-      <c r="N189" s="1"/>
-      <c r="O189" s="1"/>
-      <c r="P189" s="1"/>
-      <c r="Q189" s="1"/>
-      <c r="R189" s="1"/>
-      <c r="S189" s="1"/>
-      <c r="T189" s="1"/>
-      <c r="U189" s="1"/>
-      <c r="V189" s="1"/>
-      <c r="W189" s="1"/>
-      <c r="X189" s="1"/>
-      <c r="Y189" s="1"/>
-      <c r="Z189" s="1"/>
-      <c r="AA189" s="1"/>
-      <c r="AB189" s="1"/>
-      <c r="AC189" s="1"/>
-      <c r="AD189" s="1"/>
-    </row>
-    <row r="190" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C190" s="5"/>
-    </row>
-    <row r="191" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C191" s="6" t="s">
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+      <c r="P192" s="1"/>
+      <c r="Q192" s="1"/>
+      <c r="R192" s="1"/>
+      <c r="S192" s="1"/>
+      <c r="T192" s="1"/>
+      <c r="U192" s="1"/>
+      <c r="V192" s="1"/>
+      <c r="W192" s="1"/>
+      <c r="X192" s="1"/>
+      <c r="Y192" s="1"/>
+      <c r="Z192" s="1"/>
+      <c r="AA192" s="1"/>
+      <c r="AB192" s="1"/>
+      <c r="AC192" s="1"/>
+      <c r="AD192" s="1"/>
+    </row>
+    <row r="193" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C193" s="5"/>
+    </row>
+    <row r="194" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C194" s="6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="192" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C192" t="s">
+    <row r="195" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C195" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="193" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C193" t="s">
+    <row r="196" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C196" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="194" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C194" t="s">
+    <row r="197" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C197" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="195" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C195" t="s">
+    <row r="198" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C198" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="196" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C196" t="s">
+    <row r="199" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C199" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="197" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C197" t="s">
+    <row r="200" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C200" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="198" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C198" s="6" t="s">
+    <row r="201" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C201" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="199" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C199" t="s">
+    <row r="202" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C202" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="200" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C200" t="s">
+    <row r="203" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C203" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="201" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C201" t="s">
+    <row r="204" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C204" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="202" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C202" s="6" t="s">
+    <row r="205" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C205" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="203" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C203" t="s">
+    <row r="206" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C206" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="204" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C204" t="s">
+    <row r="207" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C207" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="206" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C206" s="9" t="s">
+    <row r="209" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C209" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
-      <c r="H206" s="1"/>
-      <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
-      <c r="K206" s="1"/>
-      <c r="L206" s="1"/>
-      <c r="M206" s="1"/>
-      <c r="N206" s="1"/>
-      <c r="O206" s="1"/>
-      <c r="P206" s="1"/>
-      <c r="Q206" s="1"/>
-      <c r="R206" s="1"/>
-      <c r="S206" s="1"/>
-      <c r="T206" s="1"/>
-      <c r="U206" s="1"/>
-      <c r="V206" s="1"/>
-      <c r="W206" s="1"/>
-      <c r="X206" s="1"/>
-      <c r="Y206" s="1"/>
-      <c r="Z206" s="1"/>
-      <c r="AA206" s="1"/>
-      <c r="AB206" s="1"/>
-      <c r="AC206" s="1"/>
-      <c r="AD206" s="1"/>
-    </row>
-    <row r="207" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C208" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="209" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C209" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="210" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C210" t="s">
-        <v>397</v>
-      </c>
-    </row>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="T209" s="1"/>
+      <c r="U209" s="1"/>
+      <c r="V209" s="1"/>
+      <c r="W209" s="1"/>
+      <c r="X209" s="1"/>
+      <c r="Y209" s="1"/>
+      <c r="Z209" s="1"/>
+      <c r="AA209" s="1"/>
+      <c r="AB209" s="1"/>
+      <c r="AC209" s="1"/>
+      <c r="AD209" s="1"/>
+    </row>
+    <row r="210" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="211" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C211" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="212" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C212" t="s">
-        <v>173</v>
+        <v>396</v>
       </c>
     </row>
     <row r="213" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C213" s="16" t="s">
-        <v>174</v>
+      <c r="C213" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="214" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C214" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="215" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C215" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="216" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C216" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="217" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C217" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="216" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C216" s="9" t="s">
+    <row r="219" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C219" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
-      <c r="J216" s="1"/>
-      <c r="K216" s="1"/>
-      <c r="L216" s="1"/>
-      <c r="M216" s="1"/>
-      <c r="N216" s="1"/>
-      <c r="O216" s="1"/>
-      <c r="P216" s="1"/>
-      <c r="Q216" s="1"/>
-      <c r="R216" s="1"/>
-      <c r="S216" s="1"/>
-      <c r="T216" s="1"/>
-      <c r="U216" s="1"/>
-      <c r="V216" s="1"/>
-      <c r="W216" s="1"/>
-      <c r="X216" s="1"/>
-      <c r="Y216" s="1"/>
-      <c r="Z216" s="1"/>
-      <c r="AA216" s="1"/>
-      <c r="AB216" s="1"/>
-      <c r="AC216" s="1"/>
-      <c r="AD216" s="1"/>
-    </row>
-    <row r="217" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C218" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="219" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C219" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="220" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C220" t="s">
-        <v>176</v>
-      </c>
-    </row>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
+      <c r="U219" s="1"/>
+      <c r="V219" s="1"/>
+      <c r="W219" s="1"/>
+      <c r="X219" s="1"/>
+      <c r="Y219" s="1"/>
+      <c r="Z219" s="1"/>
+      <c r="AA219" s="1"/>
+      <c r="AB219" s="1"/>
+      <c r="AC219" s="1"/>
+      <c r="AD219" s="1"/>
+    </row>
+    <row r="220" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="221" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C221" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C222" t="s">
-        <v>402</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="223" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C223" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="224" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C224" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="225" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C225" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="227" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C227" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="227" spans="3:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="C227" s="10" t="s">
+    <row r="230" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C230" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D227" s="11"/>
-      <c r="E227" s="11"/>
-      <c r="F227" s="11"/>
-      <c r="G227" s="11"/>
-      <c r="H227" s="11"/>
-      <c r="I227" s="11"/>
-      <c r="J227" s="11"/>
-      <c r="K227" s="11"/>
-      <c r="L227" s="11"/>
-      <c r="M227" s="11"/>
-      <c r="N227" s="11"/>
-      <c r="O227" s="11"/>
-      <c r="P227" s="11"/>
-      <c r="Q227" s="11"/>
-      <c r="R227" s="11"/>
-      <c r="S227" s="11"/>
-      <c r="T227" s="11"/>
-      <c r="U227" s="11"/>
-      <c r="V227" s="11"/>
-      <c r="W227" s="11"/>
-      <c r="X227" s="11"/>
-      <c r="Y227" s="11"/>
-      <c r="Z227" s="11"/>
-      <c r="AA227" s="11"/>
-      <c r="AB227" s="11"/>
-      <c r="AC227" s="11"/>
-      <c r="AD227" s="11"/>
-    </row>
-    <row r="228" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C228" s="5"/>
-    </row>
-    <row r="229" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C229" t="s">
+      <c r="D230" s="11"/>
+      <c r="E230" s="11"/>
+      <c r="F230" s="11"/>
+      <c r="G230" s="11"/>
+      <c r="H230" s="11"/>
+      <c r="I230" s="11"/>
+      <c r="J230" s="11"/>
+      <c r="K230" s="11"/>
+      <c r="L230" s="11"/>
+      <c r="M230" s="11"/>
+      <c r="N230" s="11"/>
+      <c r="O230" s="11"/>
+      <c r="P230" s="11"/>
+      <c r="Q230" s="11"/>
+      <c r="R230" s="11"/>
+      <c r="S230" s="11"/>
+      <c r="T230" s="11"/>
+      <c r="U230" s="11"/>
+      <c r="V230" s="11"/>
+      <c r="W230" s="11"/>
+      <c r="X230" s="11"/>
+      <c r="Y230" s="11"/>
+      <c r="Z230" s="11"/>
+      <c r="AA230" s="11"/>
+      <c r="AB230" s="11"/>
+      <c r="AC230" s="11"/>
+      <c r="AD230" s="11"/>
+    </row>
+    <row r="231" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C231" s="5"/>
+    </row>
+    <row r="232" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C232" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="231" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C231" s="9" t="s">
+    <row r="234" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C234" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
-      <c r="I231" s="1"/>
-      <c r="J231" s="1"/>
-      <c r="K231" s="1"/>
-      <c r="L231" s="1"/>
-      <c r="M231" s="1"/>
-      <c r="N231" s="1"/>
-      <c r="O231" s="1"/>
-      <c r="P231" s="1"/>
-      <c r="Q231" s="1"/>
-      <c r="R231" s="1"/>
-      <c r="S231" s="1"/>
-      <c r="T231" s="1"/>
-      <c r="U231" s="1"/>
-      <c r="V231" s="1"/>
-      <c r="W231" s="1"/>
-      <c r="X231" s="1"/>
-      <c r="Y231" s="1"/>
-      <c r="Z231" s="1"/>
-      <c r="AA231" s="1"/>
-      <c r="AB231" s="1"/>
-      <c r="AC231" s="1"/>
-      <c r="AD231" s="1"/>
-    </row>
-    <row r="232" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C232" s="5"/>
-    </row>
-    <row r="233" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C233" t="s">
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+      <c r="P234" s="1"/>
+      <c r="Q234" s="1"/>
+      <c r="R234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="T234" s="1"/>
+      <c r="U234" s="1"/>
+      <c r="V234" s="1"/>
+      <c r="W234" s="1"/>
+      <c r="X234" s="1"/>
+      <c r="Y234" s="1"/>
+      <c r="Z234" s="1"/>
+      <c r="AA234" s="1"/>
+      <c r="AB234" s="1"/>
+      <c r="AC234" s="1"/>
+      <c r="AD234" s="1"/>
+    </row>
+    <row r="235" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C235" s="5"/>
+    </row>
+    <row r="236" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C236" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="235" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C235" s="12" t="s">
+    <row r="238" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C238" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="236" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C236" s="5"/>
-    </row>
-    <row r="237" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C237" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="239" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C239" t="s">
-        <v>179</v>
-      </c>
+    <row r="239" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C239" s="5"/>
     </row>
     <row r="240" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C240" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="241" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C241" t="s">
-        <v>234</v>
+        <v>404</v>
       </c>
     </row>
     <row r="242" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C242" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="243" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C243" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="244" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C244" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="245" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C245" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="246" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C246" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="247" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C247" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
     </row>
     <row r="248" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C248" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
     </row>
     <row r="249" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C249" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="250" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C250" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="251" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C251" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="252" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C252" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
     </row>
     <row r="253" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C253" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
     </row>
     <row r="254" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C254" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="255" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C255" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="256" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C256" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
     </row>
     <row r="257" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C257" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="258" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C258" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="259" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C259" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="260" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C260" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="259" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C259" s="12" t="s">
+    <row r="262" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C262" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="260" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C260" s="5"/>
-    </row>
-    <row r="261" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C261" t="s">
+    <row r="263" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C263" s="5"/>
+    </row>
+    <row r="264" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C264" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="262" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C262" t="s">
+    <row r="265" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C265" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="264" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C264" s="9" t="s">
+    <row r="267" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C267" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
-      <c r="F264" s="1"/>
-      <c r="G264" s="1"/>
-      <c r="H264" s="1"/>
-      <c r="I264" s="1"/>
-      <c r="J264" s="1"/>
-      <c r="K264" s="1"/>
-      <c r="L264" s="1"/>
-      <c r="M264" s="1"/>
-      <c r="N264" s="1"/>
-      <c r="O264" s="1"/>
-      <c r="P264" s="1"/>
-      <c r="Q264" s="1"/>
-      <c r="R264" s="1"/>
-      <c r="S264" s="1"/>
-      <c r="T264" s="1"/>
-      <c r="U264" s="1"/>
-      <c r="V264" s="1"/>
-      <c r="W264" s="1"/>
-      <c r="X264" s="1"/>
-      <c r="Y264" s="1"/>
-      <c r="Z264" s="1"/>
-      <c r="AA264" s="1"/>
-      <c r="AB264" s="1"/>
-      <c r="AC264" s="1"/>
-      <c r="AD264" s="1"/>
-    </row>
-    <row r="265" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C266" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="267" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C267" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="268" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C268" t="s">
-        <v>188</v>
-      </c>
-    </row>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
+      <c r="J267" s="1"/>
+      <c r="K267" s="1"/>
+      <c r="L267" s="1"/>
+      <c r="M267" s="1"/>
+      <c r="N267" s="1"/>
+      <c r="O267" s="1"/>
+      <c r="P267" s="1"/>
+      <c r="Q267" s="1"/>
+      <c r="R267" s="1"/>
+      <c r="S267" s="1"/>
+      <c r="T267" s="1"/>
+      <c r="U267" s="1"/>
+      <c r="V267" s="1"/>
+      <c r="W267" s="1"/>
+      <c r="X267" s="1"/>
+      <c r="Y267" s="1"/>
+      <c r="Z267" s="1"/>
+      <c r="AA267" s="1"/>
+      <c r="AB267" s="1"/>
+      <c r="AC267" s="1"/>
+      <c r="AD267" s="1"/>
+    </row>
+    <row r="268" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="269" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C269" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="270" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C270" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="271" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C271" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="272" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C272" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="273" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C273" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="274" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C274" t="s">
-        <v>405</v>
+        <v>191</v>
       </c>
     </row>
     <row r="275" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C275" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="276" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C276" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
     </row>
     <row r="277" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C277" t="s">
-        <v>244</v>
+        <v>405</v>
       </c>
     </row>
     <row r="278" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C278" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
     </row>
     <row r="279" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C279" s="12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="280" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C280" s="5"/>
+      <c r="C279" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="280" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C280" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="281" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C281" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="282" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C282" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="283" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C283" s="5"/>
+    </row>
+    <row r="284" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C284" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="282" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C282" t="s">
+    <row r="285" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C285" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="284" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C284" s="9" t="s">
+    <row r="287" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C287" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D284" s="1"/>
-      <c r="E284" s="1"/>
-      <c r="F284" s="1"/>
-      <c r="G284" s="1"/>
-      <c r="H284" s="1"/>
-      <c r="I284" s="1"/>
-      <c r="J284" s="1"/>
-      <c r="K284" s="1"/>
-      <c r="L284" s="1"/>
-      <c r="M284" s="1"/>
-      <c r="N284" s="1"/>
-      <c r="O284" s="1"/>
-      <c r="P284" s="1"/>
-      <c r="Q284" s="1"/>
-      <c r="R284" s="1"/>
-      <c r="S284" s="1"/>
-      <c r="T284" s="1"/>
-      <c r="U284" s="1"/>
-      <c r="V284" s="1"/>
-      <c r="W284" s="1"/>
-      <c r="X284" s="1"/>
-      <c r="Y284" s="1"/>
-      <c r="Z284" s="1"/>
-      <c r="AA284" s="1"/>
-      <c r="AB284" s="1"/>
-      <c r="AC284" s="1"/>
-      <c r="AD284" s="1"/>
-    </row>
-    <row r="285" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C286" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="287" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C287" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="288" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C288" t="s">
-        <v>187</v>
-      </c>
-    </row>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="I287" s="1"/>
+      <c r="J287" s="1"/>
+      <c r="K287" s="1"/>
+      <c r="L287" s="1"/>
+      <c r="M287" s="1"/>
+      <c r="N287" s="1"/>
+      <c r="O287" s="1"/>
+      <c r="P287" s="1"/>
+      <c r="Q287" s="1"/>
+      <c r="R287" s="1"/>
+      <c r="S287" s="1"/>
+      <c r="T287" s="1"/>
+      <c r="U287" s="1"/>
+      <c r="V287" s="1"/>
+      <c r="W287" s="1"/>
+      <c r="X287" s="1"/>
+      <c r="Y287" s="1"/>
+      <c r="Z287" s="1"/>
+      <c r="AA287" s="1"/>
+      <c r="AB287" s="1"/>
+      <c r="AC287" s="1"/>
+      <c r="AD287" s="1"/>
+    </row>
+    <row r="288" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="289" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C289" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="291" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C291" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D291" s="1"/>
-      <c r="E291" s="1"/>
-      <c r="F291" s="1"/>
-      <c r="G291" s="1"/>
-      <c r="H291" s="1"/>
-      <c r="I291" s="1"/>
-      <c r="J291" s="1"/>
-      <c r="K291" s="1"/>
-      <c r="L291" s="1"/>
-      <c r="M291" s="1"/>
-      <c r="N291" s="1"/>
-      <c r="O291" s="1"/>
-      <c r="P291" s="1"/>
-      <c r="Q291" s="1"/>
-      <c r="R291" s="1"/>
-      <c r="S291" s="1"/>
-      <c r="T291" s="1"/>
-      <c r="U291" s="1"/>
-      <c r="V291" s="1"/>
-      <c r="W291" s="1"/>
-      <c r="X291" s="1"/>
-      <c r="Y291" s="1"/>
-      <c r="Z291" s="1"/>
-      <c r="AA291" s="1"/>
-      <c r="AB291" s="1"/>
-      <c r="AC291" s="1"/>
-      <c r="AD291" s="1"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="290" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C290" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="291" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C291" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="292" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C292" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="293" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C293" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="294" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C294" t="s">
-        <v>252</v>
-      </c>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="294" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C294" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1"/>
+      <c r="I294" s="1"/>
+      <c r="J294" s="1"/>
+      <c r="K294" s="1"/>
+      <c r="L294" s="1"/>
+      <c r="M294" s="1"/>
+      <c r="N294" s="1"/>
+      <c r="O294" s="1"/>
+      <c r="P294" s="1"/>
+      <c r="Q294" s="1"/>
+      <c r="R294" s="1"/>
+      <c r="S294" s="1"/>
+      <c r="T294" s="1"/>
+      <c r="U294" s="1"/>
+      <c r="V294" s="1"/>
+      <c r="W294" s="1"/>
+      <c r="X294" s="1"/>
+      <c r="Y294" s="1"/>
+      <c r="Z294" s="1"/>
+      <c r="AA294" s="1"/>
+      <c r="AB294" s="1"/>
+      <c r="AC294" s="1"/>
+      <c r="AD294" s="1"/>
     </row>
     <row r="295" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C295" t="s">
-        <v>248</v>
+        <v>86</v>
       </c>
     </row>
     <row r="296" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C296" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="297" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C297" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="298" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C298" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="299" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C299" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="300" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C300" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="301" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C301" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="300" spans="3:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="C300" s="10" t="s">
+    <row r="303" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C303" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D300" s="11"/>
-      <c r="E300" s="11"/>
-      <c r="F300" s="11"/>
-      <c r="G300" s="11"/>
-      <c r="H300" s="11"/>
-      <c r="I300" s="11"/>
-      <c r="J300" s="11"/>
-      <c r="K300" s="11"/>
-      <c r="L300" s="11"/>
-      <c r="M300" s="11"/>
-      <c r="N300" s="11"/>
-      <c r="O300" s="11"/>
-      <c r="P300" s="11"/>
-      <c r="Q300" s="11"/>
-      <c r="R300" s="11"/>
-      <c r="S300" s="11"/>
-      <c r="T300" s="11"/>
-      <c r="U300" s="11"/>
-      <c r="V300" s="11"/>
-      <c r="W300" s="11"/>
-      <c r="X300" s="11"/>
-      <c r="Y300" s="11"/>
-      <c r="Z300" s="11"/>
-      <c r="AA300" s="11"/>
-      <c r="AB300" s="11"/>
-      <c r="AC300" s="11"/>
-      <c r="AD300" s="11"/>
-    </row>
-    <row r="301" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C301" s="5"/>
-    </row>
-    <row r="302" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C302" t="s">
+      <c r="D303" s="11"/>
+      <c r="E303" s="11"/>
+      <c r="F303" s="11"/>
+      <c r="G303" s="11"/>
+      <c r="H303" s="11"/>
+      <c r="I303" s="11"/>
+      <c r="J303" s="11"/>
+      <c r="K303" s="11"/>
+      <c r="L303" s="11"/>
+      <c r="M303" s="11"/>
+      <c r="N303" s="11"/>
+      <c r="O303" s="11"/>
+      <c r="P303" s="11"/>
+      <c r="Q303" s="11"/>
+      <c r="R303" s="11"/>
+      <c r="S303" s="11"/>
+      <c r="T303" s="11"/>
+      <c r="U303" s="11"/>
+      <c r="V303" s="11"/>
+      <c r="W303" s="11"/>
+      <c r="X303" s="11"/>
+      <c r="Y303" s="11"/>
+      <c r="Z303" s="11"/>
+      <c r="AA303" s="11"/>
+      <c r="AB303" s="11"/>
+      <c r="AC303" s="11"/>
+      <c r="AD303" s="11"/>
+    </row>
+    <row r="304" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C304" s="5"/>
+    </row>
+    <row r="305" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C305" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="303" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C303" t="s">
+    <row r="306" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C306" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="305" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C305" s="9" t="s">
+    <row r="308" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C308" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="D305" s="1"/>
-      <c r="E305" s="1"/>
-      <c r="F305" s="1"/>
-      <c r="G305" s="1"/>
-      <c r="H305" s="1"/>
-      <c r="I305" s="1"/>
-      <c r="J305" s="1"/>
-      <c r="K305" s="1"/>
-      <c r="L305" s="1"/>
-      <c r="M305" s="1"/>
-      <c r="N305" s="1"/>
-      <c r="O305" s="1"/>
-      <c r="P305" s="1"/>
-      <c r="Q305" s="1"/>
-      <c r="R305" s="1"/>
-      <c r="S305" s="1"/>
-      <c r="T305" s="1"/>
-      <c r="U305" s="1"/>
-      <c r="V305" s="1"/>
-      <c r="W305" s="1"/>
-      <c r="X305" s="1"/>
-      <c r="Y305" s="1"/>
-      <c r="Z305" s="1"/>
-      <c r="AA305" s="1"/>
-      <c r="AB305" s="1"/>
-      <c r="AC305" s="1"/>
-      <c r="AD305" s="1"/>
-    </row>
-    <row r="306" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C307" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="308" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C308" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="309" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C309" t="s">
-        <v>256</v>
-      </c>
-    </row>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+      <c r="G308" s="1"/>
+      <c r="H308" s="1"/>
+      <c r="I308" s="1"/>
+      <c r="J308" s="1"/>
+      <c r="K308" s="1"/>
+      <c r="L308" s="1"/>
+      <c r="M308" s="1"/>
+      <c r="N308" s="1"/>
+      <c r="O308" s="1"/>
+      <c r="P308" s="1"/>
+      <c r="Q308" s="1"/>
+      <c r="R308" s="1"/>
+      <c r="S308" s="1"/>
+      <c r="T308" s="1"/>
+      <c r="U308" s="1"/>
+      <c r="V308" s="1"/>
+      <c r="W308" s="1"/>
+      <c r="X308" s="1"/>
+      <c r="Y308" s="1"/>
+      <c r="Z308" s="1"/>
+      <c r="AA308" s="1"/>
+      <c r="AB308" s="1"/>
+      <c r="AC308" s="1"/>
+      <c r="AD308" s="1"/>
+    </row>
+    <row r="309" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="310" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C310" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="311" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C311" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="312" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C312" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="313" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C313" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="312" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C312" s="9" t="s">
+    <row r="315" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C315" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D312" s="1"/>
-      <c r="E312" s="1"/>
-      <c r="F312" s="1"/>
-      <c r="G312" s="1"/>
-      <c r="H312" s="1"/>
-      <c r="I312" s="1"/>
-      <c r="J312" s="1"/>
-      <c r="K312" s="1"/>
-      <c r="L312" s="1"/>
-      <c r="M312" s="1"/>
-      <c r="N312" s="1"/>
-      <c r="O312" s="1"/>
-      <c r="P312" s="1"/>
-      <c r="Q312" s="1"/>
-      <c r="R312" s="1"/>
-      <c r="S312" s="1"/>
-      <c r="T312" s="1"/>
-      <c r="U312" s="1"/>
-      <c r="V312" s="1"/>
-      <c r="W312" s="1"/>
-      <c r="X312" s="1"/>
-      <c r="Y312" s="1"/>
-      <c r="Z312" s="1"/>
-      <c r="AA312" s="1"/>
-      <c r="AB312" s="1"/>
-      <c r="AC312" s="1"/>
-      <c r="AD312" s="1"/>
-    </row>
-    <row r="313" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C314" t="s">
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
+      <c r="G315" s="1"/>
+      <c r="H315" s="1"/>
+      <c r="I315" s="1"/>
+      <c r="J315" s="1"/>
+      <c r="K315" s="1"/>
+      <c r="L315" s="1"/>
+      <c r="M315" s="1"/>
+      <c r="N315" s="1"/>
+      <c r="O315" s="1"/>
+      <c r="P315" s="1"/>
+      <c r="Q315" s="1"/>
+      <c r="R315" s="1"/>
+      <c r="S315" s="1"/>
+      <c r="T315" s="1"/>
+      <c r="U315" s="1"/>
+      <c r="V315" s="1"/>
+      <c r="W315" s="1"/>
+      <c r="X315" s="1"/>
+      <c r="Y315" s="1"/>
+      <c r="Z315" s="1"/>
+      <c r="AA315" s="1"/>
+      <c r="AB315" s="1"/>
+      <c r="AC315" s="1"/>
+      <c r="AD315" s="1"/>
+    </row>
+    <row r="316" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C317" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="316" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C316" s="12" t="s">
+    <row r="319" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C319" s="12" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="317" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C317" s="5"/>
-    </row>
-    <row r="318" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C318" t="s">
+    <row r="320" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C320" s="5"/>
+    </row>
+    <row r="321" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C321" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="319" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C319" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="320" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C320" s="12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="321" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C321" s="5"/>
     </row>
     <row r="322" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C322" t="s">
-        <v>408</v>
+        <v>260</v>
       </c>
     </row>
     <row r="323" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C323" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="324" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C324" t="s">
-        <v>262</v>
-      </c>
+      <c r="C323" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C324" s="5"/>
     </row>
     <row r="325" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C325" t="s">
-        <v>275</v>
+        <v>408</v>
       </c>
     </row>
     <row r="326" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C326" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="327" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C327" s="12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="328" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C328" s="5"/>
+      <c r="C327" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="328" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C328" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="329" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C329" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="330" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C330" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="331" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C331" t="s">
-        <v>270</v>
-      </c>
+      <c r="C330" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C331" s="5"/>
     </row>
     <row r="332" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C332" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="333" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C333" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="334" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C334" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="335" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C335" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C336" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C337" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C338" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="336" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C336" s="12" t="s">
+    <row r="339" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C339" s="12" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="337" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C337" s="5"/>
-    </row>
-    <row r="338" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C338" t="s">
+    <row r="340" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C340" s="5"/>
+    </row>
+    <row r="341" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C341" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="339" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C339" s="12" t="s">
+    <row r="342" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C342" s="12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="340" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C340" s="5"/>
-    </row>
-    <row r="341" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C341" t="s">
+    <row r="343" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C343" s="5"/>
+    </row>
+    <row r="344" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C344" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="342" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C342" t="s">
+    <row r="345" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C345" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="343" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C343" t="s">
+    <row r="346" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C346" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="344" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C344" t="s">
+    <row r="347" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C347" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="345" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C345" t="s">
+    <row r="348" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C348" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="346" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C346" t="s">
+    <row r="349" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C349" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="347" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C347" t="s">
+    <row r="350" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C350" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="348" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C348" s="13" t="s">
+    <row r="351" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C351" s="13" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="350" spans="3:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="C350" s="10" t="s">
+    <row r="353" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C353" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D350" s="11"/>
-      <c r="E350" s="11"/>
-      <c r="F350" s="11"/>
-      <c r="G350" s="11"/>
-      <c r="H350" s="11"/>
-      <c r="I350" s="11"/>
-      <c r="J350" s="11"/>
-      <c r="K350" s="11"/>
-      <c r="L350" s="11"/>
-      <c r="M350" s="11"/>
-      <c r="N350" s="11"/>
-      <c r="O350" s="11"/>
-      <c r="P350" s="11"/>
-      <c r="Q350" s="11"/>
-      <c r="R350" s="11"/>
-      <c r="S350" s="11"/>
-      <c r="T350" s="11"/>
-      <c r="U350" s="11"/>
-      <c r="V350" s="11"/>
-      <c r="W350" s="11"/>
-      <c r="X350" s="11"/>
-      <c r="Y350" s="11"/>
-      <c r="Z350" s="11"/>
-      <c r="AA350" s="11"/>
-      <c r="AB350" s="11"/>
-      <c r="AC350" s="11"/>
-      <c r="AD350" s="11"/>
-    </row>
-    <row r="351" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C351" s="5"/>
-    </row>
-    <row r="352" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C352" t="s">
+      <c r="D353" s="11"/>
+      <c r="E353" s="11"/>
+      <c r="F353" s="11"/>
+      <c r="G353" s="11"/>
+      <c r="H353" s="11"/>
+      <c r="I353" s="11"/>
+      <c r="J353" s="11"/>
+      <c r="K353" s="11"/>
+      <c r="L353" s="11"/>
+      <c r="M353" s="11"/>
+      <c r="N353" s="11"/>
+      <c r="O353" s="11"/>
+      <c r="P353" s="11"/>
+      <c r="Q353" s="11"/>
+      <c r="R353" s="11"/>
+      <c r="S353" s="11"/>
+      <c r="T353" s="11"/>
+      <c r="U353" s="11"/>
+      <c r="V353" s="11"/>
+      <c r="W353" s="11"/>
+      <c r="X353" s="11"/>
+      <c r="Y353" s="11"/>
+      <c r="Z353" s="11"/>
+      <c r="AA353" s="11"/>
+      <c r="AB353" s="11"/>
+      <c r="AC353" s="11"/>
+      <c r="AD353" s="11"/>
+    </row>
+    <row r="354" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C354" s="5"/>
+    </row>
+    <row r="355" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C355" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="354" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C354" s="9" t="s">
+    <row r="357" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C357" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D354" s="1"/>
-      <c r="E354" s="1"/>
-      <c r="F354" s="1"/>
-      <c r="G354" s="1"/>
-      <c r="H354" s="1"/>
-      <c r="I354" s="1"/>
-      <c r="J354" s="1"/>
-      <c r="K354" s="1"/>
-      <c r="L354" s="1"/>
-      <c r="M354" s="1"/>
-      <c r="N354" s="1"/>
-      <c r="O354" s="1"/>
-      <c r="P354" s="1"/>
-      <c r="Q354" s="1"/>
-      <c r="R354" s="1"/>
-      <c r="S354" s="1"/>
-      <c r="T354" s="1"/>
-      <c r="U354" s="1"/>
-      <c r="V354" s="1"/>
-      <c r="W354" s="1"/>
-      <c r="X354" s="1"/>
-      <c r="Y354" s="1"/>
-      <c r="Z354" s="1"/>
-      <c r="AA354" s="1"/>
-      <c r="AB354" s="1"/>
-      <c r="AC354" s="1"/>
-      <c r="AD354" s="1"/>
-    </row>
-    <row r="355" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C356" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="357" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C357" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="358" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C358" t="s">
-        <v>289</v>
-      </c>
-    </row>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+      <c r="G357" s="1"/>
+      <c r="H357" s="1"/>
+      <c r="I357" s="1"/>
+      <c r="J357" s="1"/>
+      <c r="K357" s="1"/>
+      <c r="L357" s="1"/>
+      <c r="M357" s="1"/>
+      <c r="N357" s="1"/>
+      <c r="O357" s="1"/>
+      <c r="P357" s="1"/>
+      <c r="Q357" s="1"/>
+      <c r="R357" s="1"/>
+      <c r="S357" s="1"/>
+      <c r="T357" s="1"/>
+      <c r="U357" s="1"/>
+      <c r="V357" s="1"/>
+      <c r="W357" s="1"/>
+      <c r="X357" s="1"/>
+      <c r="Y357" s="1"/>
+      <c r="Z357" s="1"/>
+      <c r="AA357" s="1"/>
+      <c r="AB357" s="1"/>
+      <c r="AC357" s="1"/>
+      <c r="AD357" s="1"/>
+    </row>
+    <row r="358" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="359" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C359" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="360" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C360" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="361" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C361" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="362" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C362" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="363" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C363" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="364" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C364" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="365" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C365" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="366" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C366" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="367" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C367" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="368" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C368" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="369" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C369" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="370" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C370" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="371" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C371" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="373" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C373" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="372" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C373" s="9" t="s">
+    <row r="375" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C376" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D373" s="1"/>
-      <c r="E373" s="1"/>
-      <c r="F373" s="1"/>
-      <c r="G373" s="1"/>
-      <c r="H373" s="1"/>
-      <c r="I373" s="1"/>
-      <c r="J373" s="1"/>
-      <c r="K373" s="1"/>
-      <c r="L373" s="1"/>
-      <c r="M373" s="1"/>
-      <c r="N373" s="1"/>
-      <c r="O373" s="1"/>
-      <c r="P373" s="1"/>
-      <c r="Q373" s="1"/>
-      <c r="R373" s="1"/>
-      <c r="S373" s="1"/>
-      <c r="T373" s="1"/>
-      <c r="U373" s="1"/>
-      <c r="V373" s="1"/>
-      <c r="W373" s="1"/>
-      <c r="X373" s="1"/>
-      <c r="Y373" s="1"/>
-      <c r="Z373" s="1"/>
-      <c r="AA373" s="1"/>
-      <c r="AB373" s="1"/>
-      <c r="AC373" s="1"/>
-      <c r="AD373" s="1"/>
-    </row>
-    <row r="374" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C375" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="376" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C376" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="377" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C377" t="s">
-        <v>303</v>
-      </c>
-    </row>
+      <c r="D376" s="1"/>
+      <c r="E376" s="1"/>
+      <c r="F376" s="1"/>
+      <c r="G376" s="1"/>
+      <c r="H376" s="1"/>
+      <c r="I376" s="1"/>
+      <c r="J376" s="1"/>
+      <c r="K376" s="1"/>
+      <c r="L376" s="1"/>
+      <c r="M376" s="1"/>
+      <c r="N376" s="1"/>
+      <c r="O376" s="1"/>
+      <c r="P376" s="1"/>
+      <c r="Q376" s="1"/>
+      <c r="R376" s="1"/>
+      <c r="S376" s="1"/>
+      <c r="T376" s="1"/>
+      <c r="U376" s="1"/>
+      <c r="V376" s="1"/>
+      <c r="W376" s="1"/>
+      <c r="X376" s="1"/>
+      <c r="Y376" s="1"/>
+      <c r="Z376" s="1"/>
+      <c r="AA376" s="1"/>
+      <c r="AB376" s="1"/>
+      <c r="AC376" s="1"/>
+      <c r="AD376" s="1"/>
+    </row>
+    <row r="377" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="378" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C378" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="379" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C379" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="380" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C380" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="381" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C381" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="380" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C380" s="9" t="s">
+    <row r="383" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C383" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D380" s="1"/>
-      <c r="E380" s="1"/>
-      <c r="F380" s="1"/>
-      <c r="G380" s="1"/>
-      <c r="H380" s="1"/>
-      <c r="I380" s="1"/>
-      <c r="J380" s="1"/>
-      <c r="K380" s="1"/>
-      <c r="L380" s="1"/>
-      <c r="M380" s="1"/>
-      <c r="N380" s="1"/>
-      <c r="O380" s="1"/>
-      <c r="P380" s="1"/>
-      <c r="Q380" s="1"/>
-      <c r="R380" s="1"/>
-      <c r="S380" s="1"/>
-      <c r="T380" s="1"/>
-      <c r="U380" s="1"/>
-      <c r="V380" s="1"/>
-      <c r="W380" s="1"/>
-      <c r="X380" s="1"/>
-      <c r="Y380" s="1"/>
-      <c r="Z380" s="1"/>
-      <c r="AA380" s="1"/>
-      <c r="AB380" s="1"/>
-      <c r="AC380" s="1"/>
-      <c r="AD380" s="1"/>
-    </row>
-    <row r="381" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C382" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="383" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C383" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="384" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C384" t="s">
-        <v>308</v>
-      </c>
-    </row>
+      <c r="D383" s="1"/>
+      <c r="E383" s="1"/>
+      <c r="F383" s="1"/>
+      <c r="G383" s="1"/>
+      <c r="H383" s="1"/>
+      <c r="I383" s="1"/>
+      <c r="J383" s="1"/>
+      <c r="K383" s="1"/>
+      <c r="L383" s="1"/>
+      <c r="M383" s="1"/>
+      <c r="N383" s="1"/>
+      <c r="O383" s="1"/>
+      <c r="P383" s="1"/>
+      <c r="Q383" s="1"/>
+      <c r="R383" s="1"/>
+      <c r="S383" s="1"/>
+      <c r="T383" s="1"/>
+      <c r="U383" s="1"/>
+      <c r="V383" s="1"/>
+      <c r="W383" s="1"/>
+      <c r="X383" s="1"/>
+      <c r="Y383" s="1"/>
+      <c r="Z383" s="1"/>
+      <c r="AA383" s="1"/>
+      <c r="AB383" s="1"/>
+      <c r="AC383" s="1"/>
+      <c r="AD383" s="1"/>
+    </row>
+    <row r="384" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="385" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C385" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="386" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C386" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="387" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C387" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="388" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C388" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="389" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C389" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="388" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C388" s="9" t="s">
+    <row r="391" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C391" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D388" s="1"/>
-      <c r="E388" s="1"/>
-      <c r="F388" s="1"/>
-      <c r="G388" s="1"/>
-      <c r="H388" s="1"/>
-      <c r="I388" s="1"/>
-      <c r="J388" s="1"/>
-      <c r="K388" s="1"/>
-      <c r="L388" s="1"/>
-      <c r="M388" s="1"/>
-      <c r="N388" s="1"/>
-      <c r="O388" s="1"/>
-      <c r="P388" s="1"/>
-      <c r="Q388" s="1"/>
-      <c r="R388" s="1"/>
-      <c r="S388" s="1"/>
-      <c r="T388" s="1"/>
-      <c r="U388" s="1"/>
-      <c r="V388" s="1"/>
-      <c r="W388" s="1"/>
-      <c r="X388" s="1"/>
-      <c r="Y388" s="1"/>
-      <c r="Z388" s="1"/>
-      <c r="AA388" s="1"/>
-      <c r="AB388" s="1"/>
-      <c r="AC388" s="1"/>
-      <c r="AD388" s="1"/>
-    </row>
-    <row r="389" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C390" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="391" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C391" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="392" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C392" t="s">
-        <v>312</v>
-      </c>
-    </row>
+      <c r="D391" s="1"/>
+      <c r="E391" s="1"/>
+      <c r="F391" s="1"/>
+      <c r="G391" s="1"/>
+      <c r="H391" s="1"/>
+      <c r="I391" s="1"/>
+      <c r="J391" s="1"/>
+      <c r="K391" s="1"/>
+      <c r="L391" s="1"/>
+      <c r="M391" s="1"/>
+      <c r="N391" s="1"/>
+      <c r="O391" s="1"/>
+      <c r="P391" s="1"/>
+      <c r="Q391" s="1"/>
+      <c r="R391" s="1"/>
+      <c r="S391" s="1"/>
+      <c r="T391" s="1"/>
+      <c r="U391" s="1"/>
+      <c r="V391" s="1"/>
+      <c r="W391" s="1"/>
+      <c r="X391" s="1"/>
+      <c r="Y391" s="1"/>
+      <c r="Z391" s="1"/>
+      <c r="AA391" s="1"/>
+      <c r="AB391" s="1"/>
+      <c r="AC391" s="1"/>
+      <c r="AD391" s="1"/>
+    </row>
+    <row r="392" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="393" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C393" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="394" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C394" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="395" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C395" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="396" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C396" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="397" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C397" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="398" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C398" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="399" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C399" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="400" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C400" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="399" spans="3:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="C399" s="10" t="s">
+    <row r="402" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C402" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D399" s="11"/>
-      <c r="E399" s="11"/>
-      <c r="F399" s="11"/>
-      <c r="G399" s="11"/>
-      <c r="H399" s="11"/>
-      <c r="I399" s="11"/>
-      <c r="J399" s="11"/>
-      <c r="K399" s="11"/>
-      <c r="L399" s="11"/>
-      <c r="M399" s="11"/>
-      <c r="N399" s="11"/>
-      <c r="O399" s="11"/>
-      <c r="P399" s="11"/>
-      <c r="Q399" s="11"/>
-      <c r="R399" s="11"/>
-      <c r="S399" s="11"/>
-      <c r="T399" s="11"/>
-      <c r="U399" s="11"/>
-      <c r="V399" s="11"/>
-      <c r="W399" s="11"/>
-      <c r="X399" s="11"/>
-      <c r="Y399" s="11"/>
-      <c r="Z399" s="11"/>
-      <c r="AA399" s="11"/>
-      <c r="AB399" s="11"/>
-      <c r="AC399" s="11"/>
-      <c r="AD399" s="11"/>
-    </row>
-    <row r="400" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C400" s="5"/>
-    </row>
-    <row r="401" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C401" t="s">
+      <c r="D402" s="11"/>
+      <c r="E402" s="11"/>
+      <c r="F402" s="11"/>
+      <c r="G402" s="11"/>
+      <c r="H402" s="11"/>
+      <c r="I402" s="11"/>
+      <c r="J402" s="11"/>
+      <c r="K402" s="11"/>
+      <c r="L402" s="11"/>
+      <c r="M402" s="11"/>
+      <c r="N402" s="11"/>
+      <c r="O402" s="11"/>
+      <c r="P402" s="11"/>
+      <c r="Q402" s="11"/>
+      <c r="R402" s="11"/>
+      <c r="S402" s="11"/>
+      <c r="T402" s="11"/>
+      <c r="U402" s="11"/>
+      <c r="V402" s="11"/>
+      <c r="W402" s="11"/>
+      <c r="X402" s="11"/>
+      <c r="Y402" s="11"/>
+      <c r="Z402" s="11"/>
+      <c r="AA402" s="11"/>
+      <c r="AB402" s="11"/>
+      <c r="AC402" s="11"/>
+      <c r="AD402" s="11"/>
+    </row>
+    <row r="403" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C403" s="5"/>
+    </row>
+    <row r="404" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C404" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="403" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C403" s="9" t="s">
+    <row r="406" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C406" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="D403" s="1"/>
-      <c r="E403" s="1"/>
-      <c r="F403" s="1"/>
-      <c r="G403" s="1"/>
-      <c r="H403" s="1"/>
-      <c r="I403" s="1"/>
-      <c r="J403" s="1"/>
-      <c r="K403" s="1"/>
-      <c r="L403" s="1"/>
-      <c r="M403" s="1"/>
-      <c r="N403" s="1"/>
-      <c r="O403" s="1"/>
-      <c r="P403" s="1"/>
-      <c r="Q403" s="1"/>
-      <c r="R403" s="1"/>
-      <c r="S403" s="1"/>
-      <c r="T403" s="1"/>
-      <c r="U403" s="1"/>
-      <c r="V403" s="1"/>
-      <c r="W403" s="1"/>
-      <c r="X403" s="1"/>
-      <c r="Y403" s="1"/>
-      <c r="Z403" s="1"/>
-      <c r="AA403" s="1"/>
-      <c r="AB403" s="1"/>
-      <c r="AC403" s="1"/>
-      <c r="AD403" s="1"/>
-    </row>
-    <row r="404" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C405" t="s">
+      <c r="D406" s="1"/>
+      <c r="E406" s="1"/>
+      <c r="F406" s="1"/>
+      <c r="G406" s="1"/>
+      <c r="H406" s="1"/>
+      <c r="I406" s="1"/>
+      <c r="J406" s="1"/>
+      <c r="K406" s="1"/>
+      <c r="L406" s="1"/>
+      <c r="M406" s="1"/>
+      <c r="N406" s="1"/>
+      <c r="O406" s="1"/>
+      <c r="P406" s="1"/>
+      <c r="Q406" s="1"/>
+      <c r="R406" s="1"/>
+      <c r="S406" s="1"/>
+      <c r="T406" s="1"/>
+      <c r="U406" s="1"/>
+      <c r="V406" s="1"/>
+      <c r="W406" s="1"/>
+      <c r="X406" s="1"/>
+      <c r="Y406" s="1"/>
+      <c r="Z406" s="1"/>
+      <c r="AA406" s="1"/>
+      <c r="AB406" s="1"/>
+      <c r="AC406" s="1"/>
+      <c r="AD406" s="1"/>
+    </row>
+    <row r="407" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C408" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="406" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C406" t="s">
+    <row r="409" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C409" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="407" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C407" t="s">
+    <row r="410" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C410" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="409" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C409" s="9" t="s">
+    <row r="412" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C412" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="D409" s="1"/>
-      <c r="E409" s="1"/>
-      <c r="F409" s="1"/>
-      <c r="G409" s="1"/>
-      <c r="H409" s="1"/>
-      <c r="I409" s="1"/>
-      <c r="J409" s="1"/>
-      <c r="K409" s="1"/>
-      <c r="L409" s="1"/>
-      <c r="M409" s="1"/>
-      <c r="N409" s="1"/>
-      <c r="O409" s="1"/>
-      <c r="P409" s="1"/>
-      <c r="Q409" s="1"/>
-      <c r="R409" s="1"/>
-      <c r="S409" s="1"/>
-      <c r="T409" s="1"/>
-      <c r="U409" s="1"/>
-      <c r="V409" s="1"/>
-      <c r="W409" s="1"/>
-      <c r="X409" s="1"/>
-      <c r="Y409" s="1"/>
-      <c r="Z409" s="1"/>
-      <c r="AA409" s="1"/>
-      <c r="AB409" s="1"/>
-      <c r="AC409" s="1"/>
-      <c r="AD409" s="1"/>
-    </row>
-    <row r="410" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C411" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="412" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C412" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="413" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C413" t="s">
-        <v>327</v>
-      </c>
-    </row>
+      <c r="D412" s="1"/>
+      <c r="E412" s="1"/>
+      <c r="F412" s="1"/>
+      <c r="G412" s="1"/>
+      <c r="H412" s="1"/>
+      <c r="I412" s="1"/>
+      <c r="J412" s="1"/>
+      <c r="K412" s="1"/>
+      <c r="L412" s="1"/>
+      <c r="M412" s="1"/>
+      <c r="N412" s="1"/>
+      <c r="O412" s="1"/>
+      <c r="P412" s="1"/>
+      <c r="Q412" s="1"/>
+      <c r="R412" s="1"/>
+      <c r="S412" s="1"/>
+      <c r="T412" s="1"/>
+      <c r="U412" s="1"/>
+      <c r="V412" s="1"/>
+      <c r="W412" s="1"/>
+      <c r="X412" s="1"/>
+      <c r="Y412" s="1"/>
+      <c r="Z412" s="1"/>
+      <c r="AA412" s="1"/>
+      <c r="AB412" s="1"/>
+      <c r="AC412" s="1"/>
+      <c r="AD412" s="1"/>
+    </row>
+    <row r="413" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="414" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C414" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="415" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C415" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="416" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C416" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="417" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C417" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="418" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C418" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="417" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C417" s="9" t="s">
+    <row r="420" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C420" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="D417" s="1"/>
-      <c r="E417" s="1"/>
-      <c r="F417" s="1"/>
-      <c r="G417" s="1"/>
-      <c r="H417" s="1"/>
-      <c r="I417" s="1"/>
-      <c r="J417" s="1"/>
-      <c r="K417" s="1"/>
-      <c r="L417" s="1"/>
-      <c r="M417" s="1"/>
-      <c r="N417" s="1"/>
-      <c r="O417" s="1"/>
-      <c r="P417" s="1"/>
-      <c r="Q417" s="1"/>
-      <c r="R417" s="1"/>
-      <c r="S417" s="1"/>
-      <c r="T417" s="1"/>
-      <c r="U417" s="1"/>
-      <c r="V417" s="1"/>
-      <c r="W417" s="1"/>
-      <c r="X417" s="1"/>
-      <c r="Y417" s="1"/>
-      <c r="Z417" s="1"/>
-      <c r="AA417" s="1"/>
-      <c r="AB417" s="1"/>
-      <c r="AC417" s="1"/>
-      <c r="AD417" s="1"/>
-    </row>
-    <row r="418" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C419" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="420" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C420" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="421" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C421" t="s">
-        <v>332</v>
-      </c>
-    </row>
+      <c r="D420" s="1"/>
+      <c r="E420" s="1"/>
+      <c r="F420" s="1"/>
+      <c r="G420" s="1"/>
+      <c r="H420" s="1"/>
+      <c r="I420" s="1"/>
+      <c r="J420" s="1"/>
+      <c r="K420" s="1"/>
+      <c r="L420" s="1"/>
+      <c r="M420" s="1"/>
+      <c r="N420" s="1"/>
+      <c r="O420" s="1"/>
+      <c r="P420" s="1"/>
+      <c r="Q420" s="1"/>
+      <c r="R420" s="1"/>
+      <c r="S420" s="1"/>
+      <c r="T420" s="1"/>
+      <c r="U420" s="1"/>
+      <c r="V420" s="1"/>
+      <c r="W420" s="1"/>
+      <c r="X420" s="1"/>
+      <c r="Y420" s="1"/>
+      <c r="Z420" s="1"/>
+      <c r="AA420" s="1"/>
+      <c r="AB420" s="1"/>
+      <c r="AC420" s="1"/>
+      <c r="AD420" s="1"/>
+    </row>
+    <row r="421" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="422" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C422" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="423" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C423" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="424" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C424" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="425" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C425" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="426" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C426" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="427" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C427" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="428" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C428" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="429" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C429" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="430" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C430" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="431" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C431" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="432" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C432" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="431" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C431" s="9" t="s">
+    <row r="434" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C434" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="D431" s="1"/>
-      <c r="E431" s="1"/>
-      <c r="F431" s="1"/>
-      <c r="G431" s="1"/>
-      <c r="H431" s="1"/>
-      <c r="I431" s="1"/>
-      <c r="J431" s="1"/>
-      <c r="K431" s="1"/>
-      <c r="L431" s="1"/>
-      <c r="M431" s="1"/>
-      <c r="N431" s="1"/>
-      <c r="O431" s="1"/>
-      <c r="P431" s="1"/>
-      <c r="Q431" s="1"/>
-      <c r="R431" s="1"/>
-      <c r="S431" s="1"/>
-      <c r="T431" s="1"/>
-      <c r="U431" s="1"/>
-      <c r="V431" s="1"/>
-      <c r="W431" s="1"/>
-      <c r="X431" s="1"/>
-      <c r="Y431" s="1"/>
-      <c r="Z431" s="1"/>
-      <c r="AA431" s="1"/>
-      <c r="AB431" s="1"/>
-      <c r="AC431" s="1"/>
-      <c r="AD431" s="1"/>
-    </row>
-    <row r="432" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C433" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="434" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C434" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="435" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C435" t="s">
-        <v>343</v>
-      </c>
-    </row>
+      <c r="D434" s="1"/>
+      <c r="E434" s="1"/>
+      <c r="F434" s="1"/>
+      <c r="G434" s="1"/>
+      <c r="H434" s="1"/>
+      <c r="I434" s="1"/>
+      <c r="J434" s="1"/>
+      <c r="K434" s="1"/>
+      <c r="L434" s="1"/>
+      <c r="M434" s="1"/>
+      <c r="N434" s="1"/>
+      <c r="O434" s="1"/>
+      <c r="P434" s="1"/>
+      <c r="Q434" s="1"/>
+      <c r="R434" s="1"/>
+      <c r="S434" s="1"/>
+      <c r="T434" s="1"/>
+      <c r="U434" s="1"/>
+      <c r="V434" s="1"/>
+      <c r="W434" s="1"/>
+      <c r="X434" s="1"/>
+      <c r="Y434" s="1"/>
+      <c r="Z434" s="1"/>
+      <c r="AA434" s="1"/>
+      <c r="AB434" s="1"/>
+      <c r="AC434" s="1"/>
+      <c r="AD434" s="1"/>
+    </row>
+    <row r="435" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="436" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C436" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="437" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C437" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="438" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C438" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="439" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C439" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="440" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C440" t="s">
-        <v>348</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="441" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C441" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="442" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C442" s="6" t="s">
-        <v>410</v>
+      <c r="C442" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="443" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C443" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="445" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C445" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="446" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C446" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="444" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C444" t="s">
+    <row r="447" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C447" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="445" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C445" t="s">
+    <row r="448" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C448" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="448" spans="3:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="C448" s="10" t="s">
+    <row r="451" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C451" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="D448" s="11"/>
-      <c r="E448" s="11"/>
-      <c r="F448" s="11"/>
-      <c r="G448" s="11"/>
-      <c r="H448" s="11"/>
-      <c r="I448" s="11"/>
-      <c r="J448" s="11"/>
-      <c r="K448" s="11"/>
-      <c r="L448" s="11"/>
-      <c r="M448" s="11"/>
-      <c r="N448" s="11"/>
-      <c r="O448" s="11"/>
-      <c r="P448" s="11"/>
-      <c r="Q448" s="11"/>
-      <c r="R448" s="11"/>
-      <c r="S448" s="11"/>
-      <c r="T448" s="11"/>
-      <c r="U448" s="11"/>
-      <c r="V448" s="11"/>
-      <c r="W448" s="11"/>
-      <c r="X448" s="11"/>
-      <c r="Y448" s="11"/>
-      <c r="Z448" s="11"/>
-      <c r="AA448" s="11"/>
-      <c r="AB448" s="11"/>
-      <c r="AC448" s="11"/>
-      <c r="AD448" s="11"/>
-    </row>
-    <row r="449" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C449" s="5"/>
-    </row>
-    <row r="450" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C450" t="s">
+      <c r="D451" s="11"/>
+      <c r="E451" s="11"/>
+      <c r="F451" s="11"/>
+      <c r="G451" s="11"/>
+      <c r="H451" s="11"/>
+      <c r="I451" s="11"/>
+      <c r="J451" s="11"/>
+      <c r="K451" s="11"/>
+      <c r="L451" s="11"/>
+      <c r="M451" s="11"/>
+      <c r="N451" s="11"/>
+      <c r="O451" s="11"/>
+      <c r="P451" s="11"/>
+      <c r="Q451" s="11"/>
+      <c r="R451" s="11"/>
+      <c r="S451" s="11"/>
+      <c r="T451" s="11"/>
+      <c r="U451" s="11"/>
+      <c r="V451" s="11"/>
+      <c r="W451" s="11"/>
+      <c r="X451" s="11"/>
+      <c r="Y451" s="11"/>
+      <c r="Z451" s="11"/>
+      <c r="AA451" s="11"/>
+      <c r="AB451" s="11"/>
+      <c r="AC451" s="11"/>
+      <c r="AD451" s="11"/>
+    </row>
+    <row r="452" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C452" s="5"/>
+    </row>
+    <row r="453" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C453" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="451" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C451" t="s">
+    <row r="454" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C454" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="453" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C453" s="9" t="s">
+    <row r="456" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C456" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D453" s="1"/>
-      <c r="E453" s="1"/>
-      <c r="F453" s="1"/>
-      <c r="G453" s="1"/>
-      <c r="H453" s="1"/>
-      <c r="I453" s="1"/>
-      <c r="J453" s="1"/>
-      <c r="K453" s="1"/>
-      <c r="L453" s="1"/>
-      <c r="M453" s="1"/>
-      <c r="N453" s="1"/>
-      <c r="O453" s="1"/>
-      <c r="P453" s="1"/>
-      <c r="Q453" s="1"/>
-      <c r="R453" s="1"/>
-      <c r="S453" s="1"/>
-      <c r="T453" s="1"/>
-      <c r="U453" s="1"/>
-      <c r="V453" s="1"/>
-      <c r="W453" s="1"/>
-      <c r="X453" s="1"/>
-      <c r="Y453" s="1"/>
-      <c r="Z453" s="1"/>
-      <c r="AA453" s="1"/>
-      <c r="AB453" s="1"/>
-      <c r="AC453" s="1"/>
-      <c r="AD453" s="1"/>
-    </row>
-    <row r="454" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C455" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="456" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C456" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="457" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C457" t="s">
-        <v>354</v>
-      </c>
-    </row>
+      <c r="D456" s="1"/>
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+      <c r="H456" s="1"/>
+      <c r="I456" s="1"/>
+      <c r="J456" s="1"/>
+      <c r="K456" s="1"/>
+      <c r="L456" s="1"/>
+      <c r="M456" s="1"/>
+      <c r="N456" s="1"/>
+      <c r="O456" s="1"/>
+      <c r="P456" s="1"/>
+      <c r="Q456" s="1"/>
+      <c r="R456" s="1"/>
+      <c r="S456" s="1"/>
+      <c r="T456" s="1"/>
+      <c r="U456" s="1"/>
+      <c r="V456" s="1"/>
+      <c r="W456" s="1"/>
+      <c r="X456" s="1"/>
+      <c r="Y456" s="1"/>
+      <c r="Z456" s="1"/>
+      <c r="AA456" s="1"/>
+      <c r="AB456" s="1"/>
+      <c r="AC456" s="1"/>
+      <c r="AD456" s="1"/>
+    </row>
+    <row r="457" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="458" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C458" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="459" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C459" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="460" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C460" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="461" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C461" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="462" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C462" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="461" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C461" s="9" t="s">
+    <row r="464" spans="3:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C464" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D461" s="1"/>
-      <c r="E461" s="1"/>
-      <c r="F461" s="1"/>
-      <c r="G461" s="1"/>
-      <c r="H461" s="1"/>
-      <c r="I461" s="1"/>
-      <c r="J461" s="1"/>
-      <c r="K461" s="1"/>
-      <c r="L461" s="1"/>
-      <c r="M461" s="1"/>
-      <c r="N461" s="1"/>
-      <c r="O461" s="1"/>
-      <c r="P461" s="1"/>
-      <c r="Q461" s="1"/>
-      <c r="R461" s="1"/>
-      <c r="S461" s="1"/>
-      <c r="T461" s="1"/>
-      <c r="U461" s="1"/>
-      <c r="V461" s="1"/>
-      <c r="W461" s="1"/>
-      <c r="X461" s="1"/>
-      <c r="Y461" s="1"/>
-      <c r="Z461" s="1"/>
-      <c r="AA461" s="1"/>
-      <c r="AB461" s="1"/>
-      <c r="AC461" s="1"/>
-      <c r="AD461" s="1"/>
-    </row>
-    <row r="462" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C463" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="464" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C464" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="465" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C465" t="s">
-        <v>360</v>
-      </c>
-    </row>
+      <c r="D464" s="1"/>
+      <c r="E464" s="1"/>
+      <c r="F464" s="1"/>
+      <c r="G464" s="1"/>
+      <c r="H464" s="1"/>
+      <c r="I464" s="1"/>
+      <c r="J464" s="1"/>
+      <c r="K464" s="1"/>
+      <c r="L464" s="1"/>
+      <c r="M464" s="1"/>
+      <c r="N464" s="1"/>
+      <c r="O464" s="1"/>
+      <c r="P464" s="1"/>
+      <c r="Q464" s="1"/>
+      <c r="R464" s="1"/>
+      <c r="S464" s="1"/>
+      <c r="T464" s="1"/>
+      <c r="U464" s="1"/>
+      <c r="V464" s="1"/>
+      <c r="W464" s="1"/>
+      <c r="X464" s="1"/>
+      <c r="Y464" s="1"/>
+      <c r="Z464" s="1"/>
+      <c r="AA464" s="1"/>
+      <c r="AB464" s="1"/>
+      <c r="AC464" s="1"/>
+      <c r="AD464" s="1"/>
+    </row>
+    <row r="465" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="466" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C466" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="467" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C467" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="468" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C468" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="469" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C469" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="470" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C470" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="471" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C471" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="472" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C472" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="473" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C473" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="472" spans="3:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="C472" s="10" t="s">
+    <row r="475" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C475" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D472" s="11"/>
-      <c r="E472" s="11"/>
-      <c r="F472" s="11"/>
-      <c r="G472" s="11"/>
-      <c r="H472" s="11"/>
-      <c r="I472" s="11"/>
-      <c r="J472" s="11"/>
-      <c r="K472" s="11"/>
-      <c r="L472" s="11"/>
-      <c r="M472" s="11"/>
-      <c r="N472" s="11"/>
-      <c r="O472" s="11"/>
-      <c r="P472" s="11"/>
-      <c r="Q472" s="11"/>
-      <c r="R472" s="11"/>
-      <c r="S472" s="11"/>
-      <c r="T472" s="11"/>
-      <c r="U472" s="11"/>
-      <c r="V472" s="11"/>
-      <c r="W472" s="11"/>
-      <c r="X472" s="11"/>
-      <c r="Y472" s="11"/>
-      <c r="Z472" s="11"/>
-      <c r="AA472" s="11"/>
-      <c r="AB472" s="11"/>
-      <c r="AC472" s="11"/>
-      <c r="AD472" s="11"/>
-    </row>
-    <row r="473" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C474" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="475" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C475" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="476" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C476" t="s">
-        <v>376</v>
-      </c>
-    </row>
+      <c r="D475" s="11"/>
+      <c r="E475" s="11"/>
+      <c r="F475" s="11"/>
+      <c r="G475" s="11"/>
+      <c r="H475" s="11"/>
+      <c r="I475" s="11"/>
+      <c r="J475" s="11"/>
+      <c r="K475" s="11"/>
+      <c r="L475" s="11"/>
+      <c r="M475" s="11"/>
+      <c r="N475" s="11"/>
+      <c r="O475" s="11"/>
+      <c r="P475" s="11"/>
+      <c r="Q475" s="11"/>
+      <c r="R475" s="11"/>
+      <c r="S475" s="11"/>
+      <c r="T475" s="11"/>
+      <c r="U475" s="11"/>
+      <c r="V475" s="11"/>
+      <c r="W475" s="11"/>
+      <c r="X475" s="11"/>
+      <c r="Y475" s="11"/>
+      <c r="Z475" s="11"/>
+      <c r="AA475" s="11"/>
+      <c r="AB475" s="11"/>
+      <c r="AC475" s="11"/>
+      <c r="AD475" s="11"/>
+    </row>
+    <row r="476" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="477" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C477" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="478" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C478" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="479" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C479" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="480" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C480" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="481" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C481" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="480" spans="3:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="C480" s="10" t="s">
+    <row r="483" spans="3:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C483" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="D480" s="11"/>
-      <c r="E480" s="11"/>
-      <c r="F480" s="11"/>
-      <c r="G480" s="11"/>
-      <c r="H480" s="11"/>
-      <c r="I480" s="11"/>
-      <c r="J480" s="11"/>
-      <c r="K480" s="11"/>
-      <c r="L480" s="11"/>
-      <c r="M480" s="11"/>
-      <c r="N480" s="11"/>
-      <c r="O480" s="11"/>
-      <c r="P480" s="11"/>
-      <c r="Q480" s="11"/>
-      <c r="R480" s="11"/>
-      <c r="S480" s="11"/>
-      <c r="T480" s="11"/>
-      <c r="U480" s="11"/>
-      <c r="V480" s="11"/>
-      <c r="W480" s="11"/>
-      <c r="X480" s="11"/>
-      <c r="Y480" s="11"/>
-      <c r="Z480" s="11"/>
-      <c r="AA480" s="11"/>
-      <c r="AB480" s="11"/>
-      <c r="AC480" s="11"/>
-      <c r="AD480" s="11"/>
-    </row>
-    <row r="481" spans="3:3" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C482" t="s">
+      <c r="D483" s="11"/>
+      <c r="E483" s="11"/>
+      <c r="F483" s="11"/>
+      <c r="G483" s="11"/>
+      <c r="H483" s="11"/>
+      <c r="I483" s="11"/>
+      <c r="J483" s="11"/>
+      <c r="K483" s="11"/>
+      <c r="L483" s="11"/>
+      <c r="M483" s="11"/>
+      <c r="N483" s="11"/>
+      <c r="O483" s="11"/>
+      <c r="P483" s="11"/>
+      <c r="Q483" s="11"/>
+      <c r="R483" s="11"/>
+      <c r="S483" s="11"/>
+      <c r="T483" s="11"/>
+      <c r="U483" s="11"/>
+      <c r="V483" s="11"/>
+      <c r="W483" s="11"/>
+      <c r="X483" s="11"/>
+      <c r="Y483" s="11"/>
+      <c r="Z483" s="11"/>
+      <c r="AA483" s="11"/>
+      <c r="AB483" s="11"/>
+      <c r="AC483" s="11"/>
+      <c r="AD483" s="11"/>
+    </row>
+    <row r="484" spans="3:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C485" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="483" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C483" t="s">
+    <row r="486" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C486" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="484" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C484" t="s">
+    <row r="487" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C487" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="485" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C485" t="s">
+    <row r="488" spans="3:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C488" t="s">
         <v>374</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C15" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="O14" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="O15" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="Q66" r:id="rId4" location=":~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82" display="https://www.haba.co.jp/info/CHSfIngredientDetail.jsp?INGREDIENT_NO=923&amp;igidx=1#:~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="Q67" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="Q68" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="Q69" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="Q73" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="Q72" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C348" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="Q71" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="Q69" r:id="rId4" location=":~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82" display="https://www.haba.co.jp/info/CHSfIngredientDetail.jsp?INGREDIENT_NO=923&amp;igidx=1#:~:text=%E3%82%A2%E3%83%95%E3%83%AA%E3%82%AB%E3%81%AE%E3%83%90%E3%82%AA%E3%83%90%E3%83%96%E3%81%AE%E8%91%89,%E3%82%B1%E3%82%A2%E3%81%AB%E9%85%8D%E5%90%88%E3%81%95%E3%82%8C%E3%81%BE%E3%81%99%E3%80%82" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="Q70" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="Q71" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="Q72" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="Q76" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="Q75" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C351" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="Q74" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
@@ -12086,7 +12116,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12099,10 +12129,10 @@
     <row r="2" spans="1:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>486</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12110,7 +12140,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12124,7 +12154,7 @@
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12134,7 +12164,7 @@
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12147,10 +12177,10 @@
         <v>416</v>
       </c>
       <c r="O15" t="s">
+        <v>477</v>
+      </c>
+      <c r="S15" s="13" t="s">
         <v>478</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12158,61 +12188,61 @@
         <v>417</v>
       </c>
       <c r="O16" t="s">
+        <v>480</v>
+      </c>
+      <c r="S16" s="13" t="s">
         <v>481</v>
-      </c>
-      <c r="S16" s="13" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="17" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>418</v>
+        <v>498</v>
       </c>
       <c r="O17" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="R17" s="13" t="s">
         <v>483</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="18" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="T18" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O20" t="s">
+        <v>489</v>
+      </c>
+      <c r="R20" s="13" t="s">
         <v>490</v>
-      </c>
-      <c r="R20" s="13" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="21" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O21" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q21" s="13" t="s">
         <v>492</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="22" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O22" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12222,317 +12252,317 @@
     </row>
     <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D45" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E50" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E51" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F52" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="53" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F53" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D57" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E58" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="59" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E59" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="61" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C61" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D62" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E63" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="64" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E64" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="65" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D65" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E66" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E67" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F68" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="70" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F70" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F71" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F72" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E73" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="75" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F75" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="76" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F76" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="77" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F77" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F78" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="79" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F79" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="80" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E80" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="81" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F81" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="82" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F82" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F83" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F84" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="85" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F85" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="87" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D87" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="88" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E88" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="89" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E89" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="90" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E90" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="91" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E91" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="92" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E92" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="93" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E93" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="94" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E94" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C96" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="98" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C98" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="99" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D99" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="100" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D100" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="102" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C102" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="104" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C104" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="106" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C106" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="108" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C108" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="110" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C110" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="112" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C112" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="114" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/アフィリエイト_商品.xlsx
+++ b/アフィリエイト_商品.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\aff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C326C80-39F1-40DD-8AC1-15C85BD81899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD9B0FE-1944-4222-9421-C8B8DE33F711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12111,12 +12111,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD121"/>
+  <dimension ref="A1:AD113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12194,7 +12194,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="17" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>498</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="18" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>418</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="19" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>419</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="20" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O20" t="s">
         <v>489</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O21" t="s">
         <v>491</v>
       </c>
@@ -12240,413 +12240,413 @@
         <v>492</v>
       </c>
     </row>
-    <row r="22" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O22" s="13" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="6" t="s">
+    <row r="25" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C34" t="s">
+    <row r="26" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C35" t="s">
+    <row r="27" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C36" t="s">
+    <row r="28" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C37" t="s">
+    <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C38" t="s">
+    <row r="30" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C40" t="s">
+    <row r="32" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D41" t="s">
+    <row r="33" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D33" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D43" t="s">
+    <row r="35" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D35" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D45" t="s">
+    <row r="37" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D37" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D47" t="s">
+    <row r="39" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D39" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E48" t="s">
+    <row r="40" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E40" t="s">
         <v>430</v>
       </c>
     </row>
+    <row r="41" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E41" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E42" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E43" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F44" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F45" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F46" t="s">
+        <v>434</v>
+      </c>
+    </row>
     <row r="49" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E49" t="s">
-        <v>431</v>
+      <c r="D49" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E50" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E51" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F52" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F53" t="s">
-        <v>439</v>
+      <c r="C53" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="54" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F54" t="s">
-        <v>434</v>
+      <c r="D54" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E55" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E56" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D57" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E58" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E59" t="s">
-        <v>436</v>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F60" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C61" t="s">
-        <v>441</v>
+      <c r="F61" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D62" t="s">
-        <v>442</v>
+      <c r="F62" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E63" t="s">
-        <v>459</v>
+      <c r="F63" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="64" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E64" t="s">
-        <v>460</v>
+      <c r="F64" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="65" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D65" t="s">
-        <v>443</v>
+      <c r="E65" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="66" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E66" t="s">
-        <v>430</v>
+      <c r="F66" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E67" t="s">
-        <v>431</v>
+      <c r="F67" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="68" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F68" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F69" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="70" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F70" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F71" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
     </row>
     <row r="72" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F72" t="s">
-        <v>457</v>
+      <c r="E72" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E73" t="s">
-        <v>433</v>
+      <c r="F73" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="74" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F74" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F75" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="76" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F76" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="77" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F77" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F78" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="79" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F79" t="s">
-        <v>479</v>
+      <c r="D79" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="80" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E80" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="81" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F81" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="82" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F82" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="83" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F83" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="84" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F84" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F85" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="87" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D87" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E88" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="89" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E89" t="s">
+    <row r="81" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E81" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="90" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E90" t="s">
+    <row r="82" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E82" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="91" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E91" t="s">
+    <row r="83" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E83" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="92" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E92" t="s">
+    <row r="84" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E84" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="93" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E93" t="s">
+    <row r="85" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E85" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="94" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E94" t="s">
+    <row r="86" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E86" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="96" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C88" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C90" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D91" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D92" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C94" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C96" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="98" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C98" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="99" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D99" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="100" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D100" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="102" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="100" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C100" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="102" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C102" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="104" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="104" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C104" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="106" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C106" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="108" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C108" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="110" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C110" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="112" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C112" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="114" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B114" s="6" t="s">
+    <row r="106" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B106" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="2:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="C115" s="10" t="s">
+    <row r="107" spans="2:30" ht="30" x14ac:dyDescent="0.4">
+      <c r="C107" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="11"/>
-      <c r="O115" s="11"/>
-      <c r="P115" s="11"/>
-      <c r="Q115" s="11"/>
-      <c r="R115" s="11"/>
-      <c r="S115" s="11"/>
-      <c r="T115" s="11"/>
-      <c r="U115" s="11"/>
-      <c r="V115" s="11"/>
-      <c r="W115" s="11"/>
-      <c r="X115" s="11"/>
-      <c r="Y115" s="11"/>
-      <c r="Z115" s="11"/>
-      <c r="AA115" s="11"/>
-      <c r="AB115" s="11"/>
-      <c r="AC115" s="11"/>
-      <c r="AD115" s="11"/>
-    </row>
-    <row r="116" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C116" s="5"/>
-    </row>
-    <row r="117" spans="2:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C117" s="9" t="s">
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11"/>
+      <c r="Q107" s="11"/>
+      <c r="R107" s="11"/>
+      <c r="S107" s="11"/>
+      <c r="T107" s="11"/>
+      <c r="U107" s="11"/>
+      <c r="V107" s="11"/>
+      <c r="W107" s="11"/>
+      <c r="X107" s="11"/>
+      <c r="Y107" s="11"/>
+      <c r="Z107" s="11"/>
+      <c r="AA107" s="11"/>
+      <c r="AB107" s="11"/>
+      <c r="AC107" s="11"/>
+      <c r="AD107" s="11"/>
+    </row>
+    <row r="108" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C108" s="5"/>
+    </row>
+    <row r="109" spans="2:30" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C109" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
-      <c r="S117" s="1"/>
-      <c r="T117" s="1"/>
-      <c r="U117" s="1"/>
-      <c r="V117" s="1"/>
-      <c r="W117" s="1"/>
-      <c r="X117" s="1"/>
-      <c r="Y117" s="1"/>
-      <c r="Z117" s="1"/>
-      <c r="AA117" s="1"/>
-      <c r="AB117" s="1"/>
-      <c r="AC117" s="1"/>
-      <c r="AD117" s="1"/>
-    </row>
-    <row r="118" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C118" s="5"/>
-    </row>
-    <row r="119" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C119" s="12" t="s">
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
+      <c r="AC109" s="1"/>
+      <c r="AD109" s="1"/>
+    </row>
+    <row r="110" spans="2:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C110" s="5"/>
+    </row>
+    <row r="111" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C111" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="2:30" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="C121" s="4" t="s">
+    <row r="113" spans="3:3" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="C113" s="4" t="s">
         <v>47</v>
       </c>
     </row>
